--- a/fim_levels.xlsx
+++ b/fim_levels.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GNabors\Downloads\fim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7C4B8B-3626-4E3D-AD49-0BFF3F9BA08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC6C206-BA99-439D-AEE7-07BE75F24D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28695" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>date</t>
   </si>
@@ -28,13 +41,49 @@
     <t>minus_neutral_sum</t>
   </si>
   <si>
-    <t>gdp_actual</t>
+    <t>real_gdp_actual</t>
   </si>
   <si>
-    <t>gdp_counterfactual</t>
+    <t>real_gdp_counterfactual</t>
   </si>
   <si>
     <t>percent_difference</t>
+  </si>
+  <si>
+    <t>federal_levels</t>
+  </si>
+  <si>
+    <t>state_levels</t>
+  </si>
+  <si>
+    <t>taxes_levels</t>
+  </si>
+  <si>
+    <t>transfers_levels</t>
+  </si>
+  <si>
+    <t>federal_health_outlays_contribution_levels</t>
+  </si>
+  <si>
+    <t>state_health_outlays_contribution_levels</t>
+  </si>
+  <si>
+    <t>federal_subsidies_contribution_levels</t>
+  </si>
+  <si>
+    <t>state_subsidies_contribution_levels</t>
+  </si>
+  <si>
+    <t>federal_ui_contribution_levels</t>
+  </si>
+  <si>
+    <t>state_ui_contribution_levels</t>
+  </si>
+  <si>
+    <t>rebate_checks_arp_contribution_levels</t>
+  </si>
+  <si>
+    <t>rebate_checks_contribution_levels</t>
   </si>
   <si>
     <t>2019 Q3</t>
@@ -120,6 +169,21 @@
   <si>
     <t>2026 Q2</t>
   </si>
+  <si>
+    <t>2026 Q3</t>
+  </si>
+  <si>
+    <t>total health</t>
+  </si>
+  <si>
+    <t>total subsidies</t>
+  </si>
+  <si>
+    <t>total UI</t>
+  </si>
+  <si>
+    <t>total rebate checks</t>
+  </si>
 </sst>
 </file>
 
@@ -154,14 +218,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF003A70"/>
+      <color rgb="FFFF9E1B"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -171,6 +244,3979 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Effects</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of Fiscal Policy on the Level of GDP</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Actual Real GDP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="003A70"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet 1'!$A$4:$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>2020 Q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020 Q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020 Q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020 Q4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2021 Q1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2021 Q2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2021 Q3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2021 Q4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2022 Q1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2022 Q2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2022 Q3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2022 Q4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2023 Q1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2023 Q2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2023 Q3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2023 Q4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2024 Q1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2024 Q2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2024 Q3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2024 Q4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2025 Q1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2025 Q2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2025 Q3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2025 Q4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2026 Q1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2026 Q2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2026 Q3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet 1'!$C$4:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>21727.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19935.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21684.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22068.799999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22656.799999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23368.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23922</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24777</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25215.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25805.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26272</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26734.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27164.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27453.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27967.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>28297</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28624.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29016.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>29349.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29641.282525397899</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>29945.3294512391</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30256.772386939101</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>30562.136410426399</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30851.897892567598</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31121.598964406701</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>31395.150013980499</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31679.947051147999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-372D-4C94-ABF4-5B022DF12E9E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Counterfactual Real GDP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF9E1B"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet 1'!$A$4:$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>2020 Q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020 Q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020 Q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020 Q4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2021 Q1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2021 Q2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2021 Q3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2021 Q4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2022 Q1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2022 Q2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2022 Q3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2022 Q4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2023 Q1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2023 Q2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2023 Q3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2023 Q4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2024 Q1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2024 Q2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2024 Q3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2024 Q4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2025 Q1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2025 Q2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2025 Q3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2025 Q4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2026 Q1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2026 Q2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2026 Q3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet 1'!$D$4:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>21702.604705567199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19146.0446187536</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20749.713876443799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21310.629153595899</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21454.592034356101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22269.063496799001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22965.665090079499</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23967.190729448899</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24618.652822153301</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25483.6165458713</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26089.144726537099</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26559.391214515199</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26981.8302522306</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27303.526462027399</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27806.300028654099</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>28161.847970042101</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28484.837525018502</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>28867.454270281502</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>29168.196980762499</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29478.760424001299</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>29801.710947571399</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30129.7845280972</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>30446.228472679199</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30767.311194350499</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31043.6363315706</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>31322.825000529399</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31624.8971601267</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-372D-4C94-ABF4-5B022DF12E9E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1700823711"/>
+        <c:axId val="1647519791"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1700823711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1647519791"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1647519791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="16500"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Billions of Chained 2017 Dollars</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1700823711"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Effects</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of the Components of Fiscal Policy on the Level of Real GDP</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Federal Purchases</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet 1'!$A$4:$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>2020 Q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020 Q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020 Q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020 Q4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2021 Q1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2021 Q2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2021 Q3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2021 Q4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2022 Q1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2022 Q2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2022 Q3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2022 Q4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2023 Q1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2023 Q2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2023 Q3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2023 Q4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2024 Q1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2024 Q2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2024 Q3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2024 Q4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2025 Q1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2025 Q2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2025 Q3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2025 Q4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2026 Q1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2026 Q2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2026 Q3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet 1'!$F$4:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>9.5198819095386096</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>217.73647423123501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>134.982508517024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>118.085625967881</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>189.75968530443501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>181.15192902779</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>151.12441695878999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>176.751068114887</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>157.11539849792399</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>191.42011543835901</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>160.182790537529</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>151.72641621501899</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>152.65077423408599</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>132.99344678580201</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>125.622152498091</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>129.39958936779101</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>115.584695944007</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>127.800809110679</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>178.23728737011399</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>150.816686534242</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>131.75056510805501</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>121.697460124694</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>123.33319626782399</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>111.049070241774</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>103.97245623344701</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>95.887022688649793</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>89.663611011670497</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-48F8-4F5C-8721-B759DB9D2366}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>State Purchases</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet 1'!$A$4:$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>2020 Q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020 Q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020 Q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020 Q4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2021 Q1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2021 Q2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2021 Q3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2021 Q4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2022 Q1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2022 Q2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2022 Q3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2022 Q4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2023 Q1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2023 Q2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2023 Q3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2023 Q4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2024 Q1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2024 Q2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2024 Q3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2024 Q4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2025 Q1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2025 Q2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2025 Q3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2025 Q4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2026 Q1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2026 Q2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2026 Q3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet 1'!$G$4:$G$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>13.510025074339101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-128.91817444117501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-127.062262672036</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-144.88276273640901</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-183.37423160434099</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-238.913678931486</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-245.81601731333501</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-297.57888474339398</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-340.61270602244099</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-421.20281249236302</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-397.59718612988001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-354.35863305548799</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-321.70682650342798</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-291.43064475963598</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-244.40059215197701</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-230.138091038824</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-221.00169038620501</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-222.349844632279</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-238.15404432794901</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-247.67080768807199</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-235.74544690070601</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-231.94861011594199</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-240.57971055013701</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-245.62095828005801</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-253.91187379724499</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-260.183715591002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-270.54462682131299</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-48F8-4F5C-8721-B759DB9D2366}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Taxes</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet 1'!$A$4:$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>2020 Q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020 Q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020 Q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020 Q4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2021 Q1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2021 Q2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2021 Q3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2021 Q4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2022 Q1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2022 Q2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2022 Q3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2022 Q4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2023 Q1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2023 Q2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2023 Q3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2023 Q4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2024 Q1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2024 Q2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2024 Q3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2024 Q4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2025 Q1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2025 Q2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2025 Q3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2025 Q4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2026 Q1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2026 Q2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2026 Q3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet 1'!$H$4:$H$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>-6.1366643655106303</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.1271161376382</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.041927492405598</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.94757391929594</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6.5086586025155002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-20.220961650119101</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-40.401458627133401</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-55.644640907030897</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-109.363942956686</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-184.64887697218401</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-228.72391459267499</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-260.224029610304</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-223.22242293620599</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-189.14850698337099</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-176.47845404813</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-177.64175710827701</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-137.69788531276799</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-107.167739633304</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-103.68129101218599</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-100.74997317948799</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-110.21172456578699</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-107.39875130601899</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-100.91780904031999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-101.827745326645</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-85.056282832910298</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-70.572993626247296</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-62.588832362024803</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-48F8-4F5C-8721-B759DB9D2366}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Transfers</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet 1'!$A$4:$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>2020 Q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020 Q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020 Q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020 Q4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2021 Q1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2021 Q2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2021 Q3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2021 Q4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2022 Q1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2022 Q2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2022 Q3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2022 Q4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2023 Q1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2023 Q2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2023 Q3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2023 Q4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2024 Q1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2024 Q2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2024 Q3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2024 Q4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2025 Q1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2025 Q2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2025 Q3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2025 Q4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2026 Q1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2026 Q2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2026 Q3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet 1'!$I$4:$I$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>8.2020518144024699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>689.40996531865903</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>892.92395021878599</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>780.02040925330903</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1202.33117054633</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1177.81921475479</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1091.42796890216</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>986.28172808668603</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>889.70842832791504</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>736.61502815487495</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>648.99358364788202</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>637.76503193560302</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>574.84822297492701</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>497.85924292983202</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>456.65686504790102</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>413.53228873723702</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>382.37735473651401</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>350.962504873412</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>345.301067207502</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>360.12619572991701</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>357.82511002613097</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>344.63776013918903</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>334.07226106980801</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>320.98633158195997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>312.95833323273598</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>307.19469997969497</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>298.519739192945</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-48F8-4F5C-8721-B759DB9D2366}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="119540735"/>
+        <c:axId val="122307215"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="119540735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="122307215"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="122307215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="119540735"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet 1'!$V$4:$V$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>23.029906983877709</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88.818299790059996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9202458449880027</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-26.797136768528006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.3854537000940184</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-57.761749903696</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-94.691600354545017</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-120.82781662850698</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-183.497307524517</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-229.78269705400402</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-237.41439559235101</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-202.632216840469</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-169.05605226934199</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-158.43719797383397</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-118.77843965388601</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-100.73850167103299</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-105.41699444219802</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-94.549035521600004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-59.91675695783502</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-96.854121153829993</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-103.994881792651</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-110.25114999124798</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-117.24651428231302</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-134.57188803828399</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-149.93941756379797</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-164.29669290235222</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-180.88101580964249</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-90A0-4BEC-A552-3EB7613436D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="285034511"/>
+        <c:axId val="1845507359"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="285034511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1845507359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1845507359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="285034511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93CAEDDB-CBF9-E1E5-3856-88A84A616C70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>157161</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31427443-997E-2030-7833-E370648CA6FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>700087</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>700087</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74CD08F8-C8A5-3806-AEA1-95BED92CCDD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -452,50 +4498,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N5:N6"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>21717.200000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>21933.200000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>25.095294432769499</v>
@@ -509,10 +4603,66 @@
       <c r="E4">
         <v>0.115632638447005</v>
       </c>
+      <c r="F4">
+        <v>9.5198819095386096</v>
+      </c>
+      <c r="G4">
+        <v>13.510025074339101</v>
+      </c>
+      <c r="H4">
+        <v>-6.1366643655106303</v>
+      </c>
+      <c r="I4">
+        <v>8.2020518144024699</v>
+      </c>
+      <c r="J4">
+        <v>1.57647743727603</v>
+      </c>
+      <c r="K4">
+        <v>-3.6448259937580798</v>
+      </c>
+      <c r="L4">
+        <v>0.55373089181069801</v>
+      </c>
+      <c r="M4">
+        <v>5.6937852508914799E-4</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>4.0254264007927398</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <f>SUM(K4:L4)</f>
+        <v>-3.0910951019473818</v>
+      </c>
+      <c r="S4">
+        <f>SUM(N4:O4)</f>
+        <v>4.0254264007927398</v>
+      </c>
+      <c r="T4">
+        <f>SUM(P4:Q4)</f>
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <f>SUM(L4:M4)</f>
+        <v>0.5543002703357871</v>
+      </c>
+      <c r="V4">
+        <f>SUM(F4:G4)</f>
+        <v>23.029906983877709</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>789.35538124635798</v>
@@ -526,10 +4676,66 @@
       <c r="E5">
         <v>4.1228117711225902</v>
       </c>
+      <c r="F5">
+        <v>217.73647423123501</v>
+      </c>
+      <c r="G5">
+        <v>-128.91817444117501</v>
+      </c>
+      <c r="H5">
+        <v>11.1271161376382</v>
+      </c>
+      <c r="I5">
+        <v>689.40996531865903</v>
+      </c>
+      <c r="J5">
+        <v>26.2847017515505</v>
+      </c>
+      <c r="K5">
+        <v>-14.7354279805174</v>
+      </c>
+      <c r="L5">
+        <v>48.4498990760476</v>
+      </c>
+      <c r="M5">
+        <v>1.2122904290864901E-3</v>
+      </c>
+      <c r="N5">
+        <v>245.57400000000001</v>
+      </c>
+      <c r="O5">
+        <v>49.694827819420702</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>264.1345</v>
+      </c>
+      <c r="R5">
+        <f t="shared" ref="R5:R30" si="0">SUM(K5:L5)</f>
+        <v>33.7144710955302</v>
+      </c>
+      <c r="S5">
+        <f t="shared" ref="S5:S30" si="1">SUM(N5:O5)</f>
+        <v>295.26882781942072</v>
+      </c>
+      <c r="T5">
+        <f t="shared" ref="T5:T30" si="2">SUM(P5:Q5)</f>
+        <v>264.1345</v>
+      </c>
+      <c r="U5">
+        <f t="shared" ref="U5:U30" si="3">SUM(L5:M5)</f>
+        <v>48.451111366476688</v>
+      </c>
+      <c r="V5">
+        <f t="shared" ref="V5:V30" si="4">SUM(F5:G5)</f>
+        <v>88.818299790059996</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>934.88612355617897</v>
@@ -543,10 +4749,66 @@
       <c r="E6">
         <v>4.5055374214943296</v>
       </c>
+      <c r="F6">
+        <v>134.982508517024</v>
+      </c>
+      <c r="G6">
+        <v>-127.062262672036</v>
+      </c>
+      <c r="H6">
+        <v>34.041927492405598</v>
+      </c>
+      <c r="I6">
+        <v>892.92395021878599</v>
+      </c>
+      <c r="J6">
+        <v>33.400914740707101</v>
+      </c>
+      <c r="K6">
+        <v>-16.499667880785498</v>
+      </c>
+      <c r="L6">
+        <v>95.901308065187095</v>
+      </c>
+      <c r="M6">
+        <v>-1.3241716381288699E-3</v>
+      </c>
+      <c r="N6">
+        <v>462.483</v>
+      </c>
+      <c r="O6">
+        <v>72.927888750145101</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>117.02249999999999</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>79.4016401844016</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="1"/>
+        <v>535.41088875014509</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="2"/>
+        <v>117.02249999999999</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="3"/>
+        <v>95.899983893548963</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="4"/>
+        <v>7.9202458449880027</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <v>758.170846404077</v>
@@ -560,10 +4822,66 @@
       <c r="E7">
         <v>3.55771216766794</v>
       </c>
+      <c r="F7">
+        <v>118.085625967881</v>
+      </c>
+      <c r="G7">
+        <v>-144.88276273640901</v>
+      </c>
+      <c r="H7">
+        <v>4.94757391929594</v>
+      </c>
+      <c r="I7">
+        <v>780.02040925330903</v>
+      </c>
+      <c r="J7">
+        <v>52.0641650048644</v>
+      </c>
+      <c r="K7">
+        <v>-26.3127275617496</v>
+      </c>
+      <c r="L7">
+        <v>108.305639479666</v>
+      </c>
+      <c r="M7">
+        <v>-3.0276028046259998E-3</v>
+      </c>
+      <c r="N7">
+        <v>366.6105</v>
+      </c>
+      <c r="O7">
+        <v>53.694415094094197</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>63.236600000000003</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>81.992911917916402</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="1"/>
+        <v>420.30491509409421</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="2"/>
+        <v>63.236600000000003</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="3"/>
+        <v>108.30261187686138</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="4"/>
+        <v>-26.797136768528006</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B8">
         <v>1202.20796564391</v>
@@ -577,10 +4895,66 @@
       <c r="E8">
         <v>5.6034995385545496</v>
       </c>
+      <c r="F8">
+        <v>189.75968530443501</v>
+      </c>
+      <c r="G8">
+        <v>-183.37423160434099</v>
+      </c>
+      <c r="H8">
+        <v>-6.5086586025155002</v>
+      </c>
+      <c r="I8">
+        <v>1202.33117054633</v>
+      </c>
+      <c r="J8">
+        <v>63.5947723692911</v>
+      </c>
+      <c r="K8">
+        <v>-24.3260185019776</v>
+      </c>
+      <c r="L8">
+        <v>122.648820751599</v>
+      </c>
+      <c r="M8">
+        <v>8.7635915083834698E-2</v>
+      </c>
+      <c r="N8">
+        <v>368.92349999999999</v>
+      </c>
+      <c r="O8">
+        <v>51.892451147371098</v>
+      </c>
+      <c r="P8">
+        <v>188.73400000000001</v>
+      </c>
+      <c r="Q8">
+        <v>205.24420000000001</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>98.322802249621404</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="1"/>
+        <v>420.81595114737109</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="2"/>
+        <v>393.97820000000002</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="3"/>
+        <v>122.73645666668284</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="4"/>
+        <v>6.3854537000940184</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <v>1099.8365032009799</v>
@@ -594,10 +4968,66 @@
       <c r="E9">
         <v>4.9388538649551599</v>
       </c>
+      <c r="F9">
+        <v>181.15192902779</v>
+      </c>
+      <c r="G9">
+        <v>-238.913678931486</v>
+      </c>
+      <c r="H9">
+        <v>-20.220961650119101</v>
+      </c>
+      <c r="I9">
+        <v>1177.81921475479</v>
+      </c>
+      <c r="J9">
+        <v>57.687280682753197</v>
+      </c>
+      <c r="K9">
+        <v>-11.658830312038001</v>
+      </c>
+      <c r="L9">
+        <v>148.84820442033401</v>
+      </c>
+      <c r="M9">
+        <v>0.46527899758538999</v>
+      </c>
+      <c r="N9">
+        <v>379.13799999999998</v>
+      </c>
+      <c r="O9">
+        <v>44.050666433648601</v>
+      </c>
+      <c r="P9">
+        <v>134.81</v>
+      </c>
+      <c r="Q9">
+        <v>194.08969999999999</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>137.18937410829602</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="1"/>
+        <v>423.18866643364856</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="2"/>
+        <v>328.8997</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="3"/>
+        <v>149.3134834179194</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="4"/>
+        <v>-57.761749903696</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B10">
         <v>956.33490992047905</v>
@@ -611,10 +5041,66 @@
       <c r="E10">
         <v>4.1641942707489203</v>
       </c>
+      <c r="F10">
+        <v>151.12441695878999</v>
+      </c>
+      <c r="G10">
+        <v>-245.81601731333501</v>
+      </c>
+      <c r="H10">
+        <v>-40.401458627133401</v>
+      </c>
+      <c r="I10">
+        <v>1091.42796890216</v>
+      </c>
+      <c r="J10">
+        <v>63.650670842852797</v>
+      </c>
+      <c r="K10">
+        <v>-15.7609978020598</v>
+      </c>
+      <c r="L10">
+        <v>166.360141117631</v>
+      </c>
+      <c r="M10">
+        <v>0.40676139207273099</v>
+      </c>
+      <c r="N10">
+        <v>328.57799999999997</v>
+      </c>
+      <c r="O10">
+        <v>27.022027780874001</v>
+      </c>
+      <c r="P10">
+        <v>134.81</v>
+      </c>
+      <c r="Q10">
+        <v>134.31180000000001</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>150.59914331557121</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="1"/>
+        <v>355.60002778087397</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="2"/>
+        <v>269.12180000000001</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="3"/>
+        <v>166.76690250970373</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="4"/>
+        <v>-94.691600354545017</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B11">
         <v>809.80927055114898</v>
@@ -628,10 +5114,66 @@
       <c r="E11">
         <v>3.3788243256900601</v>
       </c>
+      <c r="F11">
+        <v>176.751068114887</v>
+      </c>
+      <c r="G11">
+        <v>-297.57888474339398</v>
+      </c>
+      <c r="H11">
+        <v>-55.644640907030897</v>
+      </c>
+      <c r="I11">
+        <v>986.28172808668603</v>
+      </c>
+      <c r="J11">
+        <v>65.777755627532102</v>
+      </c>
+      <c r="K11">
+        <v>-17.706444947841</v>
+      </c>
+      <c r="L11">
+        <v>173.75928563959499</v>
+      </c>
+      <c r="M11">
+        <v>0.38263637993567201</v>
+      </c>
+      <c r="N11">
+        <v>272.84300000000002</v>
+      </c>
+      <c r="O11">
+        <v>19.093801837439901</v>
+      </c>
+      <c r="P11">
+        <v>69.393000000000001</v>
+      </c>
+      <c r="Q11">
+        <v>114.65089999999999</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="0"/>
+        <v>156.052840691754</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="1"/>
+        <v>291.93680183743993</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="2"/>
+        <v>184.04390000000001</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="3"/>
+        <v>174.14192201953065</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="4"/>
+        <v>-120.82781662850698</v>
+      </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B12">
         <v>596.84717784671204</v>
@@ -645,10 +5187,66 @@
       <c r="E12">
         <v>2.42436977424547</v>
       </c>
+      <c r="F12">
+        <v>157.11539849792399</v>
+      </c>
+      <c r="G12">
+        <v>-340.61270602244099</v>
+      </c>
+      <c r="H12">
+        <v>-109.363942956686</v>
+      </c>
+      <c r="I12">
+        <v>889.70842832791504</v>
+      </c>
+      <c r="J12">
+        <v>71.490145533630496</v>
+      </c>
+      <c r="K12">
+        <v>-23.279941509806001</v>
+      </c>
+      <c r="L12">
+        <v>169.65667370441599</v>
+      </c>
+      <c r="M12">
+        <v>0.35313879943680598</v>
+      </c>
+      <c r="N12">
+        <v>218.928</v>
+      </c>
+      <c r="O12">
+        <v>10.721481265709601</v>
+      </c>
+      <c r="P12">
+        <v>68.825000000000003</v>
+      </c>
+      <c r="Q12">
+        <v>112.7448</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="0"/>
+        <v>146.37673219460999</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="1"/>
+        <v>229.6494812657096</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="2"/>
+        <v>181.56979999999999</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="3"/>
+        <v>170.0098125038528</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="4"/>
+        <v>-183.497307524517</v>
+      </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B13">
         <v>322.183454128687</v>
@@ -662,10 +5260,66 @@
       <c r="E13">
         <v>1.2642768091756</v>
       </c>
+      <c r="F13">
+        <v>191.42011543835901</v>
+      </c>
+      <c r="G13">
+        <v>-421.20281249236302</v>
+      </c>
+      <c r="H13">
+        <v>-184.64887697218401</v>
+      </c>
+      <c r="I13">
+        <v>736.61502815487495</v>
+      </c>
+      <c r="J13">
+        <v>69.496734787035606</v>
+      </c>
+      <c r="K13">
+        <v>-26.1741426276803</v>
+      </c>
+      <c r="L13">
+        <v>159.56807879054301</v>
+      </c>
+      <c r="M13">
+        <v>0.31388924022547898</v>
+      </c>
+      <c r="N13">
+        <v>134.72399999999999</v>
+      </c>
+      <c r="O13">
+        <v>-0.42490532128237701</v>
+      </c>
+      <c r="P13">
+        <v>68.825000000000003</v>
+      </c>
+      <c r="Q13">
+        <v>52.371200000000002</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="0"/>
+        <v>133.3939361628627</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="1"/>
+        <v>134.29909467871761</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="2"/>
+        <v>121.1962</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="3"/>
+        <v>159.88196803076849</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="4"/>
+        <v>-229.78269705400402</v>
+      </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B14">
         <v>182.85527346285599</v>
@@ -679,10 +5333,66 @@
       <c r="E14">
         <v>0.70088642375791799</v>
       </c>
+      <c r="F14">
+        <v>160.182790537529</v>
+      </c>
+      <c r="G14">
+        <v>-397.59718612988001</v>
+      </c>
+      <c r="H14">
+        <v>-228.72391459267499</v>
+      </c>
+      <c r="I14">
+        <v>648.99358364788202</v>
+      </c>
+      <c r="J14">
+        <v>75.952163161570795</v>
+      </c>
+      <c r="K14">
+        <v>-30.322549860857599</v>
+      </c>
+      <c r="L14">
+        <v>149.85935334159299</v>
+      </c>
+      <c r="M14">
+        <v>0.31210830828722103</v>
+      </c>
+      <c r="N14">
+        <v>76.057000000000002</v>
+      </c>
+      <c r="O14">
+        <v>-4.4521776403248898</v>
+      </c>
+      <c r="P14">
+        <v>68.114999999999995</v>
+      </c>
+      <c r="Q14">
+        <v>51.497599999999998</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="0"/>
+        <v>119.53680348073539</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="1"/>
+        <v>71.604822359675111</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="2"/>
+        <v>119.61259999999999</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="3"/>
+        <v>150.1714616498802</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="4"/>
+        <v>-237.41439559235101</v>
+      </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B15">
         <v>174.908785484829</v>
@@ -696,10 +5406,66 @@
       <c r="E15">
         <v>0.65855720890635205</v>
       </c>
+      <c r="F15">
+        <v>151.72641621501899</v>
+      </c>
+      <c r="G15">
+        <v>-354.35863305548799</v>
+      </c>
+      <c r="H15">
+        <v>-260.224029610304</v>
+      </c>
+      <c r="I15">
+        <v>637.76503193560302</v>
+      </c>
+      <c r="J15">
+        <v>79.217581311291696</v>
+      </c>
+      <c r="K15">
+        <v>-25.1761402542718</v>
+      </c>
+      <c r="L15">
+        <v>145.86368681016901</v>
+      </c>
+      <c r="M15">
+        <v>0.31079358260245099</v>
+      </c>
+      <c r="N15">
+        <v>52.018000000000001</v>
+      </c>
+      <c r="O15">
+        <v>-5.9846560440515102</v>
+      </c>
+      <c r="P15">
+        <v>68.114999999999995</v>
+      </c>
+      <c r="Q15">
+        <v>51.217599999999997</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="0"/>
+        <v>120.68754655589721</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="1"/>
+        <v>46.033343955948489</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="2"/>
+        <v>119.33259999999999</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="3"/>
+        <v>146.17448039277147</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="4"/>
+        <v>-202.632216840469</v>
+      </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B16">
         <v>182.56974776937901</v>
@@ -713,10 +5479,66 @@
       <c r="E16">
         <v>0.67663959806538698</v>
       </c>
+      <c r="F16">
+        <v>152.65077423408599</v>
+      </c>
+      <c r="G16">
+        <v>-321.70682650342798</v>
+      </c>
+      <c r="H16">
+        <v>-223.22242293620599</v>
+      </c>
+      <c r="I16">
+        <v>574.84822297492701</v>
+      </c>
+      <c r="J16">
+        <v>83.840375634259104</v>
+      </c>
+      <c r="K16">
+        <v>-18.717537269196299</v>
+      </c>
+      <c r="L16">
+        <v>142.93815974371901</v>
+      </c>
+      <c r="M16">
+        <v>0.29665220253535102</v>
+      </c>
+      <c r="N16">
+        <v>27.457000000000001</v>
+      </c>
+      <c r="O16">
+        <v>-7.5612863065247202</v>
+      </c>
+      <c r="P16">
+        <v>68.114999999999995</v>
+      </c>
+      <c r="Q16">
+        <v>18.423999999999999</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="0"/>
+        <v>124.22062247452271</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="1"/>
+        <v>19.89571369347528</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="2"/>
+        <v>86.538999999999987</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="3"/>
+        <v>143.23481194625435</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="4"/>
+        <v>-169.05605226934199</v>
+      </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B17">
         <v>150.273537972626</v>
@@ -730,10 +5552,66 @@
       <c r="E17">
         <v>0.55038142483763197</v>
       </c>
+      <c r="F17">
+        <v>132.99344678580201</v>
+      </c>
+      <c r="G17">
+        <v>-291.43064475963598</v>
+      </c>
+      <c r="H17">
+        <v>-189.14850698337099</v>
+      </c>
+      <c r="I17">
+        <v>497.85924292983202</v>
+      </c>
+      <c r="J17">
+        <v>94.260313130989502</v>
+      </c>
+      <c r="K17">
+        <v>-10.331779064047399</v>
+      </c>
+      <c r="L17">
+        <v>121.091188327398</v>
+      </c>
+      <c r="M17">
+        <v>0.242083548161559</v>
+      </c>
+      <c r="N17">
+        <v>9.157</v>
+      </c>
+      <c r="O17">
+        <v>-6.5182814750677904</v>
+      </c>
+      <c r="P17">
+        <v>41.152999999999999</v>
+      </c>
+      <c r="Q17">
+        <v>2.1783999999999999</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="0"/>
+        <v>110.75940926335061</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="1"/>
+        <v>2.6387185249322096</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="2"/>
+        <v>43.331400000000002</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="3"/>
+        <v>121.33327187555956</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="4"/>
+        <v>-158.43719797383397</v>
+      </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B18">
         <v>161.39997134588501</v>
@@ -747,10 +5625,66 @@
       <c r="E18">
         <v>0.58044389645355299</v>
       </c>
+      <c r="F18">
+        <v>125.622152498091</v>
+      </c>
+      <c r="G18">
+        <v>-244.40059215197701</v>
+      </c>
+      <c r="H18">
+        <v>-176.47845404813</v>
+      </c>
+      <c r="I18">
+        <v>456.65686504790102</v>
+      </c>
+      <c r="J18">
+        <v>90.021504247232102</v>
+      </c>
+      <c r="K18">
+        <v>5.0915494769175504</v>
+      </c>
+      <c r="L18">
+        <v>97.8998066730462</v>
+      </c>
+      <c r="M18">
+        <v>0.24098202576755601</v>
+      </c>
+      <c r="N18">
+        <v>0.67</v>
+      </c>
+      <c r="O18">
+        <v>-4.0652300920873499</v>
+      </c>
+      <c r="P18">
+        <v>41.152999999999999</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="0"/>
+        <v>102.99135614996375</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="1"/>
+        <v>-3.3952300920873499</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="2"/>
+        <v>41.152999999999999</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="3"/>
+        <v>98.140788698813751</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="4"/>
+        <v>-118.77843965388601</v>
+      </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B19">
         <v>135.152029957927</v>
@@ -764,10 +5698,66 @@
       <c r="E19">
         <v>0.47991179450190802</v>
       </c>
+      <c r="F19">
+        <v>129.39958936779101</v>
+      </c>
+      <c r="G19">
+        <v>-230.138091038824</v>
+      </c>
+      <c r="H19">
+        <v>-177.64175710827701</v>
+      </c>
+      <c r="I19">
+        <v>413.53228873723702</v>
+      </c>
+      <c r="J19">
+        <v>94.946110773380497</v>
+      </c>
+      <c r="K19">
+        <v>9.3996655084397691</v>
+      </c>
+      <c r="L19">
+        <v>87.968263401711198</v>
+      </c>
+      <c r="M19">
+        <v>0.24065616308045301</v>
+      </c>
+      <c r="N19">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="O19">
+        <v>-2.4509795015399898</v>
+      </c>
+      <c r="P19">
+        <v>41.152999999999999</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="0"/>
+        <v>97.367928910150965</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="1"/>
+        <v>-2.2769795015399898</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="2"/>
+        <v>41.152999999999999</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="3"/>
+        <v>88.208919564791657</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="4"/>
+        <v>-100.73850167103299</v>
+      </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B20">
         <v>139.262474981548</v>
@@ -781,10 +5771,66 @@
       <c r="E20">
         <v>0.48890036623601102</v>
       </c>
+      <c r="F20">
+        <v>115.584695944007</v>
+      </c>
+      <c r="G20">
+        <v>-221.00169038620501</v>
+      </c>
+      <c r="H20">
+        <v>-137.69788531276799</v>
+      </c>
+      <c r="I20">
+        <v>382.37735473651401</v>
+      </c>
+      <c r="J20">
+        <v>88.605238027968397</v>
+      </c>
+      <c r="K20">
+        <v>15.5706481191361</v>
+      </c>
+      <c r="L20">
+        <v>79.558160569857606</v>
+      </c>
+      <c r="M20">
+        <v>0.20464757098741701</v>
+      </c>
+      <c r="N20">
+        <v>0.08</v>
+      </c>
+      <c r="O20">
+        <v>-1.56283132523353</v>
+      </c>
+      <c r="P20">
+        <v>34.128500000000003</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="0"/>
+        <v>95.128808688993701</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="1"/>
+        <v>-1.4828313252335299</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="2"/>
+        <v>34.128500000000003</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="3"/>
+        <v>79.762808140845024</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="4"/>
+        <v>-105.41699444219802</v>
+      </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B21">
         <v>149.24572971850799</v>
@@ -798,145 +5844,729 @@
       <c r="E21">
         <v>0.51700343342069299</v>
       </c>
+      <c r="F21">
+        <v>127.800809110679</v>
+      </c>
+      <c r="G21">
+        <v>-222.349844632279</v>
+      </c>
+      <c r="H21">
+        <v>-107.167739633304</v>
+      </c>
+      <c r="I21">
+        <v>350.962504873412</v>
+      </c>
+      <c r="J21">
+        <v>87.319016588090605</v>
+      </c>
+      <c r="K21">
+        <v>16.050179840087399</v>
+      </c>
+      <c r="L21">
+        <v>57.246470172910797</v>
+      </c>
+      <c r="M21">
+        <v>5.9499380255571201E-2</v>
+      </c>
+      <c r="N21">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="O21">
+        <v>-0.903063713400726</v>
+      </c>
+      <c r="P21">
+        <v>27.388000000000002</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="0"/>
+        <v>73.296650012998199</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="1"/>
+        <v>-0.86806371340072597</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="2"/>
+        <v>27.388000000000002</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="3"/>
+        <v>57.305969553166371</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="4"/>
+        <v>-94.549035521600004</v>
+      </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B22">
-        <v>115.60588304283399</v>
+        <v>181.70301923748099</v>
       </c>
       <c r="C22">
-        <v>29330.979661531499</v>
+        <v>29349.9</v>
       </c>
       <c r="D22">
-        <v>29215.373778488702</v>
+        <v>29168.196980762499</v>
       </c>
       <c r="E22">
-        <v>0.39570222143778799</v>
+        <v>0.622949095404568</v>
+      </c>
+      <c r="F22">
+        <v>178.23728737011399</v>
+      </c>
+      <c r="G22">
+        <v>-238.15404432794901</v>
+      </c>
+      <c r="H22">
+        <v>-103.68129101218599</v>
+      </c>
+      <c r="I22">
+        <v>345.301067207502</v>
+      </c>
+      <c r="J22">
+        <v>103.021088165181</v>
+      </c>
+      <c r="K22">
+        <v>17.887327594255801</v>
+      </c>
+      <c r="L22">
+        <v>36.533687044939199</v>
+      </c>
+      <c r="M22">
+        <v>5.73461887951549E-2</v>
+      </c>
+      <c r="N22">
+        <v>1.2E-2</v>
+      </c>
+      <c r="O22">
+        <v>-0.34232168039014299</v>
+      </c>
+      <c r="P22">
+        <v>20.647500000000001</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="0"/>
+        <v>54.421014639195</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="1"/>
+        <v>-0.33032168039014298</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="2"/>
+        <v>20.647500000000001</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="3"/>
+        <v>36.591033233734358</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="4"/>
+        <v>-59.91675695783502</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B23">
-        <v>115.17297700706899</v>
+        <v>162.522101396599</v>
       </c>
       <c r="C23">
-        <v>29622.174347924702</v>
+        <v>29641.282525397899</v>
       </c>
       <c r="D23">
-        <v>29507.001370917598</v>
+        <v>29478.760424001299</v>
       </c>
       <c r="E23">
-        <v>0.39032423376164099</v>
+        <v>0.55131931960164005</v>
+      </c>
+      <c r="F23">
+        <v>150.816686534242</v>
+      </c>
+      <c r="G23">
+        <v>-247.67080768807199</v>
+      </c>
+      <c r="H23">
+        <v>-100.74997317948799</v>
+      </c>
+      <c r="I23">
+        <v>360.12619572991701</v>
+      </c>
+      <c r="J23">
+        <v>114.794913561919</v>
+      </c>
+      <c r="K23">
+        <v>28.434535649394999</v>
+      </c>
+      <c r="L23">
+        <v>26.652070933599401</v>
+      </c>
+      <c r="M23">
+        <v>2.0083638611490501E-2</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>-0.124745015508402</v>
+      </c>
+      <c r="P23">
+        <v>13.836</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="0"/>
+        <v>55.086606582994399</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="1"/>
+        <v>-0.124745015508402</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="2"/>
+        <v>13.836</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="3"/>
+        <v>26.672154572210893</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="4"/>
+        <v>-96.854121153829993</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B24">
-        <v>85.754132167603203</v>
+        <v>143.61850366769301</v>
       </c>
       <c r="C24">
-        <v>29926.025270687602</v>
+        <v>29945.3294512391</v>
       </c>
       <c r="D24">
-        <v>29840.271138519998</v>
+        <v>29801.710947571399</v>
       </c>
       <c r="E24">
-        <v>0.28737718826188402</v>
+        <v>0.48191361871925398</v>
+      </c>
+      <c r="F24">
+        <v>131.75056510805501</v>
+      </c>
+      <c r="G24">
+        <v>-235.74544690070601</v>
+      </c>
+      <c r="H24">
+        <v>-110.21172456578699</v>
+      </c>
+      <c r="I24">
+        <v>357.82511002613097</v>
+      </c>
+      <c r="J24">
+        <v>124.977556941912</v>
+      </c>
+      <c r="K24">
+        <v>29.651132907137601</v>
+      </c>
+      <c r="L24">
+        <v>21.497180139541701</v>
+      </c>
+      <c r="M24">
+        <v>-2.96869521478507E-2</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>-0.13338038572165101</v>
+      </c>
+      <c r="P24">
+        <v>7.0244999999999997</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="0"/>
+        <v>51.148313046679306</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="1"/>
+        <v>-0.13338038572165101</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="2"/>
+        <v>7.0244999999999997</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="3"/>
+        <v>21.467493187393849</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="4"/>
+        <v>-103.994881792651</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B25">
-        <v>58.253907069220503</v>
+        <v>126.98785884192201</v>
       </c>
       <c r="C25">
-        <v>30237.267435490299</v>
+        <v>30256.772386939101</v>
       </c>
       <c r="D25">
-        <v>30179.013528421099</v>
+        <v>30129.7845280972</v>
       </c>
       <c r="E25">
-        <v>0.19302787022630299</v>
+        <v>0.42146952203889798</v>
+      </c>
+      <c r="F25">
+        <v>121.697460124694</v>
+      </c>
+      <c r="G25">
+        <v>-231.94861011594199</v>
+      </c>
+      <c r="H25">
+        <v>-107.39875130601899</v>
+      </c>
+      <c r="I25">
+        <v>344.63776013918903</v>
+      </c>
+      <c r="J25">
+        <v>132.81141496101301</v>
+      </c>
+      <c r="K25">
+        <v>28.822165785219401</v>
+      </c>
+      <c r="L25">
+        <v>13.608360470245501</v>
+      </c>
+      <c r="M25">
+        <v>-0.13281587732428701</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>-0.261075582377778</v>
+      </c>
+      <c r="P25">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="0"/>
+        <v>42.430526255464898</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="1"/>
+        <v>-0.261075582377778</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="2"/>
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="3"/>
+        <v>13.475544592921214</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="4"/>
+        <v>-110.25114999124798</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B26">
-        <v>40.798128515651399</v>
+        <v>115.907937747174</v>
       </c>
       <c r="C26">
-        <v>30542.434606835701</v>
+        <v>30562.136410426399</v>
       </c>
       <c r="D26">
-        <v>30501.636478320001</v>
+        <v>30446.228472679199</v>
       </c>
       <c r="E26">
-        <v>0.13375717904398099</v>
+        <v>0.38069719489619602</v>
+      </c>
+      <c r="F26">
+        <v>123.33319626782399</v>
+      </c>
+      <c r="G26">
+        <v>-240.57971055013701</v>
+      </c>
+      <c r="H26">
+        <v>-100.91780904031999</v>
+      </c>
+      <c r="I26">
+        <v>334.07226106980801</v>
+      </c>
+      <c r="J26">
+        <v>136.31662104831301</v>
+      </c>
+      <c r="K26">
+        <v>27.822078892698599</v>
+      </c>
+      <c r="L26">
+        <v>7.2821411668388896</v>
+      </c>
+      <c r="M26">
+        <v>-0.16331078985723099</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>-0.52653308262871701</v>
+      </c>
+      <c r="P26">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="0"/>
+        <v>35.104220059537489</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="1"/>
+        <v>-0.52653308262871701</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="2"/>
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="3"/>
+        <v>7.1188303769816583</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="4"/>
+        <v>-117.24651428231302</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B27">
-        <v>9.1285299069383505</v>
+        <v>84.586698217031099</v>
       </c>
       <c r="C27">
-        <v>30832.009294973599</v>
+        <v>30851.897892567598</v>
       </c>
       <c r="D27">
-        <v>30822.880765066599</v>
+        <v>30767.311194350499</v>
       </c>
       <c r="E27">
-        <v>2.9616082859074098E-2</v>
+        <v>0.27492392065953097</v>
+      </c>
+      <c r="F27">
+        <v>111.049070241774</v>
+      </c>
+      <c r="G27">
+        <v>-245.62095828005801</v>
+      </c>
+      <c r="H27">
+        <v>-101.827745326645</v>
+      </c>
+      <c r="I27">
+        <v>320.98633158195997</v>
+      </c>
+      <c r="J27">
+        <v>137.856256539387</v>
+      </c>
+      <c r="K27">
+        <v>26.689648057719602</v>
+      </c>
+      <c r="L27">
+        <v>3.6751382602112002</v>
+      </c>
+      <c r="M27">
+        <v>-0.19064710303820401</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>-0.84320123280718895</v>
+      </c>
+      <c r="P27">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="0"/>
+        <v>30.3647863179308</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="1"/>
+        <v>-0.84320123280718895</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="2"/>
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="3"/>
+        <v>3.4844911571729962</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="4"/>
+        <v>-134.57188803828399</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B28">
-        <v>2.6541541369732</v>
+        <v>77.962632836028007</v>
       </c>
       <c r="C28">
-        <v>31101.5365047019</v>
+        <v>31121.598964406701</v>
       </c>
       <c r="D28">
-        <v>31098.882350565</v>
+        <v>31043.6363315706</v>
       </c>
       <c r="E28">
-        <v>8.5345643841883093E-3</v>
+        <v>0.25113885500824801</v>
+      </c>
+      <c r="F28">
+        <v>103.97245623344701</v>
+      </c>
+      <c r="G28">
+        <v>-253.91187379724499</v>
+      </c>
+      <c r="H28">
+        <v>-85.056282832910298</v>
+      </c>
+      <c r="I28">
+        <v>312.95833323273598</v>
+      </c>
+      <c r="J28">
+        <v>141.17016105368199</v>
+      </c>
+      <c r="K28">
+        <v>25.921928636110199</v>
+      </c>
+      <c r="L28">
+        <v>2.4589571213086101</v>
+      </c>
+      <c r="M28">
+        <v>-0.21798176199111599</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>-1.14371753839952</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="0"/>
+        <v>28.38088575741881</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="1"/>
+        <v>-1.14371753839952</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="3"/>
+        <v>2.2409753593174941</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="4"/>
+        <v>-149.93941756379797</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B29">
-        <v>-2.86795662369587</v>
+        <v>72.325013451095401</v>
       </c>
       <c r="C29">
-        <v>31374.9112102867</v>
+        <v>31395.150013980499</v>
       </c>
       <c r="D29">
-        <v>31377.779166910299</v>
+        <v>31322.825000529399</v>
       </c>
       <c r="E29">
-        <v>-9.1400879853265095E-3</v>
+        <v>0.23090194913733</v>
+      </c>
+      <c r="F29">
+        <v>95.887022688649793</v>
+      </c>
+      <c r="G29">
+        <v>-260.183715591002</v>
+      </c>
+      <c r="H29">
+        <v>-70.572993626247296</v>
+      </c>
+      <c r="I29">
+        <v>307.19469997969497</v>
+      </c>
+      <c r="J29">
+        <v>145.95261386863601</v>
+      </c>
+      <c r="K29">
+        <v>25.3736963836805</v>
+      </c>
+      <c r="L29">
+        <v>1.5286944075270399</v>
+      </c>
+      <c r="M29">
+        <v>-0.24532204143717701</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>-1.4527497592248699</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="0"/>
+        <v>26.902390791207541</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="1"/>
+        <v>-1.4527497592248699</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="3"/>
+        <v>1.2833723660898628</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="4"/>
+        <v>-164.29669290235222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30">
+        <v>55.049891021276999</v>
+      </c>
+      <c r="C30">
+        <v>31679.947051147999</v>
+      </c>
+      <c r="D30">
+        <v>31624.8971601267</v>
+      </c>
+      <c r="E30">
+        <v>0.17407136770293299</v>
+      </c>
+      <c r="F30">
+        <v>89.663611011670497</v>
+      </c>
+      <c r="G30">
+        <v>-270.54462682131299</v>
+      </c>
+      <c r="H30">
+        <v>-62.588832362024803</v>
+      </c>
+      <c r="I30">
+        <v>298.519739192945</v>
+      </c>
+      <c r="J30">
+        <v>152.22758899345499</v>
+      </c>
+      <c r="K30">
+        <v>25.046163519805699</v>
+      </c>
+      <c r="L30">
+        <v>-3.8920620190091002</v>
+      </c>
+      <c r="M30">
+        <v>-0.27266962342626999</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>-1.7944522936844201</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="0"/>
+        <v>21.1541015007966</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="1"/>
+        <v>-1.7944522936844201</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="3"/>
+        <v>-4.1647316424353704</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="4"/>
+        <v>-180.88101580964249</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <f>C5/D5-1</f>
+        <v>4.1228117711228141E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/fim_levels.xlsx
+++ b/fim_levels.xlsx
@@ -633,34 +633,34 @@
         <v>25</v>
       </c>
       <c r="B4" t="n">
-        <v>25.0952944327695</v>
+        <v>24.9224072985305</v>
       </c>
       <c r="C4" t="n">
         <v>21727.7</v>
       </c>
       <c r="D4" t="n">
-        <v>21702.6047055672</v>
+        <v>21702.7775927015</v>
       </c>
       <c r="E4" t="n">
-        <v>0.115632638447005</v>
+        <v>0.114835104364297</v>
       </c>
       <c r="F4" t="n">
-        <v>9.51988190953861</v>
+        <v>9.48127279342025</v>
       </c>
       <c r="G4" t="n">
-        <v>13.5100250743391</v>
+        <v>13.3704799502666</v>
       </c>
       <c r="H4" t="n">
-        <v>-6.13666436551063</v>
+        <v>-6.08808885193253</v>
       </c>
       <c r="I4" t="n">
-        <v>8.20205181440247</v>
+        <v>8.15874340677624</v>
       </c>
       <c r="J4" t="n">
-        <v>4.81448227763735</v>
+        <v>4.79354389970172</v>
       </c>
       <c r="K4" t="n">
-        <v>0.876191422118637</v>
+        <v>0.874129511356216</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -672,10 +672,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.02542640079274</v>
+        <v>4.02505346810979</v>
       </c>
       <c r="P4" t="n">
-        <v>0.553730891810698</v>
+        <v>0.55327525737075</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.000569378525089148</v>
+        <v>0.000565315715046144</v>
       </c>
       <c r="V4" t="n">
-        <v>1.57647743727603</v>
+        <v>1.55978096928175</v>
       </c>
       <c r="W4" t="n">
-        <v>-3.64482599375808</v>
+        <v>-3.64760501475902</v>
       </c>
     </row>
     <row r="5">
@@ -704,34 +704,34 @@
         <v>26</v>
       </c>
       <c r="B5" t="n">
-        <v>789.355381246358</v>
+        <v>789.186391011501</v>
       </c>
       <c r="C5" t="n">
         <v>19935.4</v>
       </c>
       <c r="D5" t="n">
-        <v>19146.0446187536</v>
+        <v>19146.2136089885</v>
       </c>
       <c r="E5" t="n">
-        <v>4.12281177112259</v>
+        <v>4.12189275189643</v>
       </c>
       <c r="F5" t="n">
-        <v>217.736474231235</v>
+        <v>217.695206111736</v>
       </c>
       <c r="G5" t="n">
-        <v>-128.918174441175</v>
+        <v>-129.044369179027</v>
       </c>
       <c r="H5" t="n">
-        <v>11.1271161376382</v>
+        <v>11.1130300061982</v>
       </c>
       <c r="I5" t="n">
-        <v>689.409965318659</v>
+        <v>689.422524072594</v>
       </c>
       <c r="J5" t="n">
-        <v>35.7545353419157</v>
+        <v>35.7606071406888</v>
       </c>
       <c r="K5" t="n">
-        <v>2.72571701981283</v>
+        <v>2.72631494135558</v>
       </c>
       <c r="L5" t="n">
         <v>264.1345</v>
@@ -743,10 +743,10 @@
         <v>245.574</v>
       </c>
       <c r="O5" t="n">
-        <v>49.6948278194207</v>
+        <v>49.6949359640064</v>
       </c>
       <c r="P5" t="n">
-        <v>48.4498990760476</v>
+        <v>48.4500312028362</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -761,13 +761,13 @@
         <v>9</v>
       </c>
       <c r="U5" t="n">
-        <v>0.00121229042908649</v>
+        <v>0.0012134685798062</v>
       </c>
       <c r="V5" t="n">
-        <v>26.2847017515505</v>
+        <v>26.2895434634631</v>
       </c>
       <c r="W5" t="n">
-        <v>-14.7354279805174</v>
+        <v>-14.7346221083359</v>
       </c>
     </row>
     <row r="6">
@@ -775,34 +775,34 @@
         <v>27</v>
       </c>
       <c r="B6" t="n">
-        <v>934.886123556179</v>
+        <v>934.546968081922</v>
       </c>
       <c r="C6" t="n">
         <v>21684.6</v>
       </c>
       <c r="D6" t="n">
-        <v>20749.7138764438</v>
+        <v>20750.0530319181</v>
       </c>
       <c r="E6" t="n">
-        <v>4.50553742149433</v>
+        <v>4.50382929934872</v>
       </c>
       <c r="F6" t="n">
-        <v>134.982508517024</v>
+        <v>134.886205927482</v>
       </c>
       <c r="G6" t="n">
-        <v>-127.062262672036</v>
+        <v>-127.317003175792</v>
       </c>
       <c r="H6" t="n">
-        <v>34.0419274924056</v>
+        <v>34.1515602215408</v>
       </c>
       <c r="I6" t="n">
-        <v>892.923950218786</v>
+        <v>892.826205108691</v>
       </c>
       <c r="J6" t="n">
-        <v>83.6091475158178</v>
+        <v>83.5618905472822</v>
       </c>
       <c r="K6" t="n">
-        <v>3.16418319935232</v>
+        <v>3.15952956035878</v>
       </c>
       <c r="L6" t="n">
         <v>117.0225</v>
@@ -814,10 +814,10 @@
         <v>462.483</v>
       </c>
       <c r="O6" t="n">
-        <v>72.9278887501451</v>
+        <v>72.9270470580084</v>
       </c>
       <c r="P6" t="n">
-        <v>95.9013080651871</v>
+        <v>95.9002797189389</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>16.65</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.00132417163812887</v>
+        <v>-0.0013333412159709</v>
       </c>
       <c r="V6" t="n">
-        <v>33.4009147407071</v>
+        <v>33.3632315703542</v>
       </c>
       <c r="W6" t="n">
-        <v>-16.4996678807855</v>
+        <v>-16.5059400050353</v>
       </c>
     </row>
     <row r="7">
@@ -846,34 +846,34 @@
         <v>28</v>
       </c>
       <c r="B7" t="n">
-        <v>758.170846404077</v>
+        <v>757.632598676104</v>
       </c>
       <c r="C7" t="n">
         <v>22068.8</v>
       </c>
       <c r="D7" t="n">
-        <v>21310.6291535959</v>
+        <v>21311.1674013239</v>
       </c>
       <c r="E7" t="n">
-        <v>3.55771216766794</v>
+        <v>3.55509665148159</v>
       </c>
       <c r="F7" t="n">
-        <v>118.085625967881</v>
+        <v>117.918700583147</v>
       </c>
       <c r="G7" t="n">
-        <v>-144.882762736409</v>
+        <v>-145.274238132111</v>
       </c>
       <c r="H7" t="n">
-        <v>4.94757391929594</v>
+        <v>5.13343402588055</v>
       </c>
       <c r="I7" t="n">
-        <v>780.020409253309</v>
+        <v>779.854702199187</v>
       </c>
       <c r="J7" t="n">
-        <v>107.67692517046</v>
+        <v>107.596810543394</v>
       </c>
       <c r="K7" t="n">
-        <v>4.13791966877852</v>
+        <v>4.13003036559169</v>
       </c>
       <c r="L7" t="n">
         <v>63.2366</v>
@@ -885,10 +885,10 @@
         <v>366.6105</v>
       </c>
       <c r="O7" t="n">
-        <v>53.6944150940942</v>
+        <v>53.6929881754041</v>
       </c>
       <c r="P7" t="n">
-        <v>108.305639479666</v>
+        <v>108.303896126702</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -903,13 +903,13 @@
         <v>23.85</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.003027602804626</v>
+        <v>-0.00304314796826921</v>
       </c>
       <c r="V7" t="n">
-        <v>52.0641650048644</v>
+        <v>52.0002808152299</v>
       </c>
       <c r="W7" t="n">
-        <v>-26.3127275617496</v>
+        <v>-26.323360679166</v>
       </c>
     </row>
     <row r="8">
@@ -917,34 +917,34 @@
         <v>29</v>
       </c>
       <c r="B8" t="n">
-        <v>1202.20796564391</v>
+        <v>1201.36961626069</v>
       </c>
       <c r="C8" t="n">
         <v>22656.8</v>
       </c>
       <c r="D8" t="n">
-        <v>21454.5920343561</v>
+        <v>21455.4303837393</v>
       </c>
       <c r="E8" t="n">
-        <v>5.60349953855455</v>
+        <v>5.59937318792347</v>
       </c>
       <c r="F8" t="n">
-        <v>189.759685304435</v>
+        <v>189.510378325602</v>
       </c>
       <c r="G8" t="n">
-        <v>-183.374231604341</v>
+        <v>-184.001523285647</v>
       </c>
       <c r="H8" t="n">
-        <v>-6.5086586025155</v>
+        <v>-6.15590734074753</v>
       </c>
       <c r="I8" t="n">
-        <v>1202.33117054633</v>
+        <v>1202.01666856148</v>
       </c>
       <c r="J8" t="n">
-        <v>170.275815441869</v>
+        <v>170.123762716285</v>
       </c>
       <c r="K8" t="n">
-        <v>4.32499342309285</v>
+        <v>4.31002000192808</v>
       </c>
       <c r="L8" t="n">
         <v>205.2442</v>
@@ -956,10 +956,10 @@
         <v>368.9235</v>
       </c>
       <c r="O8" t="n">
-        <v>51.8924511473711</v>
+        <v>51.8897429418417</v>
       </c>
       <c r="P8" t="n">
-        <v>122.648820751599</v>
+        <v>122.645511972921</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -974,13 +974,13 @@
         <v>30.6</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0876359150838347</v>
+        <v>0.0876064113017144</v>
       </c>
       <c r="V8" t="n">
-        <v>63.5947723692911</v>
+        <v>63.4735240341065</v>
       </c>
       <c r="W8" t="n">
-        <v>-24.3260185019776</v>
+        <v>-24.3461995169037</v>
       </c>
     </row>
     <row r="9">
@@ -988,34 +988,34 @@
         <v>30</v>
       </c>
       <c r="B9" t="n">
-        <v>1099.83650320098</v>
+        <v>1098.70135446708</v>
       </c>
       <c r="C9" t="n">
         <v>23368.9</v>
       </c>
       <c r="D9" t="n">
-        <v>22269.063496799</v>
+        <v>22270.1986455329</v>
       </c>
       <c r="E9" t="n">
-        <v>4.93885386495516</v>
+        <v>4.93350495859841</v>
       </c>
       <c r="F9" t="n">
-        <v>181.15192902779</v>
+        <v>180.798814489675</v>
       </c>
       <c r="G9" t="n">
-        <v>-238.913678931486</v>
+        <v>-239.759508197758</v>
       </c>
       <c r="H9" t="n">
-        <v>-20.2209616501191</v>
+        <v>-19.6326161067901</v>
       </c>
       <c r="I9" t="n">
-        <v>1177.81921475479</v>
+        <v>1177.29466428196</v>
       </c>
       <c r="J9" t="n">
-        <v>164.08123004054</v>
+        <v>163.827624871277</v>
       </c>
       <c r="K9" t="n">
-        <v>4.10499809197086</v>
+        <v>4.08002427453772</v>
       </c>
       <c r="L9" t="n">
         <v>194.0897</v>
@@ -1027,10 +1027,10 @@
         <v>379.138</v>
       </c>
       <c r="O9" t="n">
-        <v>44.0506664336486</v>
+        <v>44.0461494812622</v>
       </c>
       <c r="P9" t="n">
-        <v>148.848204420334</v>
+        <v>148.8426857861</v>
       </c>
       <c r="Q9" t="n">
         <v>2.3513184</v>
@@ -1045,13 +1045,13 @@
         <v>34.65</v>
       </c>
       <c r="U9" t="n">
-        <v>0.46527899758539</v>
+        <v>0.465229788920239</v>
       </c>
       <c r="V9" t="n">
-        <v>57.6872806827532</v>
+        <v>57.4850534326381</v>
       </c>
       <c r="W9" t="n">
-        <v>-11.658830312038</v>
+        <v>-11.6924897527786</v>
       </c>
     </row>
     <row r="10">
@@ -1059,34 +1059,34 @@
         <v>31</v>
       </c>
       <c r="B10" t="n">
-        <v>956.334909920479</v>
+        <v>954.916859954923</v>
       </c>
       <c r="C10" t="n">
         <v>23922</v>
       </c>
       <c r="D10" t="n">
-        <v>22965.6650900795</v>
+        <v>22967.0831400451</v>
       </c>
       <c r="E10" t="n">
-        <v>4.16419427074892</v>
+        <v>4.15776289105665</v>
       </c>
       <c r="F10" t="n">
-        <v>151.12441695879</v>
+        <v>150.657529494469</v>
       </c>
       <c r="G10" t="n">
-        <v>-245.816017313335</v>
+        <v>-246.855442776727</v>
       </c>
       <c r="H10" t="n">
-        <v>-40.4014586271334</v>
+        <v>-39.5874596766627</v>
       </c>
       <c r="I10" t="n">
-        <v>1091.42796890216</v>
+        <v>1090.70223291384</v>
       </c>
       <c r="J10" t="n">
-        <v>163.246974281998</v>
+        <v>162.896101663084</v>
       </c>
       <c r="K10" t="n">
-        <v>4.86720648878867</v>
+        <v>4.83265424069177</v>
       </c>
       <c r="L10" t="n">
         <v>134.3118</v>
@@ -1098,10 +1098,10 @@
         <v>328.578</v>
       </c>
       <c r="O10" t="n">
-        <v>27.022027780874</v>
+        <v>27.0157784015024</v>
       </c>
       <c r="P10" t="n">
-        <v>166.360141117631</v>
+        <v>166.352505872451</v>
       </c>
       <c r="Q10" t="n">
         <v>13.06288</v>
@@ -1116,13 +1116,13 @@
         <v>36.9</v>
       </c>
       <c r="U10" t="n">
-        <v>0.406761392072731</v>
+        <v>0.40669330996989</v>
       </c>
       <c r="V10" t="n">
-        <v>63.6506708428528</v>
+        <v>63.3708815740861</v>
       </c>
       <c r="W10" t="n">
-        <v>-15.7609978020598</v>
+        <v>-15.8075669479418</v>
       </c>
     </row>
     <row r="11">
@@ -1130,34 +1130,34 @@
         <v>32</v>
       </c>
       <c r="B11" t="n">
-        <v>809.809270551149</v>
+        <v>808.032521835996</v>
       </c>
       <c r="C11" t="n">
         <v>24777</v>
       </c>
       <c r="D11" t="n">
-        <v>23967.1907294489</v>
+        <v>23968.967478164</v>
       </c>
       <c r="E11" t="n">
-        <v>3.37882432569006</v>
+        <v>3.37116115899496</v>
       </c>
       <c r="F11" t="n">
-        <v>176.751068114887</v>
+        <v>176.150003453731</v>
       </c>
       <c r="G11" t="n">
-        <v>-297.578884743394</v>
+        <v>-298.874385133037</v>
       </c>
       <c r="H11" t="n">
-        <v>-55.6446409070309</v>
+        <v>-54.5396431924389</v>
       </c>
       <c r="I11" t="n">
-        <v>986.281728086686</v>
+        <v>985.296546707741</v>
       </c>
       <c r="J11" t="n">
-        <v>179.408589461989</v>
+        <v>178.932282408045</v>
       </c>
       <c r="K11" t="n">
-        <v>5.24621056803551</v>
+        <v>5.19930614001504</v>
       </c>
       <c r="L11" t="n">
         <v>114.6509</v>
@@ -1169,10 +1169,10 @@
         <v>272.843</v>
       </c>
       <c r="O11" t="n">
-        <v>19.0938018374399</v>
+        <v>19.0853183499375</v>
       </c>
       <c r="P11" t="n">
-        <v>173.759285639595</v>
+        <v>173.748920849235</v>
       </c>
       <c r="Q11" t="n">
         <v>16.12079192</v>
@@ -1187,13 +1187,13 @@
         <v>39.15</v>
       </c>
       <c r="U11" t="n">
-        <v>0.382636379935672</v>
+        <v>0.382543958971247</v>
       </c>
       <c r="V11" t="n">
-        <v>65.7777556275321</v>
+        <v>65.3979437096223</v>
       </c>
       <c r="W11" t="n">
-        <v>-17.706444947841</v>
+        <v>-17.7696622280848</v>
       </c>
     </row>
     <row r="12">
@@ -1201,34 +1201,34 @@
         <v>33</v>
       </c>
       <c r="B12" t="n">
-        <v>596.847177846712</v>
+        <v>594.598717895733</v>
       </c>
       <c r="C12" t="n">
         <v>25215.5</v>
       </c>
       <c r="D12" t="n">
-        <v>24618.6528221533</v>
+        <v>24620.9012821043</v>
       </c>
       <c r="E12" t="n">
-        <v>2.42436977424547</v>
+        <v>2.41501605113017</v>
       </c>
       <c r="F12" t="n">
-        <v>157.115398497924</v>
+        <v>156.33169683825</v>
       </c>
       <c r="G12" t="n">
-        <v>-340.612706022441</v>
+        <v>-342.236420578448</v>
       </c>
       <c r="H12" t="n">
-        <v>-109.363942956686</v>
+        <v>-107.897980003754</v>
       </c>
       <c r="I12" t="n">
-        <v>889.708428327915</v>
+        <v>888.401421639685</v>
       </c>
       <c r="J12" t="n">
-        <v>139.323276175985</v>
+        <v>138.69137577829</v>
       </c>
       <c r="K12" t="n">
-        <v>5.49737875854308</v>
+        <v>5.43515224630829</v>
       </c>
       <c r="L12" t="n">
         <v>112.7448</v>
@@ -1240,10 +1240,10 @@
         <v>218.928</v>
       </c>
       <c r="O12" t="n">
-        <v>10.7214812657096</v>
+        <v>10.7102265108572</v>
       </c>
       <c r="P12" t="n">
-        <v>169.656673704416</v>
+        <v>169.642923088934</v>
       </c>
       <c r="Q12" t="n">
         <v>14.371564</v>
@@ -1258,13 +1258,13 @@
         <v>40.95</v>
       </c>
       <c r="U12" t="n">
-        <v>0.353138799436806</v>
+        <v>0.353016187681024</v>
       </c>
       <c r="V12" t="n">
-        <v>71.4901455336305</v>
+        <v>70.9862619568728</v>
       </c>
       <c r="W12" t="n">
-        <v>-23.279941509806</v>
+        <v>-23.363809729259</v>
       </c>
     </row>
     <row r="13">
@@ -1272,34 +1272,34 @@
         <v>34</v>
       </c>
       <c r="B13" t="n">
-        <v>322.183454128687</v>
+        <v>319.226980099585</v>
       </c>
       <c r="C13" t="n">
         <v>25805.8</v>
       </c>
       <c r="D13" t="n">
-        <v>25483.6165458713</v>
+        <v>25486.5730199004</v>
       </c>
       <c r="E13" t="n">
-        <v>1.2642768091756</v>
+        <v>1.25253002767507</v>
       </c>
       <c r="F13" t="n">
-        <v>191.420115438359</v>
+        <v>190.402666050689</v>
       </c>
       <c r="G13" t="n">
-        <v>-421.202812492363</v>
+        <v>-423.341655978137</v>
       </c>
       <c r="H13" t="n">
-        <v>-184.648876972184</v>
+        <v>-182.806061757228</v>
       </c>
       <c r="I13" t="n">
-        <v>736.615028154875</v>
+        <v>734.972031784261</v>
       </c>
       <c r="J13" t="n">
-        <v>144.926154090373</v>
+        <v>144.131812279155</v>
       </c>
       <c r="K13" t="n">
-        <v>7.1044795956613</v>
+        <v>7.02625663423476</v>
       </c>
       <c r="L13" t="n">
         <v>52.3712</v>
@@ -1311,10 +1311,10 @@
         <v>134.724</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.424905321282377</v>
+        <v>-0.439053314204816</v>
       </c>
       <c r="P13" t="n">
-        <v>159.568078790543</v>
+        <v>159.550793330925</v>
       </c>
       <c r="Q13" t="n">
         <v>16.24578</v>
@@ -1329,13 +1329,13 @@
         <v>40.95</v>
       </c>
       <c r="U13" t="n">
-        <v>0.313889240225479</v>
+        <v>0.313735108902695</v>
       </c>
       <c r="V13" t="n">
-        <v>69.4967347870356</v>
+        <v>68.8633188334068</v>
       </c>
       <c r="W13" t="n">
-        <v>-26.1741426276803</v>
+        <v>-26.2795706881577</v>
       </c>
     </row>
     <row r="14">
@@ -1343,34 +1343,34 @@
         <v>35</v>
       </c>
       <c r="B14" t="n">
-        <v>182.855273462856</v>
+        <v>179.762134886624</v>
       </c>
       <c r="C14" t="n">
         <v>26272</v>
       </c>
       <c r="D14" t="n">
-        <v>26089.1447265371</v>
+        <v>26092.2378651134</v>
       </c>
       <c r="E14" t="n">
-        <v>0.700886423757918</v>
+        <v>0.688948705036041</v>
       </c>
       <c r="F14" t="n">
-        <v>160.182790537529</v>
+        <v>159.030597474995</v>
       </c>
       <c r="G14" t="n">
-        <v>-397.59718612988</v>
+        <v>-399.765233904761</v>
       </c>
       <c r="H14" t="n">
-        <v>-228.723914592675</v>
+        <v>-226.629479987968</v>
       </c>
       <c r="I14" t="n">
-        <v>648.993583647882</v>
+        <v>647.126251304359</v>
       </c>
       <c r="J14" t="n">
-        <v>120.602873793211</v>
+        <v>119.700071947492</v>
       </c>
       <c r="K14" t="n">
-        <v>13.2628001444019</v>
+        <v>13.1738965603828</v>
       </c>
       <c r="L14" t="n">
         <v>51.4976</v>
@@ -1382,10 +1382,10 @@
         <v>76.057</v>
       </c>
       <c r="O14" t="n">
-        <v>-4.45217764032489</v>
+        <v>-4.4682574109516</v>
       </c>
       <c r="P14" t="n">
-        <v>149.859353341593</v>
+        <v>149.839707712184</v>
       </c>
       <c r="Q14" t="n">
         <v>18.119996</v>
@@ -1400,13 +1400,13 @@
         <v>40.95</v>
       </c>
       <c r="U14" t="n">
-        <v>0.312108308287221</v>
+        <v>0.311933131756504</v>
       </c>
       <c r="V14" t="n">
-        <v>75.9521631615708</v>
+        <v>75.2322601123194</v>
       </c>
       <c r="W14" t="n">
-        <v>-30.3225498608576</v>
+        <v>-30.4423731488243</v>
       </c>
     </row>
     <row r="15">
@@ -1414,34 +1414,34 @@
         <v>36</v>
       </c>
       <c r="B15" t="n">
-        <v>174.908785484829</v>
+        <v>171.674844261704</v>
       </c>
       <c r="C15" t="n">
         <v>26734.3</v>
       </c>
       <c r="D15" t="n">
-        <v>26559.3912145152</v>
+        <v>26562.6251557383</v>
       </c>
       <c r="E15" t="n">
-        <v>0.658557208906352</v>
+        <v>0.646302250832376</v>
       </c>
       <c r="F15" t="n">
-        <v>151.726416215019</v>
+        <v>150.463039238742</v>
       </c>
       <c r="G15" t="n">
-        <v>-354.358633055488</v>
+        <v>-356.580211254019</v>
       </c>
       <c r="H15" t="n">
-        <v>-260.224029610304</v>
+        <v>-257.909071124536</v>
       </c>
       <c r="I15" t="n">
-        <v>637.765031935603</v>
+        <v>635.701087401517</v>
       </c>
       <c r="J15" t="n">
-        <v>119.869580185206</v>
+        <v>118.871721961791</v>
       </c>
       <c r="K15" t="n">
-        <v>31.5602243446566</v>
+        <v>31.4619600657064</v>
       </c>
       <c r="L15" t="n">
         <v>51.2176</v>
@@ -1453,10 +1453,10 @@
         <v>52.018</v>
       </c>
       <c r="O15" t="n">
-        <v>-5.98465604405151</v>
+        <v>-6.00242886034181</v>
       </c>
       <c r="P15" t="n">
-        <v>145.863686810169</v>
+        <v>145.841972684358</v>
       </c>
       <c r="Q15" t="n">
         <v>16.093332</v>
@@ -1471,13 +1471,13 @@
         <v>40.95</v>
       </c>
       <c r="U15" t="n">
-        <v>0.310793582602451</v>
+        <v>0.310599961662757</v>
       </c>
       <c r="V15" t="n">
-        <v>79.2175813112917</v>
+        <v>78.4218793738578</v>
       </c>
       <c r="W15" t="n">
-        <v>-25.1761402542718</v>
+        <v>-25.3085797855169</v>
       </c>
     </row>
     <row r="16">
@@ -1485,34 +1485,34 @@
         <v>37</v>
       </c>
       <c r="B16" t="n">
-        <v>182.569747769379</v>
+        <v>179.334934991508</v>
       </c>
       <c r="C16" t="n">
         <v>27164.4</v>
       </c>
       <c r="D16" t="n">
-        <v>26981.8302522306</v>
+        <v>26985.0650650085</v>
       </c>
       <c r="E16" t="n">
-        <v>0.676639598065387</v>
+        <v>0.66457106758675</v>
       </c>
       <c r="F16" t="n">
-        <v>152.650774234086</v>
+        <v>151.28585061559</v>
       </c>
       <c r="G16" t="n">
-        <v>-321.706826503428</v>
+        <v>-323.851732381854</v>
       </c>
       <c r="H16" t="n">
-        <v>-223.222422936206</v>
+        <v>-220.686100619346</v>
       </c>
       <c r="I16" t="n">
-        <v>574.848222974927</v>
+        <v>572.586917377118</v>
       </c>
       <c r="J16" t="n">
-        <v>114.672760438372</v>
+        <v>113.579483778479</v>
       </c>
       <c r="K16" t="n">
-        <v>34.5568089317633</v>
+        <v>34.4491483040743</v>
       </c>
       <c r="L16" t="n">
         <v>18.424</v>
@@ -1524,10 +1524,10 @@
         <v>27.457</v>
       </c>
       <c r="O16" t="n">
-        <v>-7.56128630652472</v>
+        <v>-7.58075861709429</v>
       </c>
       <c r="P16" t="n">
-        <v>142.938159743719</v>
+        <v>142.914369242842</v>
       </c>
       <c r="Q16" t="n">
         <v>14.066668</v>
@@ -1542,13 +1542,13 @@
         <v>40.95</v>
       </c>
       <c r="U16" t="n">
-        <v>0.296652202535351</v>
+        <v>0.296440066934054</v>
       </c>
       <c r="V16" t="n">
-        <v>83.8403756342591</v>
+        <v>82.9685860994186</v>
       </c>
       <c r="W16" t="n">
-        <v>-18.7175372691963</v>
+        <v>-18.8626410975357</v>
       </c>
     </row>
     <row r="17">
@@ -1556,34 +1556,34 @@
         <v>38</v>
       </c>
       <c r="B17" t="n">
-        <v>150.273537972626</v>
+        <v>147.120625920395</v>
       </c>
       <c r="C17" t="n">
         <v>27453.8</v>
       </c>
       <c r="D17" t="n">
-        <v>27303.5264620274</v>
+        <v>27306.6793740796</v>
       </c>
       <c r="E17" t="n">
-        <v>0.550381424837632</v>
+        <v>0.538771572716557</v>
       </c>
       <c r="F17" t="n">
-        <v>132.993446785802</v>
+        <v>131.553802420048</v>
       </c>
       <c r="G17" t="n">
-        <v>-291.430644759636</v>
+        <v>-293.437465750915</v>
       </c>
       <c r="H17" t="n">
-        <v>-189.148506983371</v>
+        <v>-186.441232310292</v>
       </c>
       <c r="I17" t="n">
-        <v>497.859242929832</v>
+        <v>495.445521561555</v>
       </c>
       <c r="J17" t="n">
-        <v>109.535971374261</v>
+        <v>108.36900604327</v>
       </c>
       <c r="K17" t="n">
-        <v>34.400370688136</v>
+        <v>34.2854535545002</v>
       </c>
       <c r="L17" t="n">
         <v>2.1784</v>
@@ -1595,10 +1595,10 @@
         <v>9.157</v>
       </c>
       <c r="O17" t="n">
-        <v>-6.51828147506779</v>
+        <v>-6.5390662518609</v>
       </c>
       <c r="P17" t="n">
-        <v>121.091188327398</v>
+        <v>121.065794307066</v>
       </c>
       <c r="Q17" t="n">
         <v>14.28301</v>
@@ -1613,13 +1613,13 @@
         <v>40.95</v>
       </c>
       <c r="U17" t="n">
-        <v>0.242083548161559</v>
+        <v>0.241857114266769</v>
       </c>
       <c r="V17" t="n">
-        <v>94.2603131309895</v>
+        <v>93.329763526848</v>
       </c>
       <c r="W17" t="n">
-        <v>-10.3317790640474</v>
+        <v>-10.4866631325346</v>
       </c>
     </row>
     <row r="18">
@@ -1627,34 +1627,34 @@
         <v>39</v>
       </c>
       <c r="B18" t="n">
-        <v>161.399971345885</v>
+        <v>157.979372686385</v>
       </c>
       <c r="C18" t="n">
         <v>27967.7</v>
       </c>
       <c r="D18" t="n">
-        <v>27806.3000286541</v>
+        <v>27809.7206273136</v>
       </c>
       <c r="E18" t="n">
-        <v>0.580443896453553</v>
+        <v>0.568072490923277</v>
       </c>
       <c r="F18" t="n">
-        <v>125.622152498091</v>
+        <v>124.063139403081</v>
       </c>
       <c r="G18" t="n">
-        <v>-244.400592151977</v>
+        <v>-246.573249825288</v>
       </c>
       <c r="H18" t="n">
-        <v>-176.47845404813</v>
+        <v>-173.60961343917</v>
       </c>
       <c r="I18" t="n">
-        <v>456.656865047901</v>
+        <v>454.099096547763</v>
       </c>
       <c r="J18" t="n">
-        <v>108.934183480044</v>
+        <v>107.69757547566</v>
       </c>
       <c r="K18" t="n">
-        <v>29.9060656369812</v>
+        <v>29.7842904277946</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -1666,10 +1666,10 @@
         <v>0.67</v>
       </c>
       <c r="O18" t="n">
-        <v>-4.06523009208735</v>
+        <v>-4.08725527198697</v>
       </c>
       <c r="P18" t="n">
-        <v>97.8998066730462</v>
+        <v>97.8728971771319</v>
       </c>
       <c r="Q18" t="n">
         <v>14.499352</v>
@@ -1684,13 +1684,13 @@
         <v>32.3663016</v>
       </c>
       <c r="U18" t="n">
-        <v>0.240982025767556</v>
+        <v>0.240742078650597</v>
       </c>
       <c r="V18" t="n">
-        <v>90.0215042472321</v>
+        <v>89.0354208920562</v>
       </c>
       <c r="W18" t="n">
-        <v>5.09154947691755</v>
+        <v>4.92742216845662</v>
       </c>
     </row>
     <row r="19">
@@ -1698,34 +1698,34 @@
         <v>40</v>
       </c>
       <c r="B19" t="n">
-        <v>135.152029957927</v>
+        <v>131.63166888008</v>
       </c>
       <c r="C19" t="n">
         <v>28297</v>
       </c>
       <c r="D19" t="n">
-        <v>28161.8479700421</v>
+        <v>28165.3683311199</v>
       </c>
       <c r="E19" t="n">
-        <v>0.479911794501908</v>
+        <v>0.467352911322094</v>
       </c>
       <c r="F19" t="n">
-        <v>129.399589367791</v>
+        <v>127.734894894319</v>
       </c>
       <c r="G19" t="n">
-        <v>-230.138091038824</v>
+        <v>-232.316595300956</v>
       </c>
       <c r="H19" t="n">
-        <v>-177.641757108277</v>
+        <v>-174.664409553126</v>
       </c>
       <c r="I19" t="n">
-        <v>413.532288737237</v>
+        <v>410.877778839843</v>
       </c>
       <c r="J19" t="n">
-        <v>96.8532639268296</v>
+        <v>95.5698842203951</v>
       </c>
       <c r="K19" t="n">
-        <v>13.9029145053357</v>
+        <v>13.7765334438653</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -1737,10 +1737,10 @@
         <v>0.174</v>
       </c>
       <c r="O19" t="n">
-        <v>-2.45097950153999</v>
+        <v>-2.47383773051272</v>
       </c>
       <c r="P19" t="n">
-        <v>87.9682634017112</v>
+        <v>87.9403361193028</v>
       </c>
       <c r="Q19" t="n">
         <v>14.261254</v>
@@ -1755,13 +1755,13 @@
         <v>25.07397996</v>
       </c>
       <c r="U19" t="n">
-        <v>0.240656163080453</v>
+        <v>0.240407140545074</v>
       </c>
       <c r="V19" t="n">
-        <v>94.9461107733805</v>
+        <v>93.9227312041082</v>
       </c>
       <c r="W19" t="n">
-        <v>9.39966550843977</v>
+        <v>9.22933048213906</v>
       </c>
     </row>
     <row r="20">
@@ -1769,34 +1769,34 @@
         <v>41</v>
       </c>
       <c r="B20" t="n">
-        <v>139.262474981548</v>
+        <v>135.478203984032</v>
       </c>
       <c r="C20" t="n">
         <v>28624.1</v>
       </c>
       <c r="D20" t="n">
-        <v>28484.8375250185</v>
+        <v>28488.621796016</v>
       </c>
       <c r="E20" t="n">
-        <v>0.488900366236011</v>
+        <v>0.47555197634368</v>
       </c>
       <c r="F20" t="n">
-        <v>115.584695944007</v>
+        <v>113.798803098809</v>
       </c>
       <c r="G20" t="n">
-        <v>-221.001690386205</v>
+        <v>-223.345888356218</v>
       </c>
       <c r="H20" t="n">
-        <v>-137.697885312768</v>
+        <v>-134.508586406658</v>
       </c>
       <c r="I20" t="n">
-        <v>382.377354736514</v>
+        <v>379.533875648099</v>
       </c>
       <c r="J20" t="n">
-        <v>95.5583478848941</v>
+        <v>94.183606972711</v>
       </c>
       <c r="K20" t="n">
-        <v>12.312265548904</v>
+        <v>12.176887675265</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -1808,10 +1808,10 @@
         <v>0.08</v>
       </c>
       <c r="O20" t="n">
-        <v>-1.56283132523353</v>
+        <v>-1.58731678529755</v>
       </c>
       <c r="P20" t="n">
-        <v>79.5581605698576</v>
+        <v>79.5282452006957</v>
       </c>
       <c r="Q20" t="n">
         <v>14.023156</v>
@@ -1826,13 +1826,13 @@
         <v>18.30645234</v>
       </c>
       <c r="U20" t="n">
-        <v>0.204647570987417</v>
+        <v>0.204380821041376</v>
       </c>
       <c r="V20" t="n">
-        <v>88.6052380279684</v>
+        <v>87.5090061368787</v>
       </c>
       <c r="W20" t="n">
-        <v>15.5706481191361</v>
+        <v>15.3881872868046</v>
       </c>
     </row>
     <row r="21">
@@ -1840,34 +1840,34 @@
         <v>42</v>
       </c>
       <c r="B21" t="n">
-        <v>149.245729718508</v>
+        <v>148.653550797441</v>
       </c>
       <c r="C21" t="n">
         <v>29016.7</v>
       </c>
       <c r="D21" t="n">
-        <v>28867.4542702815</v>
+        <v>28868.0464492026</v>
       </c>
       <c r="E21" t="n">
-        <v>0.517003433420693</v>
+        <v>0.514941497891153</v>
       </c>
       <c r="F21" t="n">
-        <v>127.800809110679</v>
+        <v>125.921166453252</v>
       </c>
       <c r="G21" t="n">
-        <v>-222.349844632279</v>
+        <v>-224.774256360233</v>
       </c>
       <c r="H21" t="n">
-        <v>-107.167739633304</v>
+        <v>-100.463923798247</v>
       </c>
       <c r="I21" t="n">
-        <v>350.962504873412</v>
+        <v>347.970564502669</v>
       </c>
       <c r="J21" t="n">
-        <v>105.532921827368</v>
+        <v>104.086404126137</v>
       </c>
       <c r="K21" t="n">
-        <v>13.2167759181005</v>
+        <v>13.0743298114645</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -1879,10 +1879,10 @@
         <v>0.035</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.903063713400726</v>
+        <v>-0.928827587227062</v>
       </c>
       <c r="P21" t="n">
-        <v>57.2464701729108</v>
+        <v>57.2149928882472</v>
       </c>
       <c r="Q21" t="n">
         <v>13.04705068</v>
@@ -1897,13 +1897,13 @@
         <v>11.95799418</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0594993802555712</v>
+        <v>0.0592187029909824</v>
       </c>
       <c r="V21" t="n">
-        <v>87.3190165880906</v>
+        <v>86.1655491812051</v>
       </c>
       <c r="W21" t="n">
-        <v>16.0501798400874</v>
+        <v>15.8581925198514</v>
       </c>
     </row>
     <row r="22">
@@ -1911,34 +1911,34 @@
         <v>43</v>
       </c>
       <c r="B22" t="n">
-        <v>181.703019237481</v>
+        <v>186.39827160409</v>
       </c>
       <c r="C22" t="n">
-        <v>29349.9</v>
+        <v>29374.9</v>
       </c>
       <c r="D22" t="n">
-        <v>29168.1969807625</v>
+        <v>29188.5017283959</v>
       </c>
       <c r="E22" t="n">
-        <v>0.622949095404568</v>
+        <v>0.638601711518305</v>
       </c>
       <c r="F22" t="n">
-        <v>178.237287370114</v>
+        <v>173.201300645855</v>
       </c>
       <c r="G22" t="n">
-        <v>-238.154044327949</v>
+        <v>-236.634103769505</v>
       </c>
       <c r="H22" t="n">
-        <v>-103.681291012186</v>
+        <v>-91.3932639132929</v>
       </c>
       <c r="I22" t="n">
-        <v>345.301067207502</v>
+        <v>341.224338641033</v>
       </c>
       <c r="J22" t="n">
-        <v>120.887158823903</v>
+        <v>119.331776450609</v>
       </c>
       <c r="K22" t="n">
-        <v>15.1322552008175</v>
+        <v>15.8724415494483</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -1950,10 +1950,10 @@
         <v>0.012</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.342321680390143</v>
+        <v>-0.371226778934691</v>
       </c>
       <c r="P22" t="n">
-        <v>36.5336870449392</v>
+        <v>36.4983719358353</v>
       </c>
       <c r="Q22" t="n">
         <v>8.517842</v>
@@ -1968,13 +1968,13 @@
         <v>8.18345387</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0573461887951549</v>
+        <v>0.0570312903428941</v>
       </c>
       <c r="V22" t="n">
-        <v>103.021088165181</v>
+        <v>101.726985838462</v>
       </c>
       <c r="W22" t="n">
-        <v>17.8873275942558</v>
+        <v>15.9844324852698</v>
       </c>
     </row>
     <row r="23">
@@ -1982,34 +1982,34 @@
         <v>44</v>
       </c>
       <c r="B23" t="n">
-        <v>162.522101396599</v>
+        <v>173.289336441366</v>
       </c>
       <c r="C23" t="n">
-        <v>29641.2825253979</v>
+        <v>29666.5307226025</v>
       </c>
       <c r="D23" t="n">
-        <v>29478.7604240013</v>
+        <v>29493.2413861611</v>
       </c>
       <c r="E23" t="n">
-        <v>0.55131931960164</v>
+        <v>0.587556091826102</v>
       </c>
       <c r="F23" t="n">
-        <v>150.816686534242</v>
+        <v>145.649351581627</v>
       </c>
       <c r="G23" t="n">
-        <v>-247.670807688072</v>
+        <v>-246.221519331698</v>
       </c>
       <c r="H23" t="n">
-        <v>-100.749973179488</v>
+        <v>-84.3691353918696</v>
       </c>
       <c r="I23" t="n">
-        <v>360.126195729917</v>
+        <v>358.230639583307</v>
       </c>
       <c r="J23" t="n">
-        <v>134.470938035208</v>
+        <v>132.480991083331</v>
       </c>
       <c r="K23" t="n">
-        <v>17.8369291566928</v>
+        <v>18.5276746001496</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -2021,10 +2021,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.124745015508402</v>
+        <v>-0.16259236788385</v>
       </c>
       <c r="P23" t="n">
-        <v>26.6520709335994</v>
+        <v>26.6058305315342</v>
       </c>
       <c r="Q23" t="n">
         <v>6.576191</v>
@@ -2039,13 +2039,13 @@
         <v>6.12347377</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0200836386114905</v>
+        <v>0.0196713212942938</v>
       </c>
       <c r="V23" t="n">
-        <v>114.794913561919</v>
+        <v>116.440688212685</v>
       </c>
       <c r="W23" t="n">
-        <v>28.434535649395</v>
+        <v>26.2769064321971</v>
       </c>
     </row>
     <row r="24">
@@ -2053,34 +2053,34 @@
         <v>45</v>
       </c>
       <c r="B24" t="n">
-        <v>143.618503667693</v>
+        <v>158.456214656014</v>
       </c>
       <c r="C24" t="n">
-        <v>29945.3294512391</v>
+        <v>29970.8366330789</v>
       </c>
       <c r="D24" t="n">
-        <v>29801.7109475714</v>
+        <v>29812.3804184229</v>
       </c>
       <c r="E24" t="n">
-        <v>0.481913618719254</v>
+        <v>0.531511447365318</v>
       </c>
       <c r="F24" t="n">
-        <v>131.750565108055</v>
+        <v>126.458795478251</v>
       </c>
       <c r="G24" t="n">
-        <v>-235.745446900706</v>
+        <v>-234.370548739591</v>
       </c>
       <c r="H24" t="n">
-        <v>-110.211724565787</v>
+        <v>-91.4107694578662</v>
       </c>
       <c r="I24" t="n">
-        <v>357.825110026131</v>
+        <v>357.778737375219</v>
       </c>
       <c r="J24" t="n">
-        <v>136.018200467624</v>
+        <v>134.027201173751</v>
       </c>
       <c r="K24" t="n">
-        <v>20.3357964077847</v>
+        <v>21.0194903388027</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -2092,10 +2092,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>-0.133380385721651</v>
+        <v>-0.17250312765352</v>
       </c>
       <c r="P24" t="n">
-        <v>21.4971801395417</v>
+        <v>21.4493815168303</v>
       </c>
       <c r="Q24" t="n">
         <v>4.63454</v>
@@ -2110,13 +2110,13 @@
         <v>4.0318455</v>
       </c>
       <c r="U24" t="n">
-        <v>-0.0296869521478507</v>
+        <v>-0.0301131638372368</v>
       </c>
       <c r="V24" t="n">
-        <v>124.977556941912</v>
+        <v>129.066996790651</v>
       </c>
       <c r="W24" t="n">
-        <v>29.6511329071376</v>
+        <v>26.9099733466751</v>
       </c>
     </row>
     <row r="25">
@@ -2124,34 +2124,34 @@
         <v>46</v>
       </c>
       <c r="B25" t="n">
-        <v>126.987858841922</v>
+        <v>146.577255612518</v>
       </c>
       <c r="C25" t="n">
-        <v>30256.7723869391</v>
+        <v>30282.5448532737</v>
       </c>
       <c r="D25" t="n">
-        <v>30129.7845280972</v>
+        <v>30135.9675976612</v>
       </c>
       <c r="E25" t="n">
-        <v>0.421469522038898</v>
+        <v>0.486386425581031</v>
       </c>
       <c r="F25" t="n">
-        <v>121.697460124694</v>
+        <v>116.281401340597</v>
       </c>
       <c r="G25" t="n">
-        <v>-231.948610115942</v>
+        <v>-230.649053540686</v>
       </c>
       <c r="H25" t="n">
-        <v>-107.398751306019</v>
+        <v>-85.8398925620384</v>
       </c>
       <c r="I25" t="n">
-        <v>344.637760139189</v>
+        <v>346.784800374646</v>
       </c>
       <c r="J25" t="n">
-        <v>133.478668349959</v>
+        <v>131.485516111743</v>
       </c>
       <c r="K25" t="n">
-        <v>22.7802647724545</v>
+        <v>23.4567988090075</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2163,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.261075582377778</v>
+        <v>-0.301493316654216</v>
       </c>
       <c r="P25" t="n">
-        <v>13.6083604702455</v>
+        <v>13.5589796769745</v>
       </c>
       <c r="Q25" t="n">
         <v>2.745007</v>
@@ -2181,13 +2181,13 @@
         <v>2.35332026</v>
       </c>
       <c r="U25" t="n">
-        <v>-0.132815877324287</v>
+        <v>-0.133256196942915</v>
       </c>
       <c r="V25" t="n">
-        <v>132.811414961013</v>
+        <v>139.587694665879</v>
       </c>
       <c r="W25" t="n">
-        <v>28.8221657852194</v>
+        <v>25.5997833646396</v>
       </c>
     </row>
     <row r="26">
@@ -2195,34 +2195,34 @@
         <v>47</v>
       </c>
       <c r="B26" t="n">
-        <v>115.907937747174</v>
+        <v>141.764102555948</v>
       </c>
       <c r="C26" t="n">
-        <v>30562.1364104264</v>
+        <v>30588.168983289</v>
       </c>
       <c r="D26" t="n">
-        <v>30446.2284726792</v>
+        <v>30446.404880733</v>
       </c>
       <c r="E26" t="n">
-        <v>0.380697194896196</v>
+        <v>0.465618529055489</v>
       </c>
       <c r="F26" t="n">
-        <v>123.333196267824</v>
+        <v>117.791396187898</v>
       </c>
       <c r="G26" t="n">
-        <v>-240.579710550137</v>
+        <v>-239.356407054816</v>
       </c>
       <c r="H26" t="n">
-        <v>-100.91780904032</v>
+        <v>-76.5975613113217</v>
       </c>
       <c r="I26" t="n">
-        <v>334.072261069808</v>
+        <v>339.926674734187</v>
       </c>
       <c r="J26" t="n">
-        <v>128.522900966046</v>
+        <v>126.458737196078</v>
       </c>
       <c r="K26" t="n">
-        <v>24.749914378397</v>
+        <v>24.5191547333309</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -2234,10 +2234,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>-0.526533082628717</v>
+        <v>-0.568270007000294</v>
       </c>
       <c r="P26" t="n">
-        <v>7.28214116683889</v>
+        <v>7.23114863915134</v>
       </c>
       <c r="Q26" t="n">
         <v>0.855474</v>
@@ -2252,13 +2252,13 @@
         <v>2.39286449</v>
       </c>
       <c r="U26" t="n">
-        <v>-0.163310789857231</v>
+        <v>-0.163765481020676</v>
       </c>
       <c r="V26" t="n">
-        <v>136.316621048313</v>
+        <v>146.332384997734</v>
       </c>
       <c r="W26" t="n">
-        <v>27.8220788926986</v>
+        <v>26.0488361659137</v>
       </c>
     </row>
     <row r="27">
@@ -2266,34 +2266,34 @@
         <v>48</v>
       </c>
       <c r="B27" t="n">
-        <v>84.5866982170311</v>
+        <v>113.868718952199</v>
       </c>
       <c r="C27" t="n">
-        <v>30851.8978925676</v>
+        <v>30878.1772818436</v>
       </c>
       <c r="D27" t="n">
-        <v>30767.3111943505</v>
+        <v>30764.3085628914</v>
       </c>
       <c r="E27" t="n">
-        <v>0.274923920659531</v>
+        <v>0.370132547329693</v>
       </c>
       <c r="F27" t="n">
-        <v>111.049070241774</v>
+        <v>105.381227554369</v>
       </c>
       <c r="G27" t="n">
-        <v>-245.620958280058</v>
+        <v>-244.475209556225</v>
       </c>
       <c r="H27" t="n">
-        <v>-101.827745326645</v>
+        <v>-74.7350509611935</v>
       </c>
       <c r="I27" t="n">
-        <v>320.98633158196</v>
+        <v>327.697751915248</v>
       </c>
       <c r="J27" t="n">
-        <v>119.613876795302</v>
+        <v>117.479029704434</v>
       </c>
       <c r="K27" t="n">
-        <v>25.8887120951849</v>
+        <v>25.6506910891258</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -2305,10 +2305,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>-0.843201232807189</v>
+        <v>-0.886251501522459</v>
       </c>
       <c r="P27" t="n">
-        <v>3.6751382602112</v>
+        <v>3.62254114021558</v>
       </c>
       <c r="Q27" t="n">
         <v>0.573855</v>
@@ -2323,13 +2323,13 @@
         <v>2.42854317</v>
       </c>
       <c r="U27" t="n">
-        <v>-0.190647103038204</v>
+        <v>-0.191116102061576</v>
       </c>
       <c r="V27" t="n">
-        <v>137.856256539387</v>
+        <v>148.529682525638</v>
       </c>
       <c r="W27" t="n">
-        <v>26.6896480577196</v>
+        <v>25.1966268894185</v>
       </c>
     </row>
     <row r="28">
@@ -2337,34 +2337,34 @@
         <v>49</v>
       </c>
       <c r="B28" t="n">
-        <v>77.962632836028</v>
+        <v>111.719970474134</v>
       </c>
       <c r="C28" t="n">
-        <v>31121.5989644067</v>
+        <v>31148.1080828061</v>
       </c>
       <c r="D28" t="n">
-        <v>31043.6363315706</v>
+        <v>31036.3881123319</v>
       </c>
       <c r="E28" t="n">
-        <v>0.251138855008248</v>
+        <v>0.359964471605978</v>
       </c>
       <c r="F28" t="n">
-        <v>103.972456233447</v>
+        <v>98.1991209312138</v>
       </c>
       <c r="G28" t="n">
-        <v>-253.911873797245</v>
+        <v>-252.845245415102</v>
       </c>
       <c r="H28" t="n">
-        <v>-85.0562828329103</v>
+        <v>-55.1277221090837</v>
       </c>
       <c r="I28" t="n">
-        <v>312.958333232736</v>
+        <v>321.493817067106</v>
       </c>
       <c r="J28" t="n">
-        <v>111.209591590338</v>
+        <v>109.004209339996</v>
       </c>
       <c r="K28" t="n">
-        <v>27.0725307916882</v>
+        <v>26.8272560962887</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -2376,10 +2376,10 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>-1.14371753839952</v>
+        <v>-1.1880797639057</v>
       </c>
       <c r="P28" t="n">
-        <v>2.45895712130861</v>
+        <v>2.40475710426217</v>
       </c>
       <c r="Q28" t="n">
         <v>0.378236</v>
@@ -2394,13 +2394,13 @@
         <v>2.44287734</v>
       </c>
       <c r="U28" t="n">
-        <v>-0.217981761991116</v>
+        <v>-0.21846505375811</v>
       </c>
       <c r="V28" t="n">
-        <v>141.170161053682</v>
+        <v>153.172502595523</v>
       </c>
       <c r="W28" t="n">
-        <v>25.9219286361102</v>
+        <v>25.0047734086998</v>
       </c>
     </row>
     <row r="29">
@@ -2408,34 +2408,34 @@
         <v>50</v>
       </c>
       <c r="B29" t="n">
-        <v>72.3250134510954</v>
+        <v>108.281409042746</v>
       </c>
       <c r="C29" t="n">
-        <v>31395.1500139805</v>
+        <v>31421.8921408821</v>
       </c>
       <c r="D29" t="n">
-        <v>31322.8250005294</v>
+        <v>31313.6107318394</v>
       </c>
       <c r="E29" t="n">
-        <v>0.23090194913733</v>
+        <v>0.345796624892714</v>
       </c>
       <c r="F29" t="n">
-        <v>95.8870226886498</v>
+        <v>90.0031004433397</v>
       </c>
       <c r="G29" t="n">
-        <v>-260.183715591002</v>
+        <v>-259.198145460597</v>
       </c>
       <c r="H29" t="n">
-        <v>-70.5729936262473</v>
+        <v>-39.4689488172067</v>
       </c>
       <c r="I29" t="n">
-        <v>307.194699979695</v>
+        <v>316.945402877211</v>
       </c>
       <c r="J29" t="n">
-        <v>102.612540224387</v>
+        <v>100.33645140383</v>
       </c>
       <c r="K29" t="n">
-        <v>28.2983243461254</v>
+        <v>28.0457790816801</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -2447,10 +2447,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>-1.45274975922487</v>
+        <v>-1.4984269945124</v>
       </c>
       <c r="P29" t="n">
-        <v>1.52869440752704</v>
+        <v>1.47288776340651</v>
       </c>
       <c r="Q29" t="n">
         <v>0.211344</v>
@@ -2465,13 +2465,13 @@
         <v>2.45433355</v>
       </c>
       <c r="U29" t="n">
-        <v>-0.245322041437177</v>
+        <v>-0.245819659207739</v>
       </c>
       <c r="V29" t="n">
-        <v>145.952613868636</v>
+        <v>158.869116097009</v>
       </c>
       <c r="W29" t="n">
-        <v>25.3736963836805</v>
+        <v>24.8385126350053</v>
       </c>
     </row>
     <row r="30">
@@ -2479,34 +2479,34 @@
         <v>51</v>
       </c>
       <c r="B30" t="n">
-        <v>55.049891021277</v>
+        <v>95.9269937569424</v>
       </c>
       <c r="C30" t="n">
-        <v>31679.947051148</v>
+        <v>31706.9317657902</v>
       </c>
       <c r="D30" t="n">
-        <v>31624.8971601267</v>
+        <v>31611.0047720333</v>
       </c>
       <c r="E30" t="n">
-        <v>0.174071367702933</v>
+        <v>0.303460755039997</v>
       </c>
       <c r="F30" t="n">
-        <v>89.6636110116705</v>
+        <v>83.6637571091378</v>
       </c>
       <c r="G30" t="n">
-        <v>-270.544626821313</v>
+        <v>-269.64297540776</v>
       </c>
       <c r="H30" t="n">
-        <v>-62.5888323620248</v>
+        <v>-31.0708179911747</v>
       </c>
       <c r="I30" t="n">
-        <v>298.519739192945</v>
+        <v>312.977030046739</v>
       </c>
       <c r="J30" t="n">
-        <v>94.2028539692205</v>
+        <v>91.8558272158848</v>
       </c>
       <c r="K30" t="n">
-        <v>29.5658944065828</v>
+        <v>29.3060557896192</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -2518,10 +2518,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>-1.79445229368442</v>
+        <v>-1.84144865954343</v>
       </c>
       <c r="P30" t="n">
-        <v>-3.8920620190091</v>
+        <v>0.604569175177438</v>
       </c>
       <c r="Q30" t="n">
         <v>-0.00499800000000003</v>
@@ -2536,13 +2536,13 @@
         <v>1.91853524</v>
       </c>
       <c r="U30" t="n">
-        <v>-0.27266962342627</v>
+        <v>-0.273181612093186</v>
       </c>
       <c r="V30" t="n">
-        <v>152.227588993455</v>
+        <v>165.331459763613</v>
       </c>
       <c r="W30" t="n">
-        <v>25.0461635198057</v>
+        <v>24.557326134081</v>
       </c>
     </row>
   </sheetData>

--- a/fim_levels.xlsx
+++ b/fim_levels.xlsx
@@ -633,34 +633,34 @@
         <v>25</v>
       </c>
       <c r="B4" t="n">
-        <v>24.9224072985305</v>
+        <v>3385.73331721288</v>
       </c>
       <c r="C4" t="n">
         <v>21727.7</v>
       </c>
       <c r="D4" t="n">
-        <v>21702.7775927015</v>
+        <v>18341.9666827871</v>
       </c>
       <c r="E4" t="n">
-        <v>0.114835104364297</v>
+        <v>18.4589437750435</v>
       </c>
       <c r="F4" t="n">
-        <v>9.48127279342025</v>
+        <v>1680.48425561542</v>
       </c>
       <c r="G4" t="n">
-        <v>13.3704799502666</v>
+        <v>2036.60673290146</v>
       </c>
       <c r="H4" t="n">
-        <v>-6.08808885193253</v>
+        <v>-3081.10733447446</v>
       </c>
       <c r="I4" t="n">
-        <v>8.15874340677624</v>
+        <v>2749.74966317045</v>
       </c>
       <c r="J4" t="n">
-        <v>4.79354389970172</v>
+        <v>1330.27443708595</v>
       </c>
       <c r="K4" t="n">
-        <v>0.874129511356216</v>
+        <v>131.401113380362</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -672,10 +672,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.02505346810979</v>
+        <v>27.6331451369524</v>
       </c>
       <c r="P4" t="n">
-        <v>0.55327525737075</v>
+        <v>29.3967103259492</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.000565315715046144</v>
+        <v>0.257757018967357</v>
       </c>
       <c r="V4" t="n">
-        <v>1.55978096928175</v>
+        <v>1058.51124961608</v>
       </c>
       <c r="W4" t="n">
-        <v>-3.64760501475902</v>
+        <v>172.2752506062</v>
       </c>
     </row>
     <row r="5">
@@ -704,34 +704,34 @@
         <v>26</v>
       </c>
       <c r="B5" t="n">
-        <v>789.186391011501</v>
+        <v>4096.45950505276</v>
       </c>
       <c r="C5" t="n">
         <v>19935.4</v>
       </c>
       <c r="D5" t="n">
-        <v>19146.2136089885</v>
+        <v>15838.9404949472</v>
       </c>
       <c r="E5" t="n">
-        <v>4.12189275189643</v>
+        <v>25.8632167117464</v>
       </c>
       <c r="F5" t="n">
-        <v>217.695206111736</v>
+        <v>1860.05885844371</v>
       </c>
       <c r="G5" t="n">
-        <v>-129.044369179027</v>
+        <v>1868.28004316498</v>
       </c>
       <c r="H5" t="n">
-        <v>11.1130300061982</v>
+        <v>-3054.56043400284</v>
       </c>
       <c r="I5" t="n">
-        <v>689.422524072594</v>
+        <v>3422.68103744692</v>
       </c>
       <c r="J5" t="n">
-        <v>35.7606071406888</v>
+        <v>1357.21301986191</v>
       </c>
       <c r="K5" t="n">
-        <v>2.72631494135558</v>
+        <v>132.856593427901</v>
       </c>
       <c r="L5" t="n">
         <v>264.1345</v>
@@ -743,10 +743,10 @@
         <v>245.574</v>
       </c>
       <c r="O5" t="n">
-        <v>49.6949359640064</v>
+        <v>73.2312765147505</v>
       </c>
       <c r="P5" t="n">
-        <v>48.4500312028362</v>
+        <v>77.2058035858827</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -761,13 +761,13 @@
         <v>9</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0012134685798062</v>
+        <v>0.257623499491426</v>
       </c>
       <c r="V5" t="n">
-        <v>26.2895434634631</v>
+        <v>1080.02866226364</v>
       </c>
       <c r="W5" t="n">
-        <v>-14.7346221083359</v>
+        <v>160.653558293339</v>
       </c>
     </row>
     <row r="6">
@@ -775,34 +775,34 @@
         <v>27</v>
       </c>
       <c r="B6" t="n">
-        <v>934.546968081922</v>
+        <v>4066.60498028224</v>
       </c>
       <c r="C6" t="n">
         <v>21684.6</v>
       </c>
       <c r="D6" t="n">
-        <v>20750.0530319181</v>
+        <v>17617.9950197178</v>
       </c>
       <c r="E6" t="n">
-        <v>4.50382929934872</v>
+        <v>23.0821099434468</v>
       </c>
       <c r="F6" t="n">
-        <v>134.886205927482</v>
+        <v>1712.64056483977</v>
       </c>
       <c r="G6" t="n">
-        <v>-127.317003175792</v>
+        <v>1745.14646257818</v>
       </c>
       <c r="H6" t="n">
-        <v>34.1515602215408</v>
+        <v>-2900.05489628264</v>
       </c>
       <c r="I6" t="n">
-        <v>892.826205108691</v>
+        <v>3508.87284914694</v>
       </c>
       <c r="J6" t="n">
-        <v>83.5618905472822</v>
+        <v>1348.34571272874</v>
       </c>
       <c r="K6" t="n">
-        <v>3.15952956035878</v>
+        <v>127.709357780675</v>
       </c>
       <c r="L6" t="n">
         <v>117.0225</v>
@@ -814,10 +814,10 @@
         <v>462.483</v>
       </c>
       <c r="O6" t="n">
-        <v>72.9270470580084</v>
+        <v>95.4540654170226</v>
       </c>
       <c r="P6" t="n">
-        <v>95.9002797189389</v>
+        <v>123.4229020656</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>16.65</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.0013333412159709</v>
+        <v>0.244080913448136</v>
       </c>
       <c r="V6" t="n">
-        <v>33.3632315703542</v>
+        <v>1041.91426029315</v>
       </c>
       <c r="W6" t="n">
-        <v>-16.5059400050353</v>
+        <v>151.360969948294</v>
       </c>
     </row>
     <row r="7">
@@ -846,34 +846,34 @@
         <v>28</v>
       </c>
       <c r="B7" t="n">
-        <v>757.632598676104</v>
+        <v>3684.18812869466</v>
       </c>
       <c r="C7" t="n">
         <v>22068.8</v>
       </c>
       <c r="D7" t="n">
-        <v>21311.1674013239</v>
+        <v>18384.6118713053</v>
       </c>
       <c r="E7" t="n">
-        <v>3.55509665148159</v>
+        <v>20.0395208475678</v>
       </c>
       <c r="F7" t="n">
-        <v>117.918700583147</v>
+        <v>1617.00954338666</v>
       </c>
       <c r="G7" t="n">
-        <v>-145.274238132111</v>
+        <v>1589.07064189747</v>
       </c>
       <c r="H7" t="n">
-        <v>5.13343402588055</v>
+        <v>-2825.04752487844</v>
       </c>
       <c r="I7" t="n">
-        <v>779.854702199187</v>
+        <v>3303.15546828897</v>
       </c>
       <c r="J7" t="n">
-        <v>107.596810543394</v>
+        <v>1327.54065012341</v>
       </c>
       <c r="K7" t="n">
-        <v>4.13003036559169</v>
+        <v>124.264232743399</v>
       </c>
       <c r="L7" t="n">
         <v>63.2366</v>
@@ -885,10 +885,10 @@
         <v>366.6105</v>
       </c>
       <c r="O7" t="n">
-        <v>53.6929881754041</v>
+        <v>75.4213632456875</v>
       </c>
       <c r="P7" t="n">
-        <v>108.303896126702</v>
+        <v>134.850767609439</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -903,13 +903,13 @@
         <v>23.85</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.00304314796826921</v>
+        <v>0.23367051239957</v>
       </c>
       <c r="V7" t="n">
-        <v>52.0002808152299</v>
+        <v>1024.79546748227</v>
       </c>
       <c r="W7" t="n">
-        <v>-26.323360679166</v>
+        <v>135.592216572356</v>
       </c>
     </row>
     <row r="8">
@@ -917,34 +917,34 @@
         <v>29</v>
       </c>
       <c r="B8" t="n">
-        <v>1201.36961626069</v>
+        <v>3814.88884980422</v>
       </c>
       <c r="C8" t="n">
         <v>22656.8</v>
       </c>
       <c r="D8" t="n">
-        <v>21455.4303837393</v>
+        <v>18841.9111501958</v>
       </c>
       <c r="E8" t="n">
-        <v>5.59937318792347</v>
+        <v>20.2468253851446</v>
       </c>
       <c r="F8" t="n">
-        <v>189.510378325602</v>
+        <v>1594.03570304154</v>
       </c>
       <c r="G8" t="n">
-        <v>-184.001523285647</v>
+        <v>1312.34850498537</v>
       </c>
       <c r="H8" t="n">
-        <v>-6.15590734074753</v>
+        <v>-2656.27747502663</v>
       </c>
       <c r="I8" t="n">
-        <v>1202.01666856148</v>
+        <v>3564.78211680394</v>
       </c>
       <c r="J8" t="n">
-        <v>170.123762716285</v>
+        <v>1312.45336198268</v>
       </c>
       <c r="K8" t="n">
-        <v>4.31002000192808</v>
+        <v>116.801145255426</v>
       </c>
       <c r="L8" t="n">
         <v>205.2442</v>
@@ -956,10 +956,10 @@
         <v>368.9235</v>
       </c>
       <c r="O8" t="n">
-        <v>51.8897429418417</v>
+        <v>72.2357336189958</v>
       </c>
       <c r="P8" t="n">
-        <v>122.645511972921</v>
+        <v>147.503440738799</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -974,13 +974,13 @@
         <v>30.6</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0876064113017144</v>
+        <v>0.309260074376864</v>
       </c>
       <c r="V8" t="n">
-        <v>63.4735240341065</v>
+        <v>974.37835399431</v>
       </c>
       <c r="W8" t="n">
-        <v>-24.3461995169037</v>
+        <v>127.268121139359</v>
       </c>
     </row>
     <row r="9">
@@ -988,34 +988,34 @@
         <v>30</v>
       </c>
       <c r="B9" t="n">
-        <v>1098.70135446708</v>
+        <v>3379.00099864583</v>
       </c>
       <c r="C9" t="n">
         <v>23368.9</v>
       </c>
       <c r="D9" t="n">
-        <v>22270.1986455329</v>
+        <v>19989.8990013542</v>
       </c>
       <c r="E9" t="n">
-        <v>4.93350495859841</v>
+        <v>16.9035421260354</v>
       </c>
       <c r="F9" t="n">
-        <v>180.798814489675</v>
+        <v>1467.60230393675</v>
       </c>
       <c r="G9" t="n">
-        <v>-239.759508197758</v>
+        <v>1014.10978580022</v>
       </c>
       <c r="H9" t="n">
-        <v>-19.6326161067901</v>
+        <v>-2420.90555002653</v>
       </c>
       <c r="I9" t="n">
-        <v>1177.29466428196</v>
+        <v>3318.1944589354</v>
       </c>
       <c r="J9" t="n">
-        <v>163.827624871277</v>
+        <v>1198.89151846052</v>
       </c>
       <c r="K9" t="n">
-        <v>4.08002427453772</v>
+        <v>106.008138694312</v>
       </c>
       <c r="L9" t="n">
         <v>194.0897</v>
@@ -1027,10 +1027,10 @@
         <v>379.138</v>
       </c>
       <c r="O9" t="n">
-        <v>44.0461494812622</v>
+        <v>62.4816346010997</v>
       </c>
       <c r="P9" t="n">
-        <v>148.8426857861</v>
+        <v>171.366434230942</v>
       </c>
       <c r="Q9" t="n">
         <v>2.3513184</v>
@@ -1045,13 +1045,13 @@
         <v>34.65</v>
       </c>
       <c r="U9" t="n">
-        <v>0.465229788920239</v>
+        <v>0.666069987474334</v>
       </c>
       <c r="V9" t="n">
-        <v>57.4850534326381</v>
+        <v>882.855157291762</v>
       </c>
       <c r="W9" t="n">
-        <v>-11.6924897527786</v>
+        <v>125.685119269294</v>
       </c>
     </row>
     <row r="10">
@@ -1059,34 +1059,34 @@
         <v>31</v>
       </c>
       <c r="B10" t="n">
-        <v>954.916859954923</v>
+        <v>2901.47642425066</v>
       </c>
       <c r="C10" t="n">
         <v>23922</v>
       </c>
       <c r="D10" t="n">
-        <v>22967.0831400451</v>
+        <v>21020.5235757493</v>
       </c>
       <c r="E10" t="n">
-        <v>4.15776289105665</v>
+        <v>13.8030644850254</v>
       </c>
       <c r="F10" t="n">
-        <v>150.657529494469</v>
+        <v>1306.8514839814</v>
       </c>
       <c r="G10" t="n">
-        <v>-246.855442776727</v>
+        <v>776.662839626083</v>
       </c>
       <c r="H10" t="n">
-        <v>-39.5874596766627</v>
+        <v>-2189.82155735919</v>
       </c>
       <c r="I10" t="n">
-        <v>1090.70223291384</v>
+        <v>3007.78365800237</v>
       </c>
       <c r="J10" t="n">
-        <v>162.896101663084</v>
+        <v>1089.75020718227</v>
       </c>
       <c r="K10" t="n">
-        <v>4.83265424069177</v>
+        <v>96.1047891329642</v>
       </c>
       <c r="L10" t="n">
         <v>134.3118</v>
@@ -1098,10 +1098,10 @@
         <v>328.578</v>
       </c>
       <c r="O10" t="n">
-        <v>27.0157784015024</v>
+        <v>43.5239429470818</v>
       </c>
       <c r="P10" t="n">
-        <v>166.352505872451</v>
+        <v>186.521530071906</v>
       </c>
       <c r="Q10" t="n">
         <v>13.06288</v>
@@ -1116,13 +1116,13 @@
         <v>36.9</v>
       </c>
       <c r="U10" t="n">
-        <v>0.40669330996989</v>
+        <v>0.586536857538389</v>
       </c>
       <c r="V10" t="n">
-        <v>63.3708815740861</v>
+        <v>802.45343876955</v>
       </c>
       <c r="W10" t="n">
-        <v>-15.8075669479418</v>
+        <v>107.208028241052</v>
       </c>
     </row>
     <row r="11">
@@ -1130,34 +1130,34 @@
         <v>32</v>
       </c>
       <c r="B11" t="n">
-        <v>808.032521835996</v>
+        <v>2332.26169662161</v>
       </c>
       <c r="C11" t="n">
         <v>24777</v>
       </c>
       <c r="D11" t="n">
-        <v>23968.967478164</v>
+        <v>22444.7383033784</v>
       </c>
       <c r="E11" t="n">
-        <v>3.37116115899496</v>
+        <v>10.3911289367565</v>
       </c>
       <c r="F11" t="n">
-        <v>176.150003453731</v>
+        <v>1177.96886807215</v>
       </c>
       <c r="G11" t="n">
-        <v>-298.874385133037</v>
+        <v>422.119449709883</v>
       </c>
       <c r="H11" t="n">
-        <v>-54.5396431924389</v>
+        <v>-1885.96220955206</v>
       </c>
       <c r="I11" t="n">
-        <v>985.296546707741</v>
+        <v>2618.13558839164</v>
       </c>
       <c r="J11" t="n">
-        <v>178.932282408045</v>
+        <v>968.363315243209</v>
       </c>
       <c r="K11" t="n">
-        <v>5.19930614001504</v>
+        <v>82.9386777282927</v>
       </c>
       <c r="L11" t="n">
         <v>114.6509</v>
@@ -1169,10 +1169,10 @@
         <v>272.843</v>
       </c>
       <c r="O11" t="n">
-        <v>19.0853183499375</v>
+        <v>33.145845578362</v>
       </c>
       <c r="P11" t="n">
-        <v>173.748920849235</v>
+        <v>190.927518333177</v>
       </c>
       <c r="Q11" t="n">
         <v>16.12079192</v>
@@ -1187,13 +1187,13 @@
         <v>39.15</v>
       </c>
       <c r="U11" t="n">
-        <v>0.382543958971247</v>
+        <v>0.535722411394686</v>
       </c>
       <c r="V11" t="n">
-        <v>65.3979437096223</v>
+        <v>694.897994475907</v>
       </c>
       <c r="W11" t="n">
-        <v>-17.7696622280848</v>
+        <v>87.0066211012975</v>
       </c>
     </row>
     <row r="12">
@@ -1201,34 +1201,34 @@
         <v>33</v>
       </c>
       <c r="B12" t="n">
-        <v>594.598717895733</v>
+        <v>1566.24049937404</v>
       </c>
       <c r="C12" t="n">
         <v>25215.5</v>
       </c>
       <c r="D12" t="n">
-        <v>24620.9012821043</v>
+        <v>23649.259500626</v>
       </c>
       <c r="E12" t="n">
-        <v>2.41501605113017</v>
+        <v>6.6227887572234</v>
       </c>
       <c r="F12" t="n">
-        <v>156.33169683825</v>
+        <v>953.764631513926</v>
       </c>
       <c r="G12" t="n">
-        <v>-342.236420578448</v>
+        <v>-12.3389616854984</v>
       </c>
       <c r="H12" t="n">
-        <v>-107.897980003754</v>
+        <v>-1543.72523693768</v>
       </c>
       <c r="I12" t="n">
-        <v>888.401421639685</v>
+        <v>2168.54006648329</v>
       </c>
       <c r="J12" t="n">
-        <v>138.69137577829</v>
+        <v>757.60184201072</v>
       </c>
       <c r="K12" t="n">
-        <v>5.43515224630829</v>
+        <v>66.3824785016765</v>
       </c>
       <c r="L12" t="n">
         <v>112.7448</v>
@@ -1240,10 +1240,10 @@
         <v>218.928</v>
       </c>
       <c r="O12" t="n">
-        <v>10.7102265108572</v>
+        <v>21.7336181694861</v>
       </c>
       <c r="P12" t="n">
-        <v>169.642923088934</v>
+        <v>183.110868147823</v>
       </c>
       <c r="Q12" t="n">
         <v>14.371564</v>
@@ -1258,13 +1258,13 @@
         <v>40.95</v>
       </c>
       <c r="U12" t="n">
-        <v>0.353016187681024</v>
+        <v>0.473107422333498</v>
       </c>
       <c r="V12" t="n">
-        <v>70.9862619568728</v>
+        <v>564.511539920515</v>
       </c>
       <c r="W12" t="n">
-        <v>-23.363809729259</v>
+        <v>58.7803367107372</v>
       </c>
     </row>
     <row r="13">
@@ -1272,34 +1272,34 @@
         <v>34</v>
       </c>
       <c r="B13" t="n">
-        <v>319.226980099585</v>
+        <v>439.960469785474</v>
       </c>
       <c r="C13" t="n">
         <v>25805.8</v>
       </c>
       <c r="D13" t="n">
-        <v>25486.5730199004</v>
+        <v>25365.8395302145</v>
       </c>
       <c r="E13" t="n">
-        <v>1.25253002767507</v>
+        <v>1.73446051040973</v>
       </c>
       <c r="F13" t="n">
-        <v>190.402666050689</v>
+        <v>719.155604517671</v>
       </c>
       <c r="G13" t="n">
-        <v>-423.341655978137</v>
+        <v>-722.890623068223</v>
       </c>
       <c r="H13" t="n">
-        <v>-182.806061757228</v>
+        <v>-1183.16743754208</v>
       </c>
       <c r="I13" t="n">
-        <v>734.972031784261</v>
+        <v>1626.8629258781</v>
       </c>
       <c r="J13" t="n">
-        <v>144.131812279155</v>
+        <v>575.335581742357</v>
       </c>
       <c r="K13" t="n">
-        <v>7.02625663423476</v>
+        <v>49.4891301092952</v>
       </c>
       <c r="L13" t="n">
         <v>52.3712</v>
@@ -1311,10 +1311,10 @@
         <v>134.724</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.439053314204816</v>
+        <v>7.24110123933755</v>
       </c>
       <c r="P13" t="n">
-        <v>159.550793330925</v>
+        <v>168.934103184559</v>
       </c>
       <c r="Q13" t="n">
         <v>16.24578</v>
@@ -1329,13 +1329,13 @@
         <v>40.95</v>
       </c>
       <c r="U13" t="n">
-        <v>0.313735108902695</v>
+        <v>0.397404388850191</v>
       </c>
       <c r="V13" t="n">
-        <v>68.8633188334068</v>
+        <v>412.709435184874</v>
       </c>
       <c r="W13" t="n">
-        <v>-26.2795706881577</v>
+        <v>30.95143042883</v>
       </c>
     </row>
     <row r="14">
@@ -1343,34 +1343,34 @@
         <v>35</v>
       </c>
       <c r="B14" t="n">
-        <v>179.762134886624</v>
+        <v>42.8090494741384</v>
       </c>
       <c r="C14" t="n">
         <v>26272</v>
       </c>
       <c r="D14" t="n">
-        <v>26092.2378651134</v>
+        <v>26229.1909505259</v>
       </c>
       <c r="E14" t="n">
-        <v>0.688948705036041</v>
+        <v>0.16321147516476</v>
       </c>
       <c r="F14" t="n">
-        <v>159.030597474995</v>
+        <v>506.301636385091</v>
       </c>
       <c r="G14" t="n">
-        <v>-399.765233904761</v>
+        <v>-812.458534751611</v>
       </c>
       <c r="H14" t="n">
-        <v>-226.629479987968</v>
+        <v>-886.317460235405</v>
       </c>
       <c r="I14" t="n">
-        <v>647.126251304359</v>
+        <v>1235.28340807606</v>
       </c>
       <c r="J14" t="n">
-        <v>119.700071947492</v>
+        <v>404.057255899226</v>
       </c>
       <c r="K14" t="n">
-        <v>13.1738965603828</v>
+        <v>41.1760245076835</v>
       </c>
       <c r="L14" t="n">
         <v>51.4976</v>
@@ -1382,10 +1382,10 @@
         <v>76.057</v>
       </c>
       <c r="O14" t="n">
-        <v>-4.4682574109516</v>
+        <v>0.596417983417282</v>
       </c>
       <c r="P14" t="n">
-        <v>149.839707712184</v>
+        <v>156.027528309039</v>
       </c>
       <c r="Q14" t="n">
         <v>18.119996</v>
@@ -1400,13 +1400,13 @@
         <v>40.95</v>
       </c>
       <c r="U14" t="n">
-        <v>0.311933131756504</v>
+        <v>0.367108810899471</v>
       </c>
       <c r="V14" t="n">
-        <v>75.2322601123194</v>
+        <v>301.981468451017</v>
       </c>
       <c r="W14" t="n">
-        <v>-30.4423731488243</v>
+        <v>7.29859171478165</v>
       </c>
     </row>
     <row r="15">
@@ -1414,34 +1414,34 @@
         <v>36</v>
       </c>
       <c r="B15" t="n">
-        <v>171.674844261704</v>
+        <v>-241.881968859785</v>
       </c>
       <c r="C15" t="n">
         <v>26734.3</v>
       </c>
       <c r="D15" t="n">
-        <v>26562.6251557383</v>
+        <v>26976.1819688598</v>
       </c>
       <c r="E15" t="n">
-        <v>0.646302250832376</v>
+        <v>-0.896650123204989</v>
       </c>
       <c r="F15" t="n">
-        <v>150.463039238742</v>
+        <v>329.532961336724</v>
       </c>
       <c r="G15" t="n">
-        <v>-356.580211254019</v>
+        <v>-913.198856152942</v>
       </c>
       <c r="H15" t="n">
-        <v>-257.909071124536</v>
+        <v>-589.991147380623</v>
       </c>
       <c r="I15" t="n">
-        <v>635.701087401517</v>
+        <v>931.775073337056</v>
       </c>
       <c r="J15" t="n">
-        <v>118.871721961791</v>
+        <v>262.015036486949</v>
       </c>
       <c r="K15" t="n">
-        <v>31.4619600657064</v>
+        <v>45.5580252764751</v>
       </c>
       <c r="L15" t="n">
         <v>51.2176</v>
@@ -1453,10 +1453,10 @@
         <v>52.018</v>
       </c>
       <c r="O15" t="n">
-        <v>-6.00242886034181</v>
+        <v>-3.45290852514594</v>
       </c>
       <c r="P15" t="n">
-        <v>145.841972684358</v>
+        <v>148.956876052058</v>
       </c>
       <c r="Q15" t="n">
         <v>16.093332</v>
@@ -1471,13 +1471,13 @@
         <v>40.95</v>
       </c>
       <c r="U15" t="n">
-        <v>0.310599961662757</v>
+        <v>0.338374992642954</v>
       </c>
       <c r="V15" t="n">
-        <v>78.4218793738578</v>
+        <v>192.565762768997</v>
       </c>
       <c r="W15" t="n">
-        <v>-25.3085797855169</v>
+        <v>-6.31005571492025</v>
       </c>
     </row>
     <row r="16">
@@ -1485,34 +1485,34 @@
         <v>37</v>
       </c>
       <c r="B16" t="n">
-        <v>179.334934991508</v>
+        <v>-351.208910909779</v>
       </c>
       <c r="C16" t="n">
         <v>27164.4</v>
       </c>
       <c r="D16" t="n">
-        <v>26985.0650650085</v>
+        <v>27515.6089109098</v>
       </c>
       <c r="E16" t="n">
-        <v>0.66457106758675</v>
+        <v>-1.27639883255691</v>
       </c>
       <c r="F16" t="n">
-        <v>151.28585061559</v>
+        <v>165.658373117505</v>
       </c>
       <c r="G16" t="n">
-        <v>-323.851732381854</v>
+        <v>-870.191162116704</v>
       </c>
       <c r="H16" t="n">
-        <v>-220.686100619346</v>
+        <v>-207.562017741123</v>
       </c>
       <c r="I16" t="n">
-        <v>572.586917377118</v>
+        <v>560.885895830543</v>
       </c>
       <c r="J16" t="n">
-        <v>113.579483778479</v>
+        <v>107.922374113087</v>
       </c>
       <c r="K16" t="n">
-        <v>34.4491483040743</v>
+        <v>33.8920633503525</v>
       </c>
       <c r="L16" t="n">
         <v>18.424</v>
@@ -1524,10 +1524,10 @@
         <v>27.457</v>
       </c>
       <c r="O16" t="n">
-        <v>-7.58075861709429</v>
+        <v>-7.68151719026408</v>
       </c>
       <c r="P16" t="n">
-        <v>142.914369242842</v>
+        <v>142.79126639304</v>
       </c>
       <c r="Q16" t="n">
         <v>14.066668</v>
@@ -1542,13 +1542,13 @@
         <v>40.95</v>
       </c>
       <c r="U16" t="n">
-        <v>0.296440066934054</v>
+        <v>0.295342381046761</v>
       </c>
       <c r="V16" t="n">
-        <v>82.9685860994186</v>
+        <v>78.45755134979</v>
       </c>
       <c r="W16" t="n">
-        <v>-18.8626410975357</v>
+        <v>-19.6134741665091</v>
       </c>
     </row>
     <row r="17">
@@ -1556,34 +1556,34 @@
         <v>38</v>
       </c>
       <c r="B17" t="n">
-        <v>147.120625920395</v>
+        <v>-406.751221837606</v>
       </c>
       <c r="C17" t="n">
         <v>27453.8</v>
       </c>
       <c r="D17" t="n">
-        <v>27306.6793740796</v>
+        <v>27860.5512218376</v>
       </c>
       <c r="E17" t="n">
-        <v>0.538771572716557</v>
+        <v>-1.45995396357695</v>
       </c>
       <c r="F17" t="n">
-        <v>131.553802420048</v>
+        <v>4.55700912017771</v>
       </c>
       <c r="G17" t="n">
-        <v>-293.437465750915</v>
+        <v>-754.698182654056</v>
       </c>
       <c r="H17" t="n">
-        <v>-186.441232310292</v>
+        <v>130.678117161671</v>
       </c>
       <c r="I17" t="n">
-        <v>495.445521561555</v>
+        <v>212.711834534601</v>
       </c>
       <c r="J17" t="n">
-        <v>108.36900604327</v>
+        <v>-28.3246550397016</v>
       </c>
       <c r="K17" t="n">
-        <v>34.2854535545002</v>
+        <v>20.8245191970969</v>
       </c>
       <c r="L17" t="n">
         <v>2.1784</v>
@@ -1595,10 +1595,10 @@
         <v>9.157</v>
       </c>
       <c r="O17" t="n">
-        <v>-6.5390662518609</v>
+        <v>-8.97371204568982</v>
       </c>
       <c r="P17" t="n">
-        <v>121.065794307066</v>
+        <v>118.091240122241</v>
       </c>
       <c r="Q17" t="n">
         <v>14.28301</v>
@@ -1613,13 +1613,13 @@
         <v>40.95</v>
       </c>
       <c r="U17" t="n">
-        <v>0.241857114266769</v>
+        <v>0.215333551612303</v>
       </c>
       <c r="V17" t="n">
-        <v>93.329763526848</v>
+        <v>-15.6711029353232</v>
       </c>
       <c r="W17" t="n">
-        <v>-10.4866631325346</v>
+        <v>-28.6291647156343</v>
       </c>
     </row>
     <row r="18">
@@ -1627,34 +1627,34 @@
         <v>39</v>
       </c>
       <c r="B18" t="n">
-        <v>157.979372686385</v>
+        <v>-852.318727125626</v>
       </c>
       <c r="C18" t="n">
         <v>27967.7</v>
       </c>
       <c r="D18" t="n">
-        <v>27809.7206273136</v>
+        <v>28820.0187271256</v>
       </c>
       <c r="E18" t="n">
-        <v>0.568072490923277</v>
+        <v>-2.95738436256954</v>
       </c>
       <c r="F18" t="n">
-        <v>124.063139403081</v>
+        <v>-204.468497035575</v>
       </c>
       <c r="G18" t="n">
-        <v>-246.573249825288</v>
+        <v>-995.834595407553</v>
       </c>
       <c r="H18" t="n">
-        <v>-173.60961343917</v>
+        <v>448.857182802033</v>
       </c>
       <c r="I18" t="n">
-        <v>454.099096547763</v>
+        <v>-100.872817484531</v>
       </c>
       <c r="J18" t="n">
-        <v>107.69757547566</v>
+        <v>-160.615491584036</v>
       </c>
       <c r="K18" t="n">
-        <v>29.7842904277946</v>
+        <v>3.36210995278469</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -1666,10 +1666,10 @@
         <v>0.67</v>
       </c>
       <c r="O18" t="n">
-        <v>-4.08725527198697</v>
+        <v>-8.86616948769235</v>
       </c>
       <c r="P18" t="n">
-        <v>97.8728971771319</v>
+        <v>92.0342083151718</v>
       </c>
       <c r="Q18" t="n">
         <v>14.499352</v>
@@ -1684,13 +1684,13 @@
         <v>32.3663016</v>
       </c>
       <c r="U18" t="n">
-        <v>0.240742078650597</v>
+        <v>0.188679544157135</v>
       </c>
       <c r="V18" t="n">
-        <v>89.0354208920562</v>
+        <v>-124.920051226562</v>
       </c>
       <c r="W18" t="n">
-        <v>4.92742216845662</v>
+        <v>-30.6841065983537</v>
       </c>
     </row>
     <row r="19">
@@ -1698,34 +1698,34 @@
         <v>40</v>
       </c>
       <c r="B19" t="n">
-        <v>131.63166888008</v>
+        <v>-1138.58825742174</v>
       </c>
       <c r="C19" t="n">
         <v>28297</v>
       </c>
       <c r="D19" t="n">
-        <v>28165.3683311199</v>
+        <v>29435.5882574217</v>
       </c>
       <c r="E19" t="n">
-        <v>0.467352911322094</v>
+        <v>-3.86806693810396</v>
       </c>
       <c r="F19" t="n">
-        <v>127.734894894319</v>
+        <v>-393.816216517216</v>
       </c>
       <c r="G19" t="n">
-        <v>-232.316595300956</v>
+        <v>-1075.77738335599</v>
       </c>
       <c r="H19" t="n">
-        <v>-174.664409553126</v>
+        <v>699.547884982127</v>
       </c>
       <c r="I19" t="n">
-        <v>410.877778839843</v>
+        <v>-368.54254253067</v>
       </c>
       <c r="J19" t="n">
-        <v>95.5698842203951</v>
+        <v>-281.257576175028</v>
       </c>
       <c r="K19" t="n">
-        <v>13.7765334438653</v>
+        <v>-23.3316226203054</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -1737,10 +1737,10 @@
         <v>0.174</v>
       </c>
       <c r="O19" t="n">
-        <v>-2.47383773051272</v>
+        <v>-9.18549783371293</v>
       </c>
       <c r="P19" t="n">
-        <v>87.9403361193028</v>
+        <v>79.7402945782699</v>
       </c>
       <c r="Q19" t="n">
         <v>14.261254</v>
@@ -1755,13 +1755,13 @@
         <v>25.07397996</v>
       </c>
       <c r="U19" t="n">
-        <v>0.240407140545074</v>
+        <v>0.167288850519506</v>
       </c>
       <c r="V19" t="n">
-        <v>93.9227312041082</v>
+        <v>-206.563182805532</v>
       </c>
       <c r="W19" t="n">
-        <v>9.22933048213906</v>
+        <v>-40.7846404848808</v>
       </c>
     </row>
     <row r="20">
@@ -1769,34 +1769,34 @@
         <v>41</v>
       </c>
       <c r="B20" t="n">
-        <v>135.478203984032</v>
+        <v>-1618.67038541194</v>
       </c>
       <c r="C20" t="n">
         <v>28624.1</v>
       </c>
       <c r="D20" t="n">
-        <v>28488.621796016</v>
+        <v>30242.7703854119</v>
       </c>
       <c r="E20" t="n">
-        <v>0.47555197634368</v>
+        <v>-5.35225564584099</v>
       </c>
       <c r="F20" t="n">
-        <v>113.798803098809</v>
+        <v>-629.240786147581</v>
       </c>
       <c r="G20" t="n">
-        <v>-223.345888356218</v>
+        <v>-1371.57154860317</v>
       </c>
       <c r="H20" t="n">
-        <v>-134.508586406658</v>
+        <v>1130.04015164327</v>
       </c>
       <c r="I20" t="n">
-        <v>379.533875648099</v>
+        <v>-747.898202304453</v>
       </c>
       <c r="J20" t="n">
-        <v>94.183606972711</v>
+        <v>-450.897596396678</v>
       </c>
       <c r="K20" t="n">
-        <v>12.176887675265</v>
+        <v>-41.5000878324438</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -1808,10 +1808,10 @@
         <v>0.08</v>
       </c>
       <c r="O20" t="n">
-        <v>-1.58731678529755</v>
+        <v>-11.2957381456192</v>
       </c>
       <c r="P20" t="n">
-        <v>79.5282452006957</v>
+        <v>67.6668789770798</v>
       </c>
       <c r="Q20" t="n">
         <v>14.023156</v>
@@ -1826,13 +1826,13 @@
         <v>18.30645234</v>
       </c>
       <c r="U20" t="n">
-        <v>0.204380821041376</v>
+        <v>0.0986151598190583</v>
       </c>
       <c r="V20" t="n">
-        <v>87.5090061368787</v>
+        <v>-347.1440932738</v>
       </c>
       <c r="W20" t="n">
-        <v>15.3881872868046</v>
+        <v>-56.9570591328111</v>
       </c>
     </row>
     <row r="21">
@@ -1840,34 +1840,34 @@
         <v>42</v>
       </c>
       <c r="B21" t="n">
-        <v>148.653550797441</v>
+        <v>-1964.87422353507</v>
       </c>
       <c r="C21" t="n">
         <v>29016.7</v>
       </c>
       <c r="D21" t="n">
-        <v>28868.0464492026</v>
+        <v>30981.5742235351</v>
       </c>
       <c r="E21" t="n">
-        <v>0.514941497891153</v>
+        <v>-6.34207354783947</v>
       </c>
       <c r="F21" t="n">
-        <v>125.921166453252</v>
+        <v>-811.524741842551</v>
       </c>
       <c r="G21" t="n">
-        <v>-224.774256360233</v>
+        <v>-1575.64927860622</v>
       </c>
       <c r="H21" t="n">
-        <v>-100.463923798247</v>
+        <v>1511.55364538144</v>
       </c>
       <c r="I21" t="n">
-        <v>347.970564502669</v>
+        <v>-1089.25384846774</v>
       </c>
       <c r="J21" t="n">
-        <v>104.086404126137</v>
+        <v>-590.770543670183</v>
       </c>
       <c r="K21" t="n">
-        <v>13.0743298114645</v>
+        <v>-55.3518407071116</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -1879,10 +1879,10 @@
         <v>0.035</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.928827587227062</v>
+        <v>-13.3048992489426</v>
       </c>
       <c r="P21" t="n">
-        <v>57.2149928882472</v>
+        <v>42.0943967644239</v>
       </c>
       <c r="Q21" t="n">
         <v>13.04705068</v>
@@ -1897,13 +1897,13 @@
         <v>11.95799418</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0592187029909824</v>
+        <v>-0.0756089228458891</v>
       </c>
       <c r="V21" t="n">
-        <v>86.1655491812051</v>
+        <v>-467.920198299693</v>
       </c>
       <c r="W21" t="n">
-        <v>15.8581925198514</v>
+        <v>-76.3658592433871</v>
       </c>
     </row>
     <row r="22">
@@ -1911,34 +1911,34 @@
         <v>43</v>
       </c>
       <c r="B22" t="n">
-        <v>186.39827160409</v>
+        <v>-2349.54351262829</v>
       </c>
       <c r="C22" t="n">
         <v>29374.9</v>
       </c>
       <c r="D22" t="n">
-        <v>29188.5017283959</v>
+        <v>31724.4435126283</v>
       </c>
       <c r="E22" t="n">
-        <v>0.638601711518305</v>
+        <v>-7.40609842909623</v>
       </c>
       <c r="F22" t="n">
-        <v>173.201300645855</v>
+        <v>-964.226490928715</v>
       </c>
       <c r="G22" t="n">
-        <v>-236.634103769505</v>
+        <v>-1841.11869153314</v>
       </c>
       <c r="H22" t="n">
-        <v>-91.3932639132929</v>
+        <v>1808.15603907804</v>
       </c>
       <c r="I22" t="n">
-        <v>341.224338641033</v>
+        <v>-1352.35436924448</v>
       </c>
       <c r="J22" t="n">
-        <v>119.331776450609</v>
+        <v>-699.465149898561</v>
       </c>
       <c r="K22" t="n">
-        <v>15.8724415494483</v>
+        <v>-64.7587420058715</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -1950,10 +1950,10 @@
         <v>0.012</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.371226778934691</v>
+        <v>-14.9547888617883</v>
       </c>
       <c r="P22" t="n">
-        <v>36.4983719358353</v>
+        <v>18.6807511003266</v>
       </c>
       <c r="Q22" t="n">
         <v>8.517842</v>
@@ -1968,13 +1968,13 @@
         <v>8.18345387</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0570312903428941</v>
+        <v>-0.101845217940285</v>
       </c>
       <c r="V22" t="n">
-        <v>101.726985838462</v>
+        <v>-551.189716527487</v>
       </c>
       <c r="W22" t="n">
-        <v>15.9844324852698</v>
+        <v>-92.6894037031556</v>
       </c>
     </row>
     <row r="23">
@@ -1982,34 +1982,34 @@
         <v>44</v>
       </c>
       <c r="B23" t="n">
-        <v>173.289336441366</v>
+        <v>-2804.71613772844</v>
       </c>
       <c r="C23" t="n">
         <v>29666.5307226025</v>
       </c>
       <c r="D23" t="n">
-        <v>29493.2413861611</v>
+        <v>32471.246860331</v>
       </c>
       <c r="E23" t="n">
-        <v>0.587556091826102</v>
+        <v>-8.63753754142058</v>
       </c>
       <c r="F23" t="n">
-        <v>145.649351581627</v>
+        <v>-1205.35021413518</v>
       </c>
       <c r="G23" t="n">
-        <v>-246.221519331698</v>
+        <v>-2116.86986091444</v>
       </c>
       <c r="H23" t="n">
-        <v>-84.3691353918696</v>
+        <v>2162.60603984093</v>
       </c>
       <c r="I23" t="n">
-        <v>358.230639583307</v>
+        <v>-1645.10210251975</v>
       </c>
       <c r="J23" t="n">
-        <v>132.480991083331</v>
+        <v>-836.073162349925</v>
       </c>
       <c r="K23" t="n">
-        <v>18.5276746001496</v>
+        <v>-76.8508804671673</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -2021,10 +2021,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.16259236788385</v>
+        <v>-17.4134749404157</v>
       </c>
       <c r="P23" t="n">
-        <v>26.6058305315342</v>
+        <v>5.5293827467613</v>
       </c>
       <c r="Q23" t="n">
         <v>6.576191</v>
@@ -2039,13 +2039,13 @@
         <v>6.12347377</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0196713212942938</v>
+        <v>-0.168263558562625</v>
       </c>
       <c r="V23" t="n">
-        <v>116.440688212685</v>
+        <v>-655.893896312621</v>
       </c>
       <c r="W23" t="n">
-        <v>26.2769064321971</v>
+        <v>-102.273277407817</v>
       </c>
     </row>
     <row r="24">
@@ -2053,34 +2053,34 @@
         <v>45</v>
       </c>
       <c r="B24" t="n">
-        <v>158.456214656014</v>
+        <v>-3275.94443346766</v>
       </c>
       <c r="C24" t="n">
         <v>29970.8366330789</v>
       </c>
       <c r="D24" t="n">
-        <v>29812.3804184229</v>
+        <v>33246.7810665466</v>
       </c>
       <c r="E24" t="n">
-        <v>0.531511447365318</v>
+        <v>-9.85341837127193</v>
       </c>
       <c r="F24" t="n">
-        <v>126.458795478251</v>
+        <v>-1437.97230159368</v>
       </c>
       <c r="G24" t="n">
-        <v>-234.370548739591</v>
+        <v>-2387.53769968664</v>
       </c>
       <c r="H24" t="n">
-        <v>-91.4107694578662</v>
+        <v>2520.35914465803</v>
       </c>
       <c r="I24" t="n">
-        <v>357.778737375219</v>
+        <v>-1970.79357684538</v>
       </c>
       <c r="J24" t="n">
-        <v>134.027201173751</v>
+        <v>-991.770994557044</v>
       </c>
       <c r="K24" t="n">
-        <v>21.0194903388027</v>
+        <v>-89.8437017972012</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -2092,10 +2092,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>-0.17250312765352</v>
+        <v>-20.224053581573</v>
       </c>
       <c r="P24" t="n">
-        <v>21.4493815168303</v>
+        <v>-3.04881179988113</v>
       </c>
       <c r="Q24" t="n">
         <v>4.63454</v>
@@ -2110,13 +2110,13 @@
         <v>4.0318455</v>
       </c>
       <c r="U24" t="n">
-        <v>-0.0301131638372368</v>
+        <v>-0.24855913085707</v>
       </c>
       <c r="V24" t="n">
-        <v>129.066996790651</v>
+        <v>-768.655529799084</v>
       </c>
       <c r="W24" t="n">
-        <v>26.9099733466751</v>
+        <v>-122.510236679736</v>
       </c>
     </row>
     <row r="25">
@@ -2124,34 +2124,34 @@
         <v>46</v>
       </c>
       <c r="B25" t="n">
-        <v>146.577255612518</v>
+        <v>-3762.23146730755</v>
       </c>
       <c r="C25" t="n">
         <v>30282.5448532737</v>
       </c>
       <c r="D25" t="n">
-        <v>30135.9675976612</v>
+        <v>34044.7763205812</v>
       </c>
       <c r="E25" t="n">
-        <v>0.486386425581031</v>
+        <v>-11.0508332669913</v>
       </c>
       <c r="F25" t="n">
-        <v>116.281401340597</v>
+        <v>-1669.10980374024</v>
       </c>
       <c r="G25" t="n">
-        <v>-230.649053540686</v>
+        <v>-2678.60629480519</v>
       </c>
       <c r="H25" t="n">
-        <v>-85.8398925620384</v>
+        <v>2907.20484330784</v>
       </c>
       <c r="I25" t="n">
-        <v>346.784800374646</v>
+        <v>-2321.72021206996</v>
       </c>
       <c r="J25" t="n">
-        <v>131.485516111743</v>
+        <v>-1158.66042866398</v>
       </c>
       <c r="K25" t="n">
-        <v>23.4567988090075</v>
+        <v>-103.590569273077</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2163,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.301493316654216</v>
+        <v>-23.2802355128053</v>
       </c>
       <c r="P25" t="n">
-        <v>13.5589796769745</v>
+        <v>-14.5155410335248</v>
       </c>
       <c r="Q25" t="n">
         <v>2.745007</v>
@@ -2181,13 +2181,13 @@
         <v>2.35332026</v>
       </c>
       <c r="U25" t="n">
-        <v>-0.133256196942915</v>
+        <v>-0.383591629680311</v>
       </c>
       <c r="V25" t="n">
-        <v>139.587694665879</v>
+        <v>-889.187339443798</v>
       </c>
       <c r="W25" t="n">
-        <v>25.5997833646396</v>
+        <v>-145.633283773095</v>
       </c>
     </row>
     <row r="26">
@@ -2195,34 +2195,34 @@
         <v>47</v>
       </c>
       <c r="B26" t="n">
-        <v>141.764102555948</v>
+        <v>-4261.53885141455</v>
       </c>
       <c r="C26" t="n">
         <v>30588.168983289</v>
       </c>
       <c r="D26" t="n">
-        <v>30446.404880733</v>
+        <v>34849.7078347035</v>
       </c>
       <c r="E26" t="n">
-        <v>0.465618529055489</v>
+        <v>-12.2283345146753</v>
       </c>
       <c r="F26" t="n">
-        <v>117.791396187898</v>
+        <v>-1898.18867230404</v>
       </c>
       <c r="G26" t="n">
-        <v>-239.356407054816</v>
+        <v>-2994.5085698211</v>
       </c>
       <c r="H26" t="n">
-        <v>-76.5975613113217</v>
+        <v>3315.68203535976</v>
       </c>
       <c r="I26" t="n">
-        <v>339.926674734187</v>
+        <v>-2684.52364464918</v>
       </c>
       <c r="J26" t="n">
-        <v>126.458737196078</v>
+        <v>-1335.77659552061</v>
       </c>
       <c r="K26" t="n">
-        <v>24.5191547333309</v>
+        <v>-119.474748662289</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -2234,10 +2234,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>-0.568270007000294</v>
+        <v>-26.6120899923749</v>
       </c>
       <c r="P26" t="n">
-        <v>7.23114863915134</v>
+        <v>-24.5881631977857</v>
       </c>
       <c r="Q26" t="n">
         <v>0.855474</v>
@@ -2252,13 +2252,13 @@
         <v>2.39286449</v>
       </c>
       <c r="U26" t="n">
-        <v>-0.163765481020676</v>
+        <v>-0.447492540166047</v>
       </c>
       <c r="V26" t="n">
-        <v>146.332384997734</v>
+        <v>-1019.66841544155</v>
       </c>
       <c r="W26" t="n">
-        <v>26.0488361659137</v>
+        <v>-168.024587784406</v>
       </c>
     </row>
     <row r="27">
@@ -2266,34 +2266,34 @@
         <v>48</v>
       </c>
       <c r="B27" t="n">
-        <v>113.868718952199</v>
+        <v>-4807.64155566588</v>
       </c>
       <c r="C27" t="n">
         <v>30878.1772818436</v>
       </c>
       <c r="D27" t="n">
-        <v>30764.3085628914</v>
+        <v>35685.8188375095</v>
       </c>
       <c r="E27" t="n">
-        <v>0.370132547329693</v>
+        <v>-13.47213462456</v>
       </c>
       <c r="F27" t="n">
-        <v>105.381227554369</v>
+        <v>-2152.50384917249</v>
       </c>
       <c r="G27" t="n">
-        <v>-244.475209556225</v>
+        <v>-3320.63882290608</v>
       </c>
       <c r="H27" t="n">
-        <v>-74.7350509611935</v>
+        <v>3729.87142278798</v>
       </c>
       <c r="I27" t="n">
-        <v>327.697751915248</v>
+        <v>-3064.37030637529</v>
       </c>
       <c r="J27" t="n">
-        <v>117.479029704434</v>
+        <v>-1522.48897837426</v>
       </c>
       <c r="K27" t="n">
-        <v>25.6506910891258</v>
+        <v>-135.845471425602</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -2305,10 +2305,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>-0.886251501522459</v>
+        <v>-30.0956616618023</v>
       </c>
       <c r="P27" t="n">
-        <v>3.62254114021558</v>
+        <v>-32.0643638908004</v>
       </c>
       <c r="Q27" t="n">
         <v>0.573855</v>
@@ -2323,13 +2323,13 @@
         <v>2.42854317</v>
       </c>
       <c r="U27" t="n">
-        <v>-0.191116102061576</v>
+        <v>-0.509329791481988</v>
       </c>
       <c r="V27" t="n">
-        <v>148.529682525638</v>
+        <v>-1159.19689699962</v>
       </c>
       <c r="W27" t="n">
-        <v>25.1966268894185</v>
+        <v>-192.466152401721</v>
       </c>
     </row>
     <row r="28">
@@ -2337,34 +2337,34 @@
         <v>49</v>
       </c>
       <c r="B28" t="n">
-        <v>111.719970474134</v>
+        <v>-5325.27319597743</v>
       </c>
       <c r="C28" t="n">
         <v>31148.1080828061</v>
       </c>
       <c r="D28" t="n">
-        <v>31036.3881123319</v>
+        <v>36473.3812787835</v>
       </c>
       <c r="E28" t="n">
-        <v>0.359964471605978</v>
+        <v>-14.6004373854835</v>
       </c>
       <c r="F28" t="n">
-        <v>98.1991209312138</v>
+        <v>-2385.22169127252</v>
       </c>
       <c r="G28" t="n">
-        <v>-252.845245415102</v>
+        <v>-3665.194013179</v>
       </c>
       <c r="H28" t="n">
-        <v>-55.1277221090837</v>
+        <v>4175.90543131535</v>
       </c>
       <c r="I28" t="n">
-        <v>321.493817067106</v>
+        <v>-3450.76292284126</v>
       </c>
       <c r="J28" t="n">
-        <v>109.004209339996</v>
+        <v>-1714.77416579869</v>
       </c>
       <c r="K28" t="n">
-        <v>26.8272560962887</v>
+        <v>-152.769667387179</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -2376,10 +2376,10 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>-1.1880797639057</v>
+        <v>-33.6713296434474</v>
       </c>
       <c r="P28" t="n">
-        <v>2.40475710426217</v>
+        <v>-37.2819961437145</v>
       </c>
       <c r="Q28" t="n">
         <v>0.378236</v>
@@ -2394,13 +2394,13 @@
         <v>2.44287734</v>
       </c>
       <c r="U28" t="n">
-        <v>-0.21846505375811</v>
+        <v>-0.572344667615918</v>
       </c>
       <c r="V28" t="n">
-        <v>153.172502595523</v>
+        <v>-1301.1262670045</v>
       </c>
       <c r="W28" t="n">
-        <v>25.0047734086998</v>
+        <v>-217.054015536112</v>
       </c>
     </row>
     <row r="29">
@@ -2408,34 +2408,34 @@
         <v>50</v>
       </c>
       <c r="B29" t="n">
-        <v>108.281409042746</v>
+        <v>-5872.22356101721</v>
       </c>
       <c r="C29" t="n">
         <v>31421.8921408821</v>
       </c>
       <c r="D29" t="n">
-        <v>31313.6107318394</v>
+        <v>37294.1157018993</v>
       </c>
       <c r="E29" t="n">
-        <v>0.345796624892714</v>
+        <v>-15.7457106851796</v>
       </c>
       <c r="F29" t="n">
-        <v>90.0031004433397</v>
+        <v>-2632.35039465926</v>
       </c>
       <c r="G29" t="n">
-        <v>-259.198145460597</v>
+        <v>-4024.01835252669</v>
       </c>
       <c r="H29" t="n">
-        <v>-39.4689488172067</v>
+        <v>4633.24773887395</v>
       </c>
       <c r="I29" t="n">
-        <v>316.945402877211</v>
+        <v>-3849.1025527052</v>
       </c>
       <c r="J29" t="n">
-        <v>100.33645140383</v>
+        <v>-1913.82872743988</v>
       </c>
       <c r="K29" t="n">
-        <v>28.0457790816801</v>
+        <v>-170.299521223984</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -2447,10 +2447,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>-1.4984269945124</v>
+        <v>-37.372649265668</v>
       </c>
       <c r="P29" t="n">
-        <v>1.47288776340651</v>
+        <v>-42.3568217797602</v>
       </c>
       <c r="Q29" t="n">
         <v>0.211344</v>
@@ -2465,13 +2465,13 @@
         <v>2.45433355</v>
       </c>
       <c r="U29" t="n">
-        <v>-0.245819659207739</v>
+        <v>-0.636641266400473</v>
       </c>
       <c r="V29" t="n">
-        <v>158.869116097009</v>
+        <v>-1447.24595868058</v>
       </c>
       <c r="W29" t="n">
-        <v>24.8385126350053</v>
+        <v>-242.489135598922</v>
       </c>
     </row>
     <row r="30">
@@ -2479,34 +2479,34 @@
         <v>51</v>
       </c>
       <c r="B30" t="n">
-        <v>95.9269937569424</v>
+        <v>-6461.1201877023</v>
       </c>
       <c r="C30" t="n">
         <v>31706.9317657902</v>
       </c>
       <c r="D30" t="n">
-        <v>31611.0047720333</v>
+        <v>38168.0519534925</v>
       </c>
       <c r="E30" t="n">
-        <v>0.303460755039997</v>
+        <v>-16.9280847646485</v>
       </c>
       <c r="F30" t="n">
-        <v>83.6637571091378</v>
+        <v>-2893.19918605785</v>
       </c>
       <c r="G30" t="n">
-        <v>-269.64297540776</v>
+        <v>-4406.1051529026</v>
       </c>
       <c r="H30" t="n">
-        <v>-31.0708179911747</v>
+        <v>5099.16328721596</v>
       </c>
       <c r="I30" t="n">
-        <v>312.977030046739</v>
+        <v>-4260.97913595781</v>
       </c>
       <c r="J30" t="n">
-        <v>91.8558272158848</v>
+        <v>-2119.52131902629</v>
       </c>
       <c r="K30" t="n">
-        <v>29.3060557896192</v>
+        <v>-188.459730635249</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -2518,10 +2518,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>-1.84144865954343</v>
+        <v>-41.228206063019</v>
       </c>
       <c r="P30" t="n">
-        <v>0.604569175177438</v>
+        <v>-47.5166172241591</v>
       </c>
       <c r="Q30" t="n">
         <v>-0.00499800000000003</v>
@@ -2536,13 +2536,13 @@
         <v>1.91853524</v>
       </c>
       <c r="U30" t="n">
-        <v>-0.273181612093186</v>
+        <v>-0.702269543649919</v>
       </c>
       <c r="V30" t="n">
-        <v>165.331459763613</v>
+        <v>-1598.04237268302</v>
       </c>
       <c r="W30" t="n">
-        <v>24.557326134081</v>
+        <v>-268.945043022428</v>
       </c>
     </row>
   </sheetData>

--- a/fim_levels.xlsx
+++ b/fim_levels.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -41,46 +41,34 @@
     <t xml:space="preserve">transfers_levels</t>
   </si>
   <si>
-    <t xml:space="preserve">federal_social_benefits_contribution_levels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">state_social_benefits_contribution_levels</t>
+    <t xml:space="preserve">federal_health_outlays_contribution_levels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">state_health_outlays_contribution_levels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">federal_subsidies_contribution_levels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">state_subsidies_contribution_levels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">federal_ui_contribution_levels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">state_ui_contribution_levels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rebate_checks_arp_contribution_levels</t>
   </si>
   <si>
     <t xml:space="preserve">rebate_checks_contribution_levels</t>
   </si>
   <si>
-    <t xml:space="preserve">rebate_checks_arp_contribution_levels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">federal_ui_contribution_levels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">state_ui_contribution_levels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">federal_subsidies_contribution_levels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">federal_aid_to_small_businesses_arp_contribution_levels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">federal_other_direct_aid_arp_contribution_levels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">federal_other_vulnerable_arp_contribution_levels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">federal_student_loans_contribution_levels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">state_subsidies_contribution_levels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">federal_health_outlays_contribution_levels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">state_health_outlays_contribution_levels</t>
+    <t xml:space="preserve">state_purchases_contribution_levels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">federal_purchases_contribution_levels</t>
   </si>
   <si>
     <t xml:space="preserve">2019 Q3</t>
@@ -168,6 +156,9 @@
   </si>
   <si>
     <t xml:space="preserve">2026 Q3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026 Q4</t>
   </si>
 </sst>
 </file>
@@ -557,26 +548,14 @@
       <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B2"/>
       <c r="C2" t="n">
-        <v>21717.2</v>
+        <v>20843.3</v>
       </c>
       <c r="D2"/>
       <c r="E2"/>
@@ -594,18 +573,14 @@
       <c r="Q2"/>
       <c r="R2"/>
       <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B3"/>
       <c r="C3" t="n">
-        <v>21933.2</v>
+        <v>20985.4</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -623,1926 +598,1657 @@
       <c r="Q3"/>
       <c r="R3"/>
       <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B4" t="n">
-        <v>3385.73331721288</v>
+        <v>25.1681655323435</v>
       </c>
       <c r="C4" t="n">
-        <v>21727.7</v>
+        <v>20693.2</v>
       </c>
       <c r="D4" t="n">
-        <v>18341.9666827871</v>
+        <v>20668.0318344677</v>
       </c>
       <c r="E4" t="n">
-        <v>18.4589437750435</v>
+        <v>0.121773402198722</v>
       </c>
       <c r="F4" t="n">
-        <v>1680.48425561542</v>
+        <v>9.55548277065158</v>
       </c>
       <c r="G4" t="n">
-        <v>2036.60673290146</v>
+        <v>13.5543663285506</v>
       </c>
       <c r="H4" t="n">
-        <v>-3081.10733447446</v>
+        <v>-6.20187631012455</v>
       </c>
       <c r="I4" t="n">
-        <v>2749.74966317045</v>
+        <v>8.26019274326592</v>
       </c>
       <c r="J4" t="n">
-        <v>1330.27443708595</v>
+        <v>1.5988922110148</v>
       </c>
       <c r="K4" t="n">
-        <v>131.401113380362</v>
+        <v>-3.6410951971026</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.554342574645801</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.000574832790499524</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>27.6331451369524</v>
+        <v>4.02592705768084</v>
       </c>
       <c r="P4" t="n">
-        <v>29.3967103259492</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>15.2270199312866</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.257757018967357</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1058.51124961608</v>
-      </c>
-      <c r="W4" t="n">
-        <v>172.2752506062</v>
+        <v>7.88282916791559</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B5" t="n">
-        <v>4096.45950505276</v>
+        <v>789.467527641221</v>
       </c>
       <c r="C5" t="n">
-        <v>19935.4</v>
+        <v>19056.6</v>
       </c>
       <c r="D5" t="n">
-        <v>15838.9404949472</v>
+        <v>18267.1324723588</v>
       </c>
       <c r="E5" t="n">
-        <v>25.8632167117464</v>
+        <v>4.32179231653254</v>
       </c>
       <c r="F5" t="n">
-        <v>1860.05885844371</v>
+        <v>217.791182151758</v>
       </c>
       <c r="G5" t="n">
-        <v>1868.28004316498</v>
+        <v>-128.849905371007</v>
       </c>
       <c r="H5" t="n">
-        <v>-3054.56043400284</v>
+        <v>11.0272317306167</v>
       </c>
       <c r="I5" t="n">
-        <v>3422.68103744692</v>
+        <v>689.499019129853</v>
       </c>
       <c r="J5" t="n">
-        <v>1357.21301986191</v>
+        <v>26.3190342100697</v>
       </c>
       <c r="K5" t="n">
-        <v>132.856593427901</v>
+        <v>-14.7297135609605</v>
       </c>
       <c r="L5" t="n">
-        <v>264.1345</v>
+        <v>48.4508359838125</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>0.00122064466648086</v>
       </c>
       <c r="N5" t="n">
         <v>245.574</v>
       </c>
       <c r="O5" t="n">
-        <v>73.2312765147505</v>
+        <v>49.6955946699829</v>
       </c>
       <c r="P5" t="n">
-        <v>77.2058035858827</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>264.1345</v>
       </c>
       <c r="R5" t="n">
-        <v>22.526</v>
+        <v>-19.2427911405734</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>9</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.257623499491426</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1080.02866226364</v>
-      </c>
-      <c r="W5" t="n">
-        <v>160.653558293339</v>
+        <v>108.184067921325</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B6" t="n">
-        <v>4066.60498028224</v>
+        <v>934.867221515658</v>
       </c>
       <c r="C6" t="n">
-        <v>21684.6</v>
+        <v>20548.8</v>
       </c>
       <c r="D6" t="n">
-        <v>17617.9950197178</v>
+        <v>19613.9327784843</v>
       </c>
       <c r="E6" t="n">
-        <v>23.0821099434468</v>
+        <v>4.76634253861199</v>
       </c>
       <c r="F6" t="n">
-        <v>1712.64056483977</v>
+        <v>134.973322056293</v>
       </c>
       <c r="G6" t="n">
-        <v>1745.14646257818</v>
+        <v>-127.073748961921</v>
       </c>
       <c r="H6" t="n">
-        <v>-2900.05489628264</v>
+        <v>34.058257741512</v>
       </c>
       <c r="I6" t="n">
-        <v>3508.87284914694</v>
+        <v>892.909390679774</v>
       </c>
       <c r="J6" t="n">
-        <v>1348.34571272874</v>
+        <v>33.3953016763983</v>
       </c>
       <c r="K6" t="n">
-        <v>127.709357780675</v>
+        <v>-16.5006021396718</v>
       </c>
       <c r="L6" t="n">
-        <v>117.0225</v>
+        <v>95.901154888754</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>-0.00132553748472908</v>
       </c>
       <c r="N6" t="n">
         <v>462.483</v>
       </c>
       <c r="O6" t="n">
-        <v>95.4540654170226</v>
+        <v>72.9277633766151</v>
       </c>
       <c r="P6" t="n">
-        <v>123.4229020656</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>117.0225</v>
       </c>
       <c r="R6" t="n">
-        <v>24.266</v>
+        <v>-44.0542587106706</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>16.65</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.244080913448136</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1041.91426029315</v>
-      </c>
-      <c r="W6" t="n">
-        <v>151.360969948294</v>
+        <v>51.9538318050427</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B7" t="n">
-        <v>3684.18812869466</v>
+        <v>757.966482931961</v>
       </c>
       <c r="C7" t="n">
-        <v>22068.8</v>
+        <v>20771.7</v>
       </c>
       <c r="D7" t="n">
-        <v>18384.6118713053</v>
+        <v>20013.733517068</v>
       </c>
       <c r="E7" t="n">
-        <v>20.0395208475678</v>
+        <v>3.7872318140219</v>
       </c>
       <c r="F7" t="n">
-        <v>1617.00954338666</v>
+        <v>117.986571844342</v>
       </c>
       <c r="G7" t="n">
-        <v>1589.07064189747</v>
+        <v>-145.007613493845</v>
       </c>
       <c r="H7" t="n">
-        <v>-2825.04752487844</v>
+        <v>5.12779318583401</v>
       </c>
       <c r="I7" t="n">
-        <v>3303.15546828897</v>
+        <v>779.85973139563</v>
       </c>
       <c r="J7" t="n">
-        <v>1327.54065012341</v>
+        <v>52.0022196955085</v>
       </c>
       <c r="K7" t="n">
-        <v>124.264232743399</v>
+        <v>-26.3230379648641</v>
       </c>
       <c r="L7" t="n">
-        <v>63.2366</v>
+        <v>108.303949037331</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>-0.00304267617373932</v>
       </c>
       <c r="N7" t="n">
         <v>366.6105</v>
       </c>
       <c r="O7" t="n">
-        <v>75.4213632456875</v>
+        <v>53.6930314822774</v>
       </c>
       <c r="P7" t="n">
-        <v>134.850767609439</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>63.2366</v>
       </c>
       <c r="R7" t="n">
-        <v>26.76</v>
+        <v>-72.8989663297343</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>23.85</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0.23367051239957</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1024.79546748227</v>
-      </c>
-      <c r="W7" t="n">
-        <v>135.592216572356</v>
+        <v>45.8779246802312</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B8" t="n">
-        <v>3814.88884980422</v>
+        <v>1200.44864620845</v>
       </c>
       <c r="C8" t="n">
-        <v>22656.8</v>
+        <v>21058.4</v>
       </c>
       <c r="D8" t="n">
-        <v>18841.9111501958</v>
+        <v>19857.9513537916</v>
       </c>
       <c r="E8" t="n">
-        <v>20.2468253851446</v>
+        <v>6.04517870358889</v>
       </c>
       <c r="F8" t="n">
-        <v>1594.03570304154</v>
+        <v>188.909808639688</v>
       </c>
       <c r="G8" t="n">
-        <v>1312.34850498537</v>
+        <v>-184.451281848083</v>
       </c>
       <c r="H8" t="n">
-        <v>-2656.27747502663</v>
+        <v>-4.96291049021167</v>
       </c>
       <c r="I8" t="n">
-        <v>3564.78211680394</v>
+        <v>1200.95302990706</v>
       </c>
       <c r="J8" t="n">
-        <v>1312.45336198268</v>
+        <v>63.0634648856767</v>
       </c>
       <c r="K8" t="n">
-        <v>116.801145255426</v>
+        <v>-24.4144512564634</v>
       </c>
       <c r="L8" t="n">
-        <v>205.2442</v>
+        <v>122.634321757691</v>
       </c>
       <c r="M8" t="n">
-        <v>188.734</v>
+        <v>0.0875066301727342</v>
       </c>
       <c r="N8" t="n">
         <v>368.9235</v>
       </c>
       <c r="O8" t="n">
-        <v>72.2357336189958</v>
+        <v>51.8805838515211</v>
       </c>
       <c r="P8" t="n">
-        <v>147.503440738799</v>
+        <v>188.734</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>205.2442</v>
       </c>
       <c r="R8" t="n">
-        <v>20.331</v>
+        <v>-97.4662386944756</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0.309260074376864</v>
-      </c>
-      <c r="V8" t="n">
-        <v>974.37835399431</v>
-      </c>
-      <c r="W8" t="n">
-        <v>127.268121139359</v>
+        <v>101.924765486081</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B9" t="n">
-        <v>3379.00099864583</v>
+        <v>1096.13205844171</v>
       </c>
       <c r="C9" t="n">
-        <v>23368.9</v>
+        <v>21389</v>
       </c>
       <c r="D9" t="n">
-        <v>19989.8990013542</v>
+        <v>20292.8679415583</v>
       </c>
       <c r="E9" t="n">
-        <v>16.9035421260354</v>
+        <v>5.40156305948707</v>
       </c>
       <c r="F9" t="n">
-        <v>1467.60230393675</v>
+        <v>179.372192754322</v>
       </c>
       <c r="G9" t="n">
-        <v>1014.10978580022</v>
+        <v>-241.190118182103</v>
       </c>
       <c r="H9" t="n">
-        <v>-2420.90555002653</v>
+        <v>-16.9771494506183</v>
       </c>
       <c r="I9" t="n">
-        <v>3318.1944589354</v>
+        <v>1174.92713332011</v>
       </c>
       <c r="J9" t="n">
-        <v>1198.89151846052</v>
+        <v>56.5723113786887</v>
       </c>
       <c r="K9" t="n">
-        <v>106.008138694312</v>
+        <v>-11.8444098676933</v>
       </c>
       <c r="L9" t="n">
-        <v>194.0897</v>
+        <v>148.817777720831</v>
       </c>
       <c r="M9" t="n">
-        <v>134.81</v>
+        <v>0.465007688199015</v>
       </c>
       <c r="N9" t="n">
         <v>379.138</v>
       </c>
       <c r="O9" t="n">
-        <v>62.4816346010997</v>
+        <v>44.0257624543089</v>
       </c>
       <c r="P9" t="n">
-        <v>171.366434230942</v>
+        <v>134.81</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.3513184</v>
+        <v>194.0897</v>
       </c>
       <c r="R9" t="n">
-        <v>18.417</v>
+        <v>-123.978914875374</v>
       </c>
       <c r="S9" t="n">
-        <v>6.78436800000001</v>
-      </c>
-      <c r="T9" t="n">
-        <v>34.65</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0.666069987474334</v>
-      </c>
-      <c r="V9" t="n">
-        <v>882.855157291762</v>
-      </c>
-      <c r="W9" t="n">
-        <v>125.685119269294</v>
+        <v>62.1609894475928</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B10" t="n">
-        <v>2901.47642425066</v>
+        <v>950.502639976102</v>
       </c>
       <c r="C10" t="n">
-        <v>23922</v>
+        <v>21571.4</v>
       </c>
       <c r="D10" t="n">
-        <v>21020.5235757493</v>
+        <v>20620.8973600239</v>
       </c>
       <c r="E10" t="n">
-        <v>13.8030644850254</v>
+        <v>4.60941453410639</v>
       </c>
       <c r="F10" t="n">
-        <v>1306.8514839814</v>
+        <v>148.331248119114</v>
       </c>
       <c r="G10" t="n">
-        <v>776.662839626083</v>
+        <v>-249.407972649306</v>
       </c>
       <c r="H10" t="n">
-        <v>-2189.82155735919</v>
+        <v>-35.3027994271417</v>
       </c>
       <c r="I10" t="n">
-        <v>3007.78365800237</v>
+        <v>1086.88216393344</v>
       </c>
       <c r="J10" t="n">
-        <v>1089.75020718227</v>
+        <v>61.8981499969323</v>
       </c>
       <c r="K10" t="n">
-        <v>96.1047891329642</v>
+        <v>-16.0526937605738</v>
       </c>
       <c r="L10" t="n">
-        <v>134.3118</v>
+        <v>166.312316101322</v>
       </c>
       <c r="M10" t="n">
-        <v>134.81</v>
+        <v>0.406334945036402</v>
       </c>
       <c r="N10" t="n">
         <v>328.578</v>
       </c>
       <c r="O10" t="n">
-        <v>43.5239429470818</v>
+        <v>26.9828834360206</v>
       </c>
       <c r="P10" t="n">
-        <v>186.521530071906</v>
+        <v>134.81</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.06288</v>
+        <v>134.3118</v>
       </c>
       <c r="R10" t="n">
-        <v>19.21256</v>
+        <v>-124.803247179323</v>
       </c>
       <c r="S10" t="n">
-        <v>14.7599448</v>
-      </c>
-      <c r="T10" t="n">
-        <v>36.9</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0.586536857538389</v>
-      </c>
-      <c r="V10" t="n">
-        <v>802.45343876955</v>
-      </c>
-      <c r="W10" t="n">
-        <v>107.208028241052</v>
+        <v>23.7265226491306</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B11" t="n">
-        <v>2332.26169662161</v>
+        <v>802.140449856196</v>
       </c>
       <c r="C11" t="n">
-        <v>24777</v>
+        <v>21960.4</v>
       </c>
       <c r="D11" t="n">
-        <v>22444.7383033784</v>
+        <v>21158.2595501438</v>
       </c>
       <c r="E11" t="n">
-        <v>10.3911289367565</v>
+        <v>3.79114571288424</v>
       </c>
       <c r="F11" t="n">
-        <v>1177.96886807215</v>
+        <v>173.091098734124</v>
       </c>
       <c r="G11" t="n">
-        <v>422.119449709883</v>
+        <v>-302.313948454736</v>
       </c>
       <c r="H11" t="n">
-        <v>-1885.96220955206</v>
+        <v>-48.9471982350567</v>
       </c>
       <c r="I11" t="n">
-        <v>2618.13558839164</v>
+        <v>980.310497811864</v>
       </c>
       <c r="J11" t="n">
-        <v>968.363315243209</v>
+        <v>63.4756978832113</v>
       </c>
       <c r="K11" t="n">
-        <v>82.9386777282927</v>
+        <v>-18.0896078310941</v>
       </c>
       <c r="L11" t="n">
-        <v>114.6509</v>
+        <v>173.696464161937</v>
       </c>
       <c r="M11" t="n">
-        <v>69.393</v>
+        <v>0.382076212160887</v>
       </c>
       <c r="N11" t="n">
         <v>272.843</v>
       </c>
       <c r="O11" t="n">
-        <v>33.145845578362</v>
+        <v>19.0423830241197</v>
       </c>
       <c r="P11" t="n">
-        <v>190.927518333177</v>
+        <v>69.393</v>
       </c>
       <c r="Q11" t="n">
-        <v>16.12079192</v>
+        <v>114.6509</v>
       </c>
       <c r="R11" t="n">
-        <v>24.53906</v>
+        <v>-157.313981117398</v>
       </c>
       <c r="S11" t="n">
-        <v>23.6231416</v>
-      </c>
-      <c r="T11" t="n">
-        <v>39.15</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0.535722411394686</v>
-      </c>
-      <c r="V11" t="n">
-        <v>694.897994475907</v>
-      </c>
-      <c r="W11" t="n">
-        <v>87.0066211012975</v>
+        <v>28.0911313967872</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B12" t="n">
-        <v>1566.24049937404</v>
+        <v>587.831881684707</v>
       </c>
       <c r="C12" t="n">
-        <v>25215.5</v>
+        <v>21903.9</v>
       </c>
       <c r="D12" t="n">
-        <v>23649.259500626</v>
+        <v>21316.0681183153</v>
       </c>
       <c r="E12" t="n">
-        <v>6.6227887572234</v>
+        <v>2.75769376613892</v>
       </c>
       <c r="F12" t="n">
-        <v>953.764631513926</v>
+        <v>152.827384592528</v>
       </c>
       <c r="G12" t="n">
-        <v>-12.3389616854984</v>
+        <v>-346.192072491882</v>
       </c>
       <c r="H12" t="n">
-        <v>-1543.72523693768</v>
+        <v>-101.505656332127</v>
       </c>
       <c r="I12" t="n">
-        <v>2168.54006648329</v>
+        <v>882.702225916188</v>
       </c>
       <c r="J12" t="n">
-        <v>757.60184201072</v>
+        <v>68.7890802961697</v>
       </c>
       <c r="K12" t="n">
-        <v>66.3824785016765</v>
+        <v>-23.7295166548228</v>
       </c>
       <c r="L12" t="n">
-        <v>112.7448</v>
+        <v>169.582963603145</v>
       </c>
       <c r="M12" t="n">
-        <v>68.825</v>
+        <v>0.352481539771036</v>
       </c>
       <c r="N12" t="n">
         <v>218.928</v>
       </c>
       <c r="O12" t="n">
-        <v>21.7336181694861</v>
+        <v>10.6611502120888</v>
       </c>
       <c r="P12" t="n">
-        <v>183.110868147823</v>
+        <v>68.825</v>
       </c>
       <c r="Q12" t="n">
-        <v>14.371564</v>
+        <v>112.7448</v>
       </c>
       <c r="R12" t="n">
-        <v>28.32396</v>
+        <v>-177.064794260689</v>
       </c>
       <c r="S12" t="n">
-        <v>31.8029516</v>
-      </c>
-      <c r="T12" t="n">
-        <v>40.95</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0.473107422333498</v>
-      </c>
-      <c r="V12" t="n">
-        <v>564.511539920515</v>
-      </c>
-      <c r="W12" t="n">
-        <v>58.7803367107372</v>
+        <v>-16.2998936386646</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B13" t="n">
-        <v>439.960469785474</v>
+        <v>311.73113182519</v>
       </c>
       <c r="C13" t="n">
-        <v>25805.8</v>
+        <v>21919.2</v>
       </c>
       <c r="D13" t="n">
-        <v>25365.8395302145</v>
+        <v>21607.4688681748</v>
       </c>
       <c r="E13" t="n">
-        <v>1.73446051040973</v>
+        <v>1.44270082593676</v>
       </c>
       <c r="F13" t="n">
-        <v>719.155604517671</v>
+        <v>186.486432513046</v>
       </c>
       <c r="G13" t="n">
-        <v>-722.890623068223</v>
+        <v>-427.699902514634</v>
       </c>
       <c r="H13" t="n">
-        <v>-1183.16743754208</v>
+        <v>-175.625184837721</v>
       </c>
       <c r="I13" t="n">
-        <v>1626.8629258781</v>
+        <v>728.569786664499</v>
       </c>
       <c r="J13" t="n">
-        <v>575.335581742357</v>
+        <v>66.3950941492687</v>
       </c>
       <c r="K13" t="n">
-        <v>49.4891301092952</v>
+        <v>-26.6903910026454</v>
       </c>
       <c r="L13" t="n">
-        <v>52.3712</v>
+        <v>159.483437278614</v>
       </c>
       <c r="M13" t="n">
-        <v>68.825</v>
+        <v>0.31313450714438</v>
       </c>
       <c r="N13" t="n">
         <v>134.724</v>
       </c>
       <c r="O13" t="n">
-        <v>7.24110123933755</v>
+        <v>-0.494183636013286</v>
       </c>
       <c r="P13" t="n">
-        <v>168.934103184559</v>
+        <v>68.825</v>
       </c>
       <c r="Q13" t="n">
-        <v>16.24578</v>
+        <v>52.3712</v>
       </c>
       <c r="R13" t="n">
-        <v>30.92966</v>
+        <v>-202.088329566708</v>
       </c>
       <c r="S13" t="n">
-        <v>37.7590996</v>
-      </c>
-      <c r="T13" t="n">
-        <v>40.95</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0.397404388850191</v>
-      </c>
-      <c r="V13" t="n">
-        <v>412.709435184874</v>
-      </c>
-      <c r="W13" t="n">
-        <v>30.95143042883</v>
+        <v>-39.1251404348809</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B14" t="n">
-        <v>42.8090494741384</v>
+        <v>170.755320220098</v>
       </c>
       <c r="C14" t="n">
-        <v>26272</v>
+        <v>22066.8</v>
       </c>
       <c r="D14" t="n">
-        <v>26229.1909505259</v>
+        <v>21896.0446797799</v>
       </c>
       <c r="E14" t="n">
-        <v>0.16321147516476</v>
+        <v>0.77984550505501</v>
       </c>
       <c r="F14" t="n">
-        <v>506.301636385091</v>
+        <v>154.440817250401</v>
       </c>
       <c r="G14" t="n">
-        <v>-812.458534751611</v>
+        <v>-405.098617403229</v>
       </c>
       <c r="H14" t="n">
-        <v>-886.317460235405</v>
+        <v>-218.214297832856</v>
       </c>
       <c r="I14" t="n">
-        <v>1235.28340807606</v>
+        <v>639.627418205782</v>
       </c>
       <c r="J14" t="n">
-        <v>404.057255899226</v>
+        <v>72.3412734959202</v>
       </c>
       <c r="K14" t="n">
-        <v>41.1760245076835</v>
+        <v>-30.9235595005213</v>
       </c>
       <c r="L14" t="n">
-        <v>51.4976</v>
+        <v>149.760814794933</v>
       </c>
       <c r="M14" t="n">
-        <v>68.115</v>
+        <v>0.311229657856323</v>
       </c>
       <c r="N14" t="n">
         <v>76.057</v>
       </c>
       <c r="O14" t="n">
-        <v>0.596417983417282</v>
+        <v>-4.5328305527447</v>
       </c>
       <c r="P14" t="n">
-        <v>156.027528309039</v>
+        <v>68.115</v>
       </c>
       <c r="Q14" t="n">
-        <v>18.119996</v>
+        <v>51.4976</v>
       </c>
       <c r="R14" t="n">
-        <v>27.42161</v>
+        <v>-199.923660796252</v>
       </c>
       <c r="S14" t="n">
-        <v>41.6178064</v>
-      </c>
-      <c r="T14" t="n">
-        <v>40.95</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0.367108810899471</v>
-      </c>
-      <c r="V14" t="n">
-        <v>301.981468451017</v>
-      </c>
-      <c r="W14" t="n">
-        <v>7.29859171478165</v>
+        <v>-50.7341393565757</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B15" t="n">
-        <v>-241.881968859785</v>
+        <v>160.490832288484</v>
       </c>
       <c r="C15" t="n">
-        <v>26734.3</v>
+        <v>22249.5</v>
       </c>
       <c r="D15" t="n">
-        <v>26976.1819688598</v>
+        <v>22089.0091677115</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.896650123204989</v>
+        <v>0.72656419792283</v>
       </c>
       <c r="F15" t="n">
-        <v>329.532961336724</v>
+        <v>144.864332477995</v>
       </c>
       <c r="G15" t="n">
-        <v>-913.198856152942</v>
+        <v>-363.281819483272</v>
       </c>
       <c r="H15" t="n">
-        <v>-589.991147380623</v>
+        <v>-247.654194982255</v>
       </c>
       <c r="I15" t="n">
-        <v>931.775073337056</v>
+        <v>626.562514276017</v>
       </c>
       <c r="J15" t="n">
-        <v>262.015036486949</v>
+        <v>74.898732205291</v>
       </c>
       <c r="K15" t="n">
-        <v>45.5580252764751</v>
+        <v>-25.8949852440956</v>
       </c>
       <c r="L15" t="n">
-        <v>51.2176</v>
+        <v>145.74582856648</v>
       </c>
       <c r="M15" t="n">
-        <v>68.115</v>
+        <v>0.309742661921027</v>
       </c>
       <c r="N15" t="n">
         <v>52.018</v>
       </c>
       <c r="O15" t="n">
-        <v>-3.45290852514594</v>
+        <v>-6.08112195438219</v>
       </c>
       <c r="P15" t="n">
-        <v>148.956876052058</v>
+        <v>68.115</v>
       </c>
       <c r="Q15" t="n">
-        <v>16.093332</v>
+        <v>51.2176</v>
       </c>
       <c r="R15" t="n">
-        <v>23.69414</v>
+        <v>-193.687596268782</v>
       </c>
       <c r="S15" t="n">
-        <v>40.01589</v>
-      </c>
-      <c r="T15" t="n">
-        <v>40.95</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0.338374992642954</v>
-      </c>
-      <c r="V15" t="n">
-        <v>192.565762768997</v>
-      </c>
-      <c r="W15" t="n">
-        <v>-6.31005571492025</v>
+        <v>-24.7298907364955</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B16" t="n">
-        <v>-351.208910909779</v>
+        <v>165.866866325934</v>
       </c>
       <c r="C16" t="n">
-        <v>27164.4</v>
+        <v>22403.4</v>
       </c>
       <c r="D16" t="n">
-        <v>27515.6089109098</v>
+        <v>22237.5331336741</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.27639883255691</v>
+        <v>0.745886989032796</v>
       </c>
       <c r="F16" t="n">
-        <v>165.658373117505</v>
+        <v>144.64596356532</v>
       </c>
       <c r="G16" t="n">
-        <v>-870.191162116704</v>
+        <v>-331.998548772388</v>
       </c>
       <c r="H16" t="n">
-        <v>-207.562017741123</v>
+        <v>-208.541317978957</v>
       </c>
       <c r="I16" t="n">
-        <v>560.885895830543</v>
+        <v>561.760769511958</v>
       </c>
       <c r="J16" t="n">
-        <v>107.922374113087</v>
+        <v>78.7948369075243</v>
       </c>
       <c r="K16" t="n">
-        <v>33.8920633503525</v>
+        <v>-19.5573351286853</v>
       </c>
       <c r="L16" t="n">
-        <v>18.424</v>
+        <v>142.800470670032</v>
       </c>
       <c r="M16" t="n">
-        <v>68.115</v>
+        <v>0.295424453922999</v>
       </c>
       <c r="N16" t="n">
         <v>27.457</v>
       </c>
       <c r="O16" t="n">
-        <v>-7.68151719026408</v>
+        <v>-7.6739835724947</v>
       </c>
       <c r="P16" t="n">
-        <v>142.79126639304</v>
+        <v>68.115</v>
       </c>
       <c r="Q16" t="n">
-        <v>14.066668</v>
+        <v>18.424</v>
       </c>
       <c r="R16" t="n">
-        <v>20.96379</v>
+        <v>-172.280420100608</v>
       </c>
       <c r="S16" t="n">
-        <v>34.8458316</v>
-      </c>
-      <c r="T16" t="n">
-        <v>40.95</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0.295342381046761</v>
-      </c>
-      <c r="V16" t="n">
-        <v>78.45755134979</v>
-      </c>
-      <c r="W16" t="n">
-        <v>-19.6134741665091</v>
+        <v>-15.07216510646</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B17" t="n">
-        <v>-406.751221837606</v>
+        <v>130.979862507195</v>
       </c>
       <c r="C17" t="n">
-        <v>27453.8</v>
+        <v>22539.4</v>
       </c>
       <c r="D17" t="n">
-        <v>27860.5512218376</v>
+        <v>22408.4201374928</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.45995396357695</v>
+        <v>0.584511811647292</v>
       </c>
       <c r="F17" t="n">
-        <v>4.55700912017771</v>
+        <v>123.648012642606</v>
       </c>
       <c r="G17" t="n">
-        <v>-754.698182654056</v>
+        <v>-303.291064648962</v>
       </c>
       <c r="H17" t="n">
-        <v>130.678117161671</v>
+        <v>-171.935440891995</v>
       </c>
       <c r="I17" t="n">
-        <v>212.711834534601</v>
+        <v>482.558355405546</v>
       </c>
       <c r="J17" t="n">
-        <v>-28.3246550397016</v>
+        <v>88.3614405370479</v>
       </c>
       <c r="K17" t="n">
-        <v>20.8245191970969</v>
+        <v>-11.3136089232736</v>
       </c>
       <c r="L17" t="n">
-        <v>2.1784</v>
+        <v>120.93021239455</v>
       </c>
       <c r="M17" t="n">
-        <v>41.153</v>
+        <v>0.240648154830164</v>
       </c>
       <c r="N17" t="n">
         <v>9.157</v>
       </c>
       <c r="O17" t="n">
-        <v>-8.97371204568982</v>
+        <v>-6.65003882540185</v>
       </c>
       <c r="P17" t="n">
-        <v>118.091240122241</v>
+        <v>41.153</v>
       </c>
       <c r="Q17" t="n">
-        <v>14.28301</v>
+        <v>2.1784</v>
       </c>
       <c r="R17" t="n">
-        <v>18.48194</v>
+        <v>-149.853183336023</v>
       </c>
       <c r="S17" t="n">
-        <v>28.9760264</v>
-      </c>
-      <c r="T17" t="n">
-        <v>40.95</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0.215333551612303</v>
-      </c>
-      <c r="V17" t="n">
-        <v>-15.6711029353232</v>
-      </c>
-      <c r="W17" t="n">
-        <v>-28.6291647156343</v>
+        <v>-29.7898686703325</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B18" t="n">
-        <v>-852.318727125626</v>
+        <v>138.917129735037</v>
       </c>
       <c r="C18" t="n">
-        <v>27967.7</v>
+        <v>22780.9</v>
       </c>
       <c r="D18" t="n">
-        <v>28820.0187271256</v>
+        <v>22641.982870265</v>
       </c>
       <c r="E18" t="n">
-        <v>-2.95738436256954</v>
+        <v>0.613537827190358</v>
       </c>
       <c r="F18" t="n">
-        <v>-204.468497035575</v>
+        <v>114.725653503032</v>
       </c>
       <c r="G18" t="n">
-        <v>-995.834595407553</v>
+        <v>-258.236093566594</v>
       </c>
       <c r="H18" t="n">
-        <v>448.857182802033</v>
+        <v>-156.426855286737</v>
       </c>
       <c r="I18" t="n">
-        <v>-100.872817484531</v>
+        <v>438.854425085335</v>
       </c>
       <c r="J18" t="n">
-        <v>-160.615491584036</v>
+        <v>83.1582209877615</v>
       </c>
       <c r="K18" t="n">
-        <v>3.36210995278469</v>
+        <v>3.94919959070432</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>97.7125126761844</v>
       </c>
       <c r="M18" t="n">
-        <v>41.153</v>
+        <v>0.239311959010691</v>
       </c>
       <c r="N18" t="n">
         <v>0.67</v>
       </c>
       <c r="O18" t="n">
-        <v>-8.86616948769235</v>
+        <v>-4.21852854063983</v>
       </c>
       <c r="P18" t="n">
-        <v>92.0342083151718</v>
+        <v>41.153</v>
       </c>
       <c r="Q18" t="n">
-        <v>14.499352</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>16.94524</v>
+        <v>-126.133412814309</v>
       </c>
       <c r="S18" t="n">
-        <v>22.99411</v>
-      </c>
-      <c r="T18" t="n">
-        <v>32.3663016</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0.188679544157135</v>
-      </c>
-      <c r="V18" t="n">
-        <v>-124.920051226562</v>
-      </c>
-      <c r="W18" t="n">
-        <v>-30.6841065983537</v>
+        <v>-17.3770272492518</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B19" t="n">
-        <v>-1138.58825742174</v>
+        <v>109.564136184814</v>
       </c>
       <c r="C19" t="n">
-        <v>28297</v>
+        <v>22960.6</v>
       </c>
       <c r="D19" t="n">
-        <v>29435.5882574217</v>
+        <v>22851.0358638152</v>
       </c>
       <c r="E19" t="n">
-        <v>-3.86806693810396</v>
+        <v>0.479471201383519</v>
       </c>
       <c r="F19" t="n">
-        <v>-393.816216517216</v>
+        <v>116.959377392883</v>
       </c>
       <c r="G19" t="n">
-        <v>-1075.77738335599</v>
+        <v>-245.818935039282</v>
       </c>
       <c r="H19" t="n">
-        <v>699.547884982127</v>
+        <v>-154.849182478732</v>
       </c>
       <c r="I19" t="n">
-        <v>-368.54254253067</v>
+        <v>393.272876309945</v>
       </c>
       <c r="J19" t="n">
-        <v>-281.257576175028</v>
+        <v>87.1356035366578</v>
       </c>
       <c r="K19" t="n">
-        <v>-23.3316226203054</v>
+        <v>8.09965621029139</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>87.7551203530303</v>
       </c>
       <c r="M19" t="n">
-        <v>41.153</v>
+        <v>0.238755604995181</v>
       </c>
       <c r="N19" t="n">
         <v>0.174</v>
       </c>
       <c r="O19" t="n">
-        <v>-9.18549783371293</v>
+        <v>-2.62543516605671</v>
       </c>
       <c r="P19" t="n">
-        <v>79.7402945782699</v>
+        <v>41.153</v>
       </c>
       <c r="Q19" t="n">
-        <v>14.261254</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.31978</v>
+        <v>-99.517685548074</v>
       </c>
       <c r="S19" t="n">
-        <v>16.69038</v>
-      </c>
-      <c r="T19" t="n">
-        <v>25.07397996</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0.167288850519506</v>
-      </c>
-      <c r="V19" t="n">
-        <v>-206.563182805532</v>
-      </c>
-      <c r="W19" t="n">
-        <v>-40.7846404848808</v>
+        <v>-29.3418720983254</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B20" t="n">
-        <v>-1618.67038541194</v>
+        <v>110.383519335904</v>
       </c>
       <c r="C20" t="n">
-        <v>28624.1</v>
+        <v>23053.5</v>
       </c>
       <c r="D20" t="n">
-        <v>30242.7703854119</v>
+        <v>22943.1164806641</v>
       </c>
       <c r="E20" t="n">
-        <v>-5.35225564584099</v>
+        <v>0.481118244894652</v>
       </c>
       <c r="F20" t="n">
-        <v>-629.240786147581</v>
+        <v>101.545901969321</v>
       </c>
       <c r="G20" t="n">
-        <v>-1371.57154860317</v>
+        <v>-238.705928511283</v>
       </c>
       <c r="H20" t="n">
-        <v>1130.04015164327</v>
+        <v>-111.978082423358</v>
       </c>
       <c r="I20" t="n">
-        <v>-747.898202304453</v>
+        <v>359.521628301224</v>
       </c>
       <c r="J20" t="n">
-        <v>-450.897596396678</v>
+        <v>79.7937871843642</v>
       </c>
       <c r="K20" t="n">
-        <v>-41.5000878324438</v>
+        <v>14.1040381180589</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>79.3177024998264</v>
       </c>
       <c r="M20" t="n">
-        <v>34.1285</v>
+        <v>0.202503449788085</v>
       </c>
       <c r="N20" t="n">
         <v>0.08</v>
       </c>
       <c r="O20" t="n">
-        <v>-11.2957381456192</v>
+        <v>-1.7596440885647</v>
       </c>
       <c r="P20" t="n">
-        <v>67.6668789770798</v>
+        <v>34.1285</v>
       </c>
       <c r="Q20" t="n">
-        <v>14.023156</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>12.9825</v>
+        <v>-95.4256318492598</v>
       </c>
       <c r="S20" t="n">
-        <v>12.61027</v>
-      </c>
-      <c r="T20" t="n">
-        <v>18.30645234</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0.0986151598190583</v>
-      </c>
-      <c r="V20" t="n">
-        <v>-347.1440932738</v>
-      </c>
-      <c r="W20" t="n">
-        <v>-56.9570591328111</v>
+        <v>-41.7343946927028</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B21" t="n">
-        <v>-1964.87422353507</v>
+        <v>120.288380377375</v>
       </c>
       <c r="C21" t="n">
-        <v>29016.7</v>
+        <v>23223.9</v>
       </c>
       <c r="D21" t="n">
-        <v>30981.5742235351</v>
+        <v>23103.6116196226</v>
       </c>
       <c r="E21" t="n">
-        <v>-6.34207354783947</v>
+        <v>0.520647517616735</v>
       </c>
       <c r="F21" t="n">
-        <v>-811.524741842551</v>
+        <v>112.140562563199</v>
       </c>
       <c r="G21" t="n">
-        <v>-1575.64927860622</v>
+        <v>-242.054511373886</v>
       </c>
       <c r="H21" t="n">
-        <v>1511.55364538144</v>
+        <v>-75.2681691611784</v>
       </c>
       <c r="I21" t="n">
-        <v>-1089.25384846774</v>
+        <v>325.47049834924</v>
       </c>
       <c r="J21" t="n">
-        <v>-590.770543670183</v>
+        <v>77.4912142196761</v>
       </c>
       <c r="K21" t="n">
-        <v>-55.3518407071116</v>
+        <v>14.4144045860509</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>56.9782766106812</v>
       </c>
       <c r="M21" t="n">
-        <v>27.388</v>
+        <v>0.0571079466795379</v>
       </c>
       <c r="N21" t="n">
         <v>0.035</v>
       </c>
       <c r="O21" t="n">
-        <v>-13.3048992489426</v>
+        <v>-1.12257772714617</v>
       </c>
       <c r="P21" t="n">
-        <v>42.0943967644239</v>
+        <v>27.388</v>
       </c>
       <c r="Q21" t="n">
-        <v>13.04705068</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>10.68472</v>
+        <v>-96.4123634996063</v>
       </c>
       <c r="S21" t="n">
-        <v>9.32794</v>
-      </c>
-      <c r="T21" t="n">
-        <v>11.95799418</v>
-      </c>
-      <c r="U21" t="n">
-        <v>-0.0756089228458891</v>
-      </c>
-      <c r="V21" t="n">
-        <v>-467.920198299693</v>
-      </c>
-      <c r="W21" t="n">
-        <v>-76.3658592433871</v>
+        <v>-33.5015853110804</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B22" t="n">
-        <v>-2349.54351262829</v>
+        <v>155.156869368599</v>
       </c>
       <c r="C22" t="n">
-        <v>29374.9</v>
+        <v>23400.3</v>
       </c>
       <c r="D22" t="n">
-        <v>31724.4435126283</v>
+        <v>23245.1431306314</v>
       </c>
       <c r="E22" t="n">
-        <v>-7.40609842909623</v>
+        <v>0.667480808772214</v>
       </c>
       <c r="F22" t="n">
-        <v>-964.226490928715</v>
+        <v>158.093141867096</v>
       </c>
       <c r="G22" t="n">
-        <v>-1841.11869153314</v>
+        <v>-255.581500403672</v>
       </c>
       <c r="H22" t="n">
-        <v>1808.15603907804</v>
+        <v>-63.9249215844853</v>
       </c>
       <c r="I22" t="n">
-        <v>-1352.35436924448</v>
+        <v>316.570149489661</v>
       </c>
       <c r="J22" t="n">
-        <v>-699.465149898561</v>
+        <v>92.2221828994134</v>
       </c>
       <c r="K22" t="n">
-        <v>-64.7587420058715</v>
+        <v>14.4024184337707</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>36.2389927925686</v>
       </c>
       <c r="M22" t="n">
-        <v>20.6475</v>
+        <v>0.0547184533494405</v>
       </c>
       <c r="N22" t="n">
         <v>0.012</v>
       </c>
       <c r="O22" t="n">
-        <v>-14.9547888617883</v>
+        <v>-0.583526270193854</v>
       </c>
       <c r="P22" t="n">
-        <v>18.6807511003266</v>
+        <v>20.6475</v>
       </c>
       <c r="Q22" t="n">
-        <v>8.517842</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>8.41277</v>
+        <v>-93.0242648665162</v>
       </c>
       <c r="S22" t="n">
-        <v>6.35096</v>
-      </c>
-      <c r="T22" t="n">
-        <v>8.18345387</v>
-      </c>
-      <c r="U22" t="n">
-        <v>-0.101845217940285</v>
-      </c>
-      <c r="V22" t="n">
-        <v>-551.189716527487</v>
-      </c>
-      <c r="W22" t="n">
-        <v>-92.6894037031556</v>
+        <v>-4.46409367006027</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B23" t="n">
-        <v>-2804.71613772844</v>
+        <v>179.543337652759</v>
       </c>
       <c r="C23" t="n">
-        <v>29666.5307226025</v>
+        <v>23530.9</v>
       </c>
       <c r="D23" t="n">
-        <v>32471.246860331</v>
+        <v>23351.3566623472</v>
       </c>
       <c r="E23" t="n">
-        <v>-8.63753754142058</v>
+        <v>0.768877544242486</v>
       </c>
       <c r="F23" t="n">
-        <v>-1205.35021413518</v>
+        <v>161.527506433481</v>
       </c>
       <c r="G23" t="n">
-        <v>-2116.86986091444</v>
+        <v>-257.633989345061</v>
       </c>
       <c r="H23" t="n">
-        <v>2162.60603984093</v>
+        <v>-54.4245554938834</v>
       </c>
       <c r="I23" t="n">
-        <v>-1645.10210251975</v>
+        <v>330.074376058222</v>
       </c>
       <c r="J23" t="n">
-        <v>-836.073162349925</v>
+        <v>104.452461913144</v>
       </c>
       <c r="K23" t="n">
-        <v>-76.8508804671673</v>
+        <v>24.8148979187098</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>26.0700285887078</v>
       </c>
       <c r="M23" t="n">
+        <v>0.0516773154132061</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-0.325290450381644</v>
+      </c>
+      <c r="P23" t="n">
         <v>13.836</v>
       </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>-17.4134749404157</v>
-      </c>
-      <c r="P23" t="n">
-        <v>5.5293827467613</v>
-      </c>
       <c r="Q23" t="n">
-        <v>6.576191</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>6.944865</v>
+        <v>-96.0264063862892</v>
       </c>
       <c r="S23" t="n">
-        <v>4.56094</v>
-      </c>
-      <c r="T23" t="n">
-        <v>6.12347377</v>
-      </c>
-      <c r="U23" t="n">
-        <v>-0.168263558562625</v>
-      </c>
-      <c r="V23" t="n">
-        <v>-655.893896312621</v>
-      </c>
-      <c r="W23" t="n">
-        <v>-102.273277407817</v>
+        <v>-0.0800765252906785</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B24" t="n">
-        <v>-3275.94443346766</v>
+        <v>141.800059922132</v>
       </c>
       <c r="C24" t="n">
-        <v>29970.8366330789</v>
+        <v>23646.7536121738</v>
       </c>
       <c r="D24" t="n">
-        <v>33246.7810665466</v>
+        <v>23504.9535522516</v>
       </c>
       <c r="E24" t="n">
-        <v>-9.85341837127193</v>
+        <v>0.603277345802478</v>
       </c>
       <c r="F24" t="n">
-        <v>-1437.97230159368</v>
+        <v>114.102450777878</v>
       </c>
       <c r="G24" t="n">
-        <v>-2387.53769968664</v>
+        <v>-249.277312786665</v>
       </c>
       <c r="H24" t="n">
-        <v>2520.35914465803</v>
+        <v>-58.9299526889086</v>
       </c>
       <c r="I24" t="n">
-        <v>-1970.79357684538</v>
+        <v>335.904874619828</v>
       </c>
       <c r="J24" t="n">
-        <v>-991.770994557044</v>
+        <v>120.407608842465</v>
       </c>
       <c r="K24" t="n">
-        <v>-89.8437017972012</v>
+        <v>26.5960257540626</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>20.7248976410518</v>
       </c>
       <c r="M24" t="n">
+        <v>-0.0030696061891804</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>-0.368995933303779</v>
+      </c>
+      <c r="P24" t="n">
         <v>7.0245</v>
       </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>-20.224053581573</v>
-      </c>
-      <c r="P24" t="n">
-        <v>-3.04881179988113</v>
-      </c>
       <c r="Q24" t="n">
-        <v>4.63454</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>5.959885</v>
+        <v>-109.162330644389</v>
       </c>
       <c r="S24" t="n">
-        <v>3.85754</v>
-      </c>
-      <c r="T24" t="n">
-        <v>4.0318455</v>
-      </c>
-      <c r="U24" t="n">
-        <v>-0.24855913085707</v>
-      </c>
-      <c r="V24" t="n">
-        <v>-768.655529799084</v>
-      </c>
-      <c r="W24" t="n">
-        <v>-122.510236679736</v>
+        <v>-26.012531364398</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B25" t="n">
-        <v>-3762.23146730755</v>
+        <v>114.197029608825</v>
       </c>
       <c r="C25" t="n">
-        <v>30282.5448532737</v>
+        <v>23765.7113401448</v>
       </c>
       <c r="D25" t="n">
-        <v>34044.7763205812</v>
+        <v>23651.5143105359</v>
       </c>
       <c r="E25" t="n">
-        <v>-11.0508332669913</v>
+        <v>0.482831788736493</v>
       </c>
       <c r="F25" t="n">
-        <v>-1669.10980374024</v>
+        <v>82.0021319038243</v>
       </c>
       <c r="G25" t="n">
-        <v>-2678.60629480519</v>
+        <v>-252.111075727702</v>
       </c>
       <c r="H25" t="n">
-        <v>2907.20484330784</v>
+        <v>-50.1647460009506</v>
       </c>
       <c r="I25" t="n">
-        <v>-2321.72021206996</v>
+        <v>334.470719433653</v>
       </c>
       <c r="J25" t="n">
-        <v>-1158.66042866398</v>
+        <v>136.453926545712</v>
       </c>
       <c r="K25" t="n">
-        <v>-103.590569273077</v>
+        <v>27.4137568164119</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>12.6522297114785</v>
       </c>
       <c r="M25" t="n">
+        <v>-0.108010620770005</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>-0.522453995253564</v>
+      </c>
+      <c r="P25" t="n">
         <v>0.213</v>
       </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>-23.2802355128053</v>
-      </c>
-      <c r="P25" t="n">
-        <v>-14.5155410335248</v>
-      </c>
       <c r="Q25" t="n">
-        <v>2.745007</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>5.04681</v>
+        <v>-125.301590449733</v>
       </c>
       <c r="S25" t="n">
-        <v>3.17264</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2.35332026</v>
-      </c>
-      <c r="U25" t="n">
-        <v>-0.383591629680311</v>
-      </c>
-      <c r="V25" t="n">
-        <v>-889.187339443798</v>
-      </c>
-      <c r="W25" t="n">
-        <v>-145.633283773095</v>
+        <v>-44.8073533741444</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B26" t="n">
-        <v>-4261.53885141455</v>
+        <v>103.32558495394</v>
       </c>
       <c r="C26" t="n">
-        <v>30588.168983289</v>
+        <v>23876.9588450065</v>
       </c>
       <c r="D26" t="n">
-        <v>34849.7078347035</v>
+        <v>23773.6332600526</v>
       </c>
       <c r="E26" t="n">
-        <v>-12.2283345146753</v>
+        <v>0.434622608263924</v>
       </c>
       <c r="F26" t="n">
-        <v>-1898.18867230404</v>
+        <v>66.7667839526818</v>
       </c>
       <c r="G26" t="n">
-        <v>-2994.5085698211</v>
+        <v>-265.472884243991</v>
       </c>
       <c r="H26" t="n">
-        <v>3315.68203535976</v>
+        <v>-38.2800893979757</v>
       </c>
       <c r="I26" t="n">
-        <v>-2684.52364464918</v>
+        <v>340.311774643225</v>
       </c>
       <c r="J26" t="n">
-        <v>-1335.77659552061</v>
+        <v>151.016040694571</v>
       </c>
       <c r="K26" t="n">
-        <v>-119.474748662289</v>
+        <v>30.6176023955048</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>6.15503241295522</v>
       </c>
       <c r="M26" t="n">
+        <v>-0.140281768041088</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>-0.810383196126487</v>
+      </c>
+      <c r="P26" t="n">
         <v>0.142</v>
       </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>-26.6120899923749</v>
-      </c>
-      <c r="P26" t="n">
-        <v>-24.5881631977857</v>
-      </c>
       <c r="Q26" t="n">
-        <v>0.855474</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.09409</v>
+        <v>-141.024024565228</v>
       </c>
       <c r="S26" t="n">
-        <v>2.58402</v>
-      </c>
-      <c r="T26" t="n">
-        <v>2.39286449</v>
-      </c>
-      <c r="U26" t="n">
-        <v>-0.447492540166047</v>
-      </c>
-      <c r="V26" t="n">
-        <v>-1019.66841544155</v>
-      </c>
-      <c r="W26" t="n">
-        <v>-168.024587784406</v>
+        <v>-57.6820757260816</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B27" t="n">
-        <v>-4807.64155566588</v>
+        <v>80.2862279299009</v>
       </c>
       <c r="C27" t="n">
-        <v>30878.1772818436</v>
+        <v>23979.8953301531</v>
       </c>
       <c r="D27" t="n">
-        <v>35685.8188375095</v>
+        <v>23899.6091022232</v>
       </c>
       <c r="E27" t="n">
-        <v>-13.47213462456</v>
+        <v>0.335931134214373</v>
       </c>
       <c r="F27" t="n">
-        <v>-2152.50384917249</v>
+        <v>47.4249305694559</v>
       </c>
       <c r="G27" t="n">
-        <v>-3320.63882290608</v>
+        <v>-275.12514992114</v>
       </c>
       <c r="H27" t="n">
-        <v>3729.87142278798</v>
+        <v>-32.3744961392983</v>
       </c>
       <c r="I27" t="n">
-        <v>-3064.37030637529</v>
+        <v>340.360943420884</v>
       </c>
       <c r="J27" t="n">
-        <v>-1522.48897837426</v>
+        <v>161.934524038217</v>
       </c>
       <c r="K27" t="n">
-        <v>-135.845471425602</v>
+        <v>32.457249416863</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>2.39044848270363</v>
       </c>
       <c r="M27" t="n">
+        <v>-0.171025748535582</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>-1.17470309510065</v>
+      </c>
+      <c r="P27" t="n">
         <v>0.071</v>
       </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>-30.0956616618023</v>
-      </c>
-      <c r="P27" t="n">
-        <v>-32.0643638908004</v>
-      </c>
       <c r="Q27" t="n">
-        <v>0.573855</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>3.18203</v>
+        <v>-157.058798213678</v>
       </c>
       <c r="S27" t="n">
-        <v>2.04112</v>
-      </c>
-      <c r="T27" t="n">
-        <v>2.42854317</v>
-      </c>
-      <c r="U27" t="n">
-        <v>-0.509329791481988</v>
-      </c>
-      <c r="V27" t="n">
-        <v>-1159.19689699962</v>
-      </c>
-      <c r="W27" t="n">
-        <v>-192.466152401721</v>
+        <v>-70.6414211380068</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B28" t="n">
-        <v>-5325.27319597743</v>
+        <v>70.3064041347189</v>
       </c>
       <c r="C28" t="n">
-        <v>31148.1080828061</v>
+        <v>24089.0400468942</v>
       </c>
       <c r="D28" t="n">
-        <v>36473.3812787835</v>
+        <v>24018.7336427595</v>
       </c>
       <c r="E28" t="n">
-        <v>-14.6004373854835</v>
+        <v>0.292714866572141</v>
       </c>
       <c r="F28" t="n">
-        <v>-2385.22169127252</v>
+        <v>33.0140668578022</v>
       </c>
       <c r="G28" t="n">
-        <v>-3665.194013179</v>
+        <v>-288.972935543874</v>
       </c>
       <c r="H28" t="n">
-        <v>4175.90543131535</v>
+        <v>-13.9867869887003</v>
       </c>
       <c r="I28" t="n">
-        <v>-3450.76292284126</v>
+        <v>340.252059809491</v>
       </c>
       <c r="J28" t="n">
-        <v>-1714.77416579869</v>
+        <v>171.062507877865</v>
       </c>
       <c r="K28" t="n">
-        <v>-152.769667387179</v>
+        <v>34.5999932995937</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1.0145634707353</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>-0.198600850622718</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>-33.6713296434474</v>
+        <v>-1.5132901109147</v>
       </c>
       <c r="P28" t="n">
-        <v>-37.2819961437145</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.378236</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>2.13507</v>
+        <v>-173.383662633262</v>
       </c>
       <c r="S28" t="n">
-        <v>1.53068</v>
-      </c>
-      <c r="T28" t="n">
-        <v>2.44287734</v>
-      </c>
-      <c r="U28" t="n">
-        <v>-0.572344667615918</v>
-      </c>
-      <c r="V28" t="n">
-        <v>-1301.1262670045</v>
-      </c>
-      <c r="W28" t="n">
-        <v>-217.054015536112</v>
+        <v>-82.5752060528096</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B29" t="n">
-        <v>-5872.22356101721</v>
+        <v>54.5061737117351</v>
       </c>
       <c r="C29" t="n">
-        <v>31421.8921408821</v>
+        <v>24201.2888794325</v>
       </c>
       <c r="D29" t="n">
-        <v>37294.1157018993</v>
+        <v>24146.7827057208</v>
       </c>
       <c r="E29" t="n">
-        <v>-15.7457106851796</v>
+        <v>0.225728513715495</v>
       </c>
       <c r="F29" t="n">
-        <v>-2632.35039465926</v>
+        <v>15.5460346273492</v>
       </c>
       <c r="G29" t="n">
-        <v>-4024.01835252669</v>
+        <v>-301.303172667443</v>
       </c>
       <c r="H29" t="n">
-        <v>4633.24773887395</v>
+        <v>-0.180582155588155</v>
       </c>
       <c r="I29" t="n">
-        <v>-3849.1025527052</v>
+        <v>340.443893907417</v>
       </c>
       <c r="J29" t="n">
-        <v>-1913.82872743988</v>
+        <v>180.268754884855</v>
       </c>
       <c r="K29" t="n">
-        <v>-170.299521223984</v>
+        <v>36.3812906400508</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>-0.0755642518132262</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>-0.226183010020961</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>-37.372649265668</v>
+        <v>-1.84452493008108</v>
       </c>
       <c r="P29" t="n">
-        <v>-42.3568217797602</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.211344</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>1.407465</v>
+        <v>-190.847879634307</v>
       </c>
       <c r="S29" t="n">
-        <v>1.05376</v>
-      </c>
-      <c r="T29" t="n">
-        <v>2.45433355</v>
-      </c>
-      <c r="U29" t="n">
-        <v>-0.636641266400473</v>
-      </c>
-      <c r="V29" t="n">
-        <v>-1447.24595868058</v>
-      </c>
-      <c r="W29" t="n">
-        <v>-242.489135598922</v>
+        <v>-94.9092584057862</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B30" t="n">
-        <v>-6461.1201877023</v>
+        <v>34.3387342940419</v>
       </c>
       <c r="C30" t="n">
-        <v>31706.9317657902</v>
+        <v>24307.5297459116</v>
       </c>
       <c r="D30" t="n">
-        <v>38168.0519534925</v>
+        <v>24273.1910116176</v>
       </c>
       <c r="E30" t="n">
-        <v>-16.9280847646485</v>
+        <v>0.14146773812147</v>
       </c>
       <c r="F30" t="n">
-        <v>-2893.19918605785</v>
+        <v>2.24501593710173</v>
       </c>
       <c r="G30" t="n">
-        <v>-4406.1051529026</v>
+        <v>-317.014608189246</v>
       </c>
       <c r="H30" t="n">
-        <v>5099.16328721596</v>
+        <v>8.98679516482484</v>
       </c>
       <c r="I30" t="n">
-        <v>-4260.97913595781</v>
+        <v>340.121531381361</v>
       </c>
       <c r="J30" t="n">
-        <v>-2119.52131902629</v>
+        <v>189.244165312613</v>
       </c>
       <c r="K30" t="n">
-        <v>-188.459730635249</v>
+        <v>38.0271991068515</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>-1.10354080391815</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>-0.253784996676675</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>-41.228206063019</v>
+        <v>-2.21357972907564</v>
       </c>
       <c r="P30" t="n">
-        <v>-47.5166172241591</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>-0.00499800000000003</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.903825</v>
+        <v>-207.872773925722</v>
       </c>
       <c r="S30" t="n">
-        <v>0.61906</v>
-      </c>
-      <c r="T30" t="n">
-        <v>1.91853524</v>
-      </c>
-      <c r="U30" t="n">
-        <v>-0.702269543649919</v>
-      </c>
-      <c r="V30" t="n">
-        <v>-1598.04237268302</v>
-      </c>
-      <c r="W30" t="n">
-        <v>-268.945043022428</v>
+        <v>-106.896818326422</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" t="n">
+        <v>9.59683827290183</v>
+      </c>
+      <c r="C31" t="n">
+        <v>24412.9695502496</v>
+      </c>
+      <c r="D31" t="n">
+        <v>24403.3727119767</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.0393258685435383</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-14.7787262450607</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-331.905003181425</v>
+      </c>
+      <c r="H31" t="n">
+        <v>11.5514178067109</v>
+      </c>
+      <c r="I31" t="n">
+        <v>344.729149892677</v>
+      </c>
+      <c r="J31" t="n">
+        <v>198.651127508072</v>
+      </c>
+      <c r="K31" t="n">
+        <v>39.5953746316779</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-1.99617408914484</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-0.281423486411572</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>-2.59798521173796</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>-226.101790714496</v>
+      </c>
+      <c r="S31" t="n">
+        <v>-120.58193871199</v>
       </c>
     </row>
   </sheetData>

--- a/fim_levels.xlsx
+++ b/fim_levels.xlsx
@@ -12,30 +12,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t xml:space="preserve">date</t>
   </si>
   <si>
-    <t xml:space="preserve">minus_neutral_sum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">real_gdp_actual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">federal_purchases_contribution_levels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">state_purchases_contribution_levels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">federal_levels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">state_levels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">consumption_levels</t>
+    <t xml:space="preserve">real_federal_levels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">real_state_levels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">real_consumption_levels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">real_delta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">real_gdp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">real_gdp_counterfactual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019 Q4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020 Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020 Q2</t>
   </si>
   <si>
     <t xml:space="preserve">2020 Q3</t>
@@ -90,6 +96,24 @@
   </si>
   <si>
     <t xml:space="preserve">2024 Q4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025 Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025 Q2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025 Q3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025 Q4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026 Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026 Q2</t>
   </si>
 </sst>
 </file>
@@ -443,452 +467,616 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2"/>
-      <c r="C2" t="n">
-        <v>20548.8</v>
-      </c>
+      <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
-      <c r="F2"/>
+      <c r="F2" t="n">
+        <v>20985.4</v>
+      </c>
       <c r="G2"/>
-      <c r="H2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3"/>
+        <v>8</v>
+      </c>
+      <c r="B3" t="n">
+        <v>9.11611259734197</v>
+      </c>
       <c r="C3" t="n">
-        <v>20771.7</v>
-      </c>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
+        <v>12.5638612399199</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.97165989424524</v>
+      </c>
+      <c r="E3" t="n">
+        <v>23.6516337315071</v>
+      </c>
+      <c r="F3" t="n">
+        <v>20693.2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>20669.5483662685</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>431.185666162402</v>
+        <v>207.649728878123</v>
       </c>
       <c r="C4" t="n">
-        <v>21058.4</v>
+        <v>-119.587933896327</v>
       </c>
       <c r="D4" t="n">
-        <v>55.4704736178442</v>
+        <v>673.745301791097</v>
       </c>
       <c r="E4" t="n">
-        <v>-22.5937312132396</v>
+        <v>761.807096772892</v>
       </c>
       <c r="F4" t="n">
-        <v>68.2860748251505</v>
+        <v>19056.6</v>
       </c>
       <c r="G4" t="n">
-        <v>-35.409332420546</v>
-      </c>
-      <c r="H4" t="n">
-        <v>398.308923757797</v>
+        <v>18294.7929032271</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>311.619199745308</v>
+        <v>127.979290104342</v>
       </c>
       <c r="C5" t="n">
-        <v>21389</v>
+        <v>-116.533471533985</v>
       </c>
       <c r="D5" t="n">
-        <v>14.9763320644106</v>
+        <v>884.390394228708</v>
       </c>
       <c r="E5" t="n">
-        <v>-47.2596022174325</v>
+        <v>895.836212799064</v>
       </c>
       <c r="F5" t="n">
-        <v>56.2424604441046</v>
+        <v>20548.8</v>
       </c>
       <c r="G5" t="n">
-        <v>-88.5257305971265</v>
-      </c>
-      <c r="H5" t="n">
-        <v>343.90246989833</v>
+        <v>19652.9637872009</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>151.392287085526</v>
+        <v>111.031299475772</v>
       </c>
       <c r="C6" t="n">
-        <v>21571.4</v>
+        <v>-131.371282522965</v>
       </c>
       <c r="D6" t="n">
-        <v>-24.2582885782388</v>
+        <v>745.367542422039</v>
       </c>
       <c r="E6" t="n">
-        <v>-46.4558674110699</v>
+        <v>725.027559374846</v>
       </c>
       <c r="F6" t="n">
-        <v>22.8729508070367</v>
+        <v>20771.7</v>
       </c>
       <c r="G6" t="n">
-        <v>-93.5871067963453</v>
-      </c>
-      <c r="H6" t="n">
-        <v>222.106443074835</v>
+        <v>20046.6724406252</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>-13.9087649675352</v>
+        <v>176.416517092735</v>
       </c>
       <c r="C7" t="n">
-        <v>21960.4</v>
+        <v>-163.481976228782</v>
       </c>
       <c r="D7" t="n">
-        <v>-20.7399636946732</v>
+        <v>1123.03655616054</v>
       </c>
       <c r="E7" t="n">
-        <v>-77.0060489939665</v>
+        <v>1135.9710970245</v>
       </c>
       <c r="F7" t="n">
-        <v>44.9956974060643</v>
+        <v>21058.4</v>
       </c>
       <c r="G7" t="n">
-        <v>-142.741710094704</v>
-      </c>
-      <c r="H7" t="n">
-        <v>83.8372477211044</v>
+        <v>19922.4289029755</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>-247.437525731412</v>
+        <v>165.706488573653</v>
       </c>
       <c r="C8" t="n">
-        <v>21903.9</v>
+        <v>-209.642083210371</v>
       </c>
       <c r="D8" t="n">
-        <v>-66.1756826568537</v>
+        <v>1070.67157246815</v>
       </c>
       <c r="E8" t="n">
-        <v>-94.4679874994422</v>
+        <v>1026.73597783143</v>
       </c>
       <c r="F8" t="n">
-        <v>21.5276501713095</v>
+        <v>21389</v>
       </c>
       <c r="G8" t="n">
-        <v>-182.171320327605</v>
-      </c>
-      <c r="H8" t="n">
-        <v>-86.7938555751159</v>
+        <v>20362.2640221686</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>-542.1513500334</v>
+        <v>135.4353200492</v>
       </c>
       <c r="C9" t="n">
-        <v>21919.2</v>
+        <v>-213.358132555454</v>
       </c>
       <c r="D9" t="n">
-        <v>-90.1819065468524</v>
+        <v>959.067576170796</v>
       </c>
       <c r="E9" t="n">
-        <v>-116.236103528782</v>
+        <v>881.144763664541</v>
       </c>
       <c r="F9" t="n">
-        <v>50.7827488748549</v>
+        <v>21571.4</v>
       </c>
       <c r="G9" t="n">
-        <v>-257.200758950489</v>
-      </c>
-      <c r="H9" t="n">
-        <v>-335.733339957765</v>
+        <v>20690.2552363355</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>-698.708232921434</v>
+        <v>156.123482215256</v>
       </c>
       <c r="C10" t="n">
-        <v>22066.8</v>
+        <v>-253.610710866958</v>
       </c>
       <c r="D10" t="n">
-        <v>-102.740875156754</v>
+        <v>835.591187277986</v>
       </c>
       <c r="E10" t="n">
-        <v>-113.472966771887</v>
+        <v>738.103958626284</v>
       </c>
       <c r="F10" t="n">
-        <v>17.5433872574299</v>
+        <v>21960.4</v>
       </c>
       <c r="G10" t="n">
-        <v>-233.75722918607</v>
-      </c>
-      <c r="H10" t="n">
-        <v>-482.494390992793</v>
+        <v>21222.2960413737</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>-723.090401635941</v>
+        <v>135.684841982149</v>
       </c>
       <c r="C11" t="n">
-        <v>22249.5</v>
+        <v>-283.864546289976</v>
       </c>
       <c r="D11" t="n">
-        <v>-77.5601780094385</v>
+        <v>687.876530584834</v>
       </c>
       <c r="E11" t="n">
-        <v>-106.506747647906</v>
+        <v>539.696826277007</v>
       </c>
       <c r="F11" t="n">
-        <v>6.60701757222026</v>
+        <v>21903.9</v>
       </c>
       <c r="G11" t="n">
-        <v>-190.673943229564</v>
-      </c>
-      <c r="H11" t="n">
-        <v>-539.023475978597</v>
+        <v>21364.203173723</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>-732.580965867739</v>
+        <v>162.607983568493</v>
       </c>
       <c r="C12" t="n">
-        <v>22403.4</v>
+        <v>-339.197695728974</v>
       </c>
       <c r="D12" t="n">
-        <v>-68.755094673</v>
+        <v>478.065051031219</v>
       </c>
       <c r="E12" t="n">
-        <v>-85.0713250369708</v>
+        <v>301.475338870738</v>
       </c>
       <c r="F12" t="n">
-        <v>5.80835095298728</v>
+        <v>21919.2</v>
       </c>
       <c r="G12" t="n">
-        <v>-159.634770662958</v>
-      </c>
-      <c r="H12" t="n">
-        <v>-578.754546157768</v>
+        <v>21617.7246611293</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>-780.530367084103</v>
+        <v>132.941044652791</v>
       </c>
       <c r="C13" t="n">
-        <v>22539.4</v>
+        <v>-320.802371480769</v>
       </c>
       <c r="D13" t="n">
-        <v>-84.2386290276195</v>
+        <v>360.15378479819</v>
       </c>
       <c r="E13" t="n">
-        <v>-62.9663550579417</v>
+        <v>172.292457970213</v>
       </c>
       <c r="F13" t="n">
-        <v>-15.4658566747318</v>
+        <v>22066.8</v>
       </c>
       <c r="G13" t="n">
-        <v>-131.739127410829</v>
-      </c>
-      <c r="H13" t="n">
-        <v>-633.325382998542</v>
+        <v>21894.5075420298</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>-783.699070045889</v>
+        <v>123.436518926475</v>
       </c>
       <c r="C14" t="n">
-        <v>22780.9</v>
+        <v>-286.882030441939</v>
       </c>
       <c r="D14" t="n">
-        <v>-72.6460015441874</v>
+        <v>320.648050057576</v>
       </c>
       <c r="E14" t="n">
-        <v>-37.8900529647731</v>
+        <v>157.202538542112</v>
       </c>
       <c r="F14" t="n">
-        <v>-26.6786689006642</v>
+        <v>22249.5</v>
       </c>
       <c r="G14" t="n">
-        <v>-83.8573856082962</v>
-      </c>
-      <c r="H14" t="n">
-        <v>-673.163015536928</v>
+        <v>22092.2974614579</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>-822.802521669327</v>
+        <v>121.958366138466</v>
       </c>
       <c r="C15" t="n">
-        <v>22960.6</v>
+        <v>-263.55612413089</v>
       </c>
       <c r="D15" t="n">
-        <v>-85.4488151746471</v>
+        <v>296.036157458968</v>
       </c>
       <c r="E15" t="n">
-        <v>-10.7939578547789</v>
+        <v>154.438399466544</v>
       </c>
       <c r="F15" t="n">
-        <v>-25.6880694889519</v>
+        <v>22403.4</v>
       </c>
       <c r="G15" t="n">
-        <v>-70.5547035404741</v>
-      </c>
-      <c r="H15" t="n">
-        <v>-726.559748639901</v>
+        <v>22248.9616005335</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" t="n">
-        <v>-835.150346928779</v>
+        <v>103.359459414189</v>
       </c>
       <c r="C16" t="n">
-        <v>23053.5</v>
+        <v>-243.031795235908</v>
       </c>
       <c r="D16" t="n">
-        <v>-98.6555696855141</v>
+        <v>258.471472105083</v>
       </c>
       <c r="E16" t="n">
-        <v>-5.34742908492808</v>
+        <v>118.799136283364</v>
       </c>
       <c r="F16" t="n">
-        <v>-43.3070721856449</v>
+        <v>22539.4</v>
       </c>
       <c r="G16" t="n">
-        <v>-60.6959265847973</v>
-      </c>
-      <c r="H16" t="n">
-        <v>-731.147348158337</v>
+        <v>22420.6008637166</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="n">
-        <v>-836.898959344985</v>
+        <v>95.0066785256174</v>
       </c>
       <c r="C17" t="n">
-        <v>23223.9</v>
+        <v>-204.887840595535</v>
       </c>
       <c r="D17" t="n">
-        <v>-91.1501573234277</v>
+        <v>233.454459103372</v>
       </c>
       <c r="E17" t="n">
-        <v>-5.44687922348021</v>
+        <v>123.573297033455</v>
       </c>
       <c r="F17" t="n">
-        <v>-34.3705063343748</v>
+        <v>22780.9</v>
       </c>
       <c r="G17" t="n">
-        <v>-62.2265302125331</v>
-      </c>
-      <c r="H17" t="n">
-        <v>-740.301922798077</v>
+        <v>22657.3267029665</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="n">
-        <v>-811.13852204962</v>
+        <v>95.9468002385108</v>
       </c>
       <c r="C18" t="n">
-        <v>23400.3</v>
+        <v>-195.083665604709</v>
       </c>
       <c r="D18" t="n">
-        <v>-62.7938171881224</v>
+        <v>196.276495906559</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.997234269220371</v>
+        <v>97.1396305403602</v>
       </c>
       <c r="F18" t="n">
-        <v>9.90521544738881</v>
+        <v>22960.6</v>
       </c>
       <c r="G18" t="n">
-        <v>-73.6962669047316</v>
-      </c>
-      <c r="H18" t="n">
-        <v>-747.347470592277</v>
+        <v>22863.4603694596</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="n">
+        <v>82.5807197034934</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-187.656271021669</v>
+      </c>
+      <c r="D19" t="n">
+        <v>202.07534968858</v>
+      </c>
+      <c r="E19" t="n">
+        <v>96.999798370405</v>
+      </c>
+      <c r="F19" t="n">
+        <v>23053.5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>22956.5002016296</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="n">
-        <v>-797.837285833443</v>
-      </c>
-      <c r="C19" t="n">
+      <c r="B20" t="n">
+        <v>90.5671094243449</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-189.520509582592</v>
+      </c>
+      <c r="D20" t="n">
+        <v>202.972948368087</v>
+      </c>
+      <c r="E20" t="n">
+        <v>104.01954820984</v>
+      </c>
+      <c r="F20" t="n">
+        <v>23223.9</v>
+      </c>
+      <c r="G20" t="n">
+        <v>23119.8804517902</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="n">
+        <v>126.91537743635</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-198.934760293195</v>
+      </c>
+      <c r="D21" t="n">
+        <v>204.172479097425</v>
+      </c>
+      <c r="E21" t="n">
+        <v>132.153096240581</v>
+      </c>
+      <c r="F21" t="n">
+        <v>23400.3</v>
+      </c>
+      <c r="G21" t="n">
+        <v>23268.1469037594</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="n">
+        <v>128.759777630976</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-199.447839359107</v>
+      </c>
+      <c r="D22" t="n">
+        <v>221.518315551549</v>
+      </c>
+      <c r="E22" t="n">
+        <v>150.830253823418</v>
+      </c>
+      <c r="F22" t="n">
         <v>23530.9</v>
       </c>
-      <c r="D19" t="n">
-        <v>-59.154063865707</v>
-      </c>
-      <c r="E19" t="n">
-        <v>-2.97224787235837</v>
-      </c>
-      <c r="F19" t="n">
-        <v>11.5604184314929</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-73.6867301695583</v>
-      </c>
-      <c r="H19" t="n">
-        <v>-735.710974095377</v>
+      <c r="G22" t="n">
+        <v>23380.0697461766</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="n">
+        <v>90.4865795156256</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-191.119873878575</v>
+      </c>
+      <c r="D23" t="n">
+        <v>221.242188082269</v>
+      </c>
+      <c r="E23" t="n">
+        <v>120.60889371932</v>
+      </c>
+      <c r="F23" t="n">
+        <v>23646.7536121738</v>
+      </c>
+      <c r="G23" t="n">
+        <v>23526.1447184545</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="n">
+        <v>64.7837013182723</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-191.934358432925</v>
+      </c>
+      <c r="D24" t="n">
+        <v>225.894484670454</v>
+      </c>
+      <c r="E24" t="n">
+        <v>98.7438275558006</v>
+      </c>
+      <c r="F24" t="n">
+        <v>23765.7113401448</v>
+      </c>
+      <c r="G24" t="n">
+        <v>23666.967512589</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="n">
+        <v>52.554932377094</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-200.553430650199</v>
+      </c>
+      <c r="D25" t="n">
+        <v>238.683673053146</v>
+      </c>
+      <c r="E25" t="n">
+        <v>90.6851747800411</v>
+      </c>
+      <c r="F25" t="n">
+        <v>23876.9588450065</v>
+      </c>
+      <c r="G25" t="n">
+        <v>23786.2736702265</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="n">
+        <v>37.1903635853186</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-206.195324818472</v>
+      </c>
+      <c r="D26" t="n">
+        <v>242.06827669853</v>
+      </c>
+      <c r="E26" t="n">
+        <v>73.0633154653769</v>
+      </c>
+      <c r="F26" t="n">
+        <v>23979.8953301531</v>
+      </c>
+      <c r="G26" t="n">
+        <v>23906.8320146878</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="n">
+        <v>25.7520315518833</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-214.814359231428</v>
+      </c>
+      <c r="D27" t="n">
+        <v>255.0767125584</v>
+      </c>
+      <c r="E27" t="n">
+        <v>66.0143848788558</v>
+      </c>
+      <c r="F27" t="n">
+        <v>24089.0400468942</v>
+      </c>
+      <c r="G27" t="n">
+        <v>24023.0256620154</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="n">
+        <v>12.0582807583151</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-222.254393456349</v>
+      </c>
+      <c r="D28" t="n">
+        <v>264.682250155971</v>
+      </c>
+      <c r="E28" t="n">
+        <v>54.4861374579374</v>
+      </c>
+      <c r="F28" t="n">
+        <v>24201.2888794325</v>
+      </c>
+      <c r="G28" t="n">
+        <v>24146.8027419746</v>
       </c>
     </row>
   </sheetData>
